--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC523B-7ABA-4833-A1EB-028543B8AFC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D8D12E-EA55-477D-8283-9C7D7C10BC0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENU-LIST" sheetId="37" r:id="rId1"/>
     <sheet name="dxcc" sheetId="3" r:id="rId2"/>
     <sheet name="pas_summary" sheetId="2" r:id="rId3"/>
-    <sheet name="pas_subdivision_type" sheetId="42" r:id="rId4"/>
-    <sheet name="sas_subdivision_type" sheetId="43" r:id="rId5"/>
+    <sheet name="psa_001" sheetId="44" r:id="rId4"/>
+    <sheet name="pas_005" sheetId="47" r:id="rId5"/>
+    <sheet name="pas_006" sheetId="48" r:id="rId6"/>
+    <sheet name="pas_015" sheetId="49" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,282 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Greg Beam</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6EEF5F0E-CCC7-44B2-BD16-DCC83A7DA245}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ust’-Ordynsky Autonomous Okrug - for contacts made before 2008-01-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{2CEB836F-4127-4DBF-A8AD-9F744F237332}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aginsky Buryatsky Autonomous Okrug - for contacts made before 2008-03-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{376C9A9E-FB62-4FF6-BBED-D15810A98E0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Perm` (Permskaya oblast) - for contacts made on or after 2005-12-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{CCBF4859-95C0-4A31-82A7-2F60043865A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Permskaya Kraj - for contacts made before 2005-12-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{ED5CF4EC-A375-4D28-A7FF-C47EBCE7D3D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Komi-Permyatsky Autonomous Okrug - for contacts made before 2005-12-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{F01A5908-9DBA-421C-A83D-41E16096CE60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+S=16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{267B095F-EA59-49F5-81F1-15922F91E496}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+T=17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{DA6C1178-8C78-480D-902B-89BD2441EFE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Taymyr Autonomous Okrug - for contacts made before 2007-01-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{9BBFD81D-E332-413B-9BCD-E43BD3DF39E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Evenkiysky Autonomous Okrug - for contacts made before 2007-01-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{49DE4F1D-7E90-435D-9BB4-6D11FEDCCA1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Zabaykalsky Kraj - referred to as Chita (Chitinskaya oblast) before 2008-03-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{34F4254E-4A5F-495D-8B57-3724204BC732}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg Beam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Koryaksky Autonomous Okrug - for contacts made before 2007-01-01</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="595">
   <si>
     <t>t</t>
   </si>
@@ -1390,13 +1666,445 @@
   </si>
   <si>
     <t>sas_subdivision_type</t>
+  </si>
+  <si>
+    <t>pas_001_id</t>
+  </si>
+  <si>
+    <t>cq_zone_id</t>
+  </si>
+  <si>
+    <t>itu_zone_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Scotia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Québec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manitoba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saskatchewan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Columbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwest Territories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Brunswick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newfoundland and Labrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yukon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince Edward Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nunavut </t>
+  </si>
+  <si>
+    <t>subdivition</t>
+  </si>
+  <si>
+    <t>pas_001</t>
+  </si>
+  <si>
+    <t>pas_001_cqzone</t>
+  </si>
+  <si>
+    <t>pas_001_ituzone</t>
+  </si>
+  <si>
+    <t>dxcc</t>
+  </si>
+  <si>
+    <t>Copy of master DXCC list</t>
+  </si>
+  <si>
+    <t>Brändö</t>
+  </si>
+  <si>
+    <t>Eckerö</t>
+  </si>
+  <si>
+    <t>Finström</t>
+  </si>
+  <si>
+    <t>Föglö</t>
+  </si>
+  <si>
+    <t>Geta</t>
+  </si>
+  <si>
+    <t>Hammarland</t>
+  </si>
+  <si>
+    <t>Jomala</t>
+  </si>
+  <si>
+    <t>Kumlinge</t>
+  </si>
+  <si>
+    <t>Kökar</t>
+  </si>
+  <si>
+    <t>Lemland</t>
+  </si>
+  <si>
+    <t>Lumparland</t>
+  </si>
+  <si>
+    <t>Maarianhamina</t>
+  </si>
+  <si>
+    <t>Saltvik</t>
+  </si>
+  <si>
+    <t>Sottunga</t>
+  </si>
+  <si>
+    <t>Sund</t>
+  </si>
+  <si>
+    <t>Vårdö</t>
+  </si>
+  <si>
+    <t>Märket</t>
+  </si>
+  <si>
+    <t>subdivision</t>
+  </si>
+  <si>
+    <t>pas_006</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>pas_005</t>
+  </si>
+  <si>
+    <t>Canada, Includes CQ Zone and ITU Zone one-to-many tables</t>
+  </si>
+  <si>
+    <t>Aland Is.</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Chelyabinsk (Chelyabinskaya oblast)</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Sverdlovskaya oblast</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Tomsk (Tomskaya oblast)</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Khanty-Mansyisky Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>YN</t>
+  </si>
+  <si>
+    <t>Yamalo-Nenetsky Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tyumen' (Tyumenskaya oblast)</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Omsk (Omskaya oblast)</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Novosibirsk (Novosibirskaya oblast)</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>Kurgan (Kurganskaya oblast)</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>Orenburg (Orenburgskaya oblast)</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>Kemerovo (Kemerovskaya oblast)</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Republic of Bashkortostan</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Republic of Komi</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Altaysky Kraj</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Republic Gorny Altay</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>Krasnoyarsk (Krasnoyarsk Kraj)</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Khabarovsk (Khabarovsky Kraj)</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>Yevreyskaya Autonomous Oblast</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Sakhalin (Sakhalinskaya oblast)</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Magadan (Magadanskaya oblast)</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Amurskaya oblast</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Chukotka Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Primorsky Kraj</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>Republic of Buryatia</t>
+  </si>
+  <si>
+    <t>YA</t>
+  </si>
+  <si>
+    <t>Sakha (Yakut) Republic</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Irkutsk (Irkutskaya oblast)</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>Republic of Khakassia</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>Republic of Tuva</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Kamchatka (Kamchatskaya oblast)</t>
+  </si>
+  <si>
+    <t>oblast</t>
+  </si>
+  <si>
+    <t>before_date</t>
+  </si>
+  <si>
+    <t>referred_to_as</t>
+  </si>
+  <si>
+    <t>Koryaksky Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>Zabaykalsky Kraj</t>
+  </si>
+  <si>
+    <t>Evenkiysky Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>Taymyr Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>Chita (Chitinskaya oblast)</t>
+  </si>
+  <si>
+    <t>Komi-Permyatsky Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>Permskaya Kraj</t>
+  </si>
+  <si>
+    <t>Perm` (Permskaya oblast)</t>
+  </si>
+  <si>
+    <t>Ust’-Ordynsky Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>Aginsky Buryatsky Autonomous Okrug</t>
+  </si>
+  <si>
+    <t>pas_015</t>
+  </si>
+  <si>
+    <t>Asiatic Russia</t>
+  </si>
+  <si>
+    <t>pas_015_id</t>
+  </si>
+  <si>
+    <t>pas_015_cqzone</t>
+  </si>
+  <si>
+    <t>pas_015_utizone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1453,8 +2161,41 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1496,8 +2237,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1550,14 +2296,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1612,15 +2379,109 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_pas_summary" xfId="3" xr:uid="{4AD1CB7B-29C7-477B-BDD3-7523A6CDF74E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC6E0B4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1929,11 +2790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18460EF-30D2-4D9B-9C36-93BDE7059CF7}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,7 +2802,7 @@
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,10 +2817,10 @@
       <c r="A3" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="47" t="s">
         <v>410</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1967,30 +2828,33 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>407</v>
+      <c r="A4" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>450</v>
@@ -2000,20 +2864,57 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -2074,6 +2975,10 @@
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2084,14 +2989,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="13" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="69.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
@@ -9376,1852 +10283,2175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="B1:Q72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23" style="8" customWidth="1"/>
-    <col min="7" max="7" width="76.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="76.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="G1" s="2" t="str">
-        <f>A1&amp;"|"&amp;B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1</f>
+      <c r="H1" s="40" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1&amp;"|"&amp;G1</f>
         <v>id|dxcc_id|pas_subdivision_type_id|has_oblast|has_sas|sas_subdivision_type_id</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="K1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="34" t="str">
+        <f>K1&amp;"|"&amp;L1</f>
+        <v>id|pas_subdivision_type</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q1" s="5" t="str">
+        <f>O1&amp;"|"&amp;P1</f>
+        <v>id|sas_division_type</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D2" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D2" s="20">
-        <v>0</v>
-      </c>
       <c r="E2" s="20">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G65" si="0">A2&amp;"|"&amp;B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41" t="str">
+        <f t="shared" ref="H2:H65" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;G2</f>
         <v>1|1|17|0|0|</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="K2" s="16">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="M2" s="35" t="str">
+        <f t="shared" ref="M2:M26" si="1">K2&amp;"|"&amp;L2</f>
+        <v>1|AMT</v>
+      </c>
+      <c r="O2" s="16">
+        <v>1</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q2" s="6" t="str">
+        <f t="shared" ref="Q2:Q4" si="2">O2&amp;"|"&amp;P2</f>
+        <v>1|County</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="C3" s="17">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
-        <f>pas_subdivision_type!A11</f>
+      <c r="D3" s="8">
+        <f>K11</f>
         <v>10</v>
       </c>
-      <c r="D3" s="20">
-        <v>0</v>
-      </c>
       <c r="E3" s="20">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="41" t="str">
         <f t="shared" si="0"/>
         <v>2|5|10|0|0|</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="K3" s="16">
+        <v>2</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="M3" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>2|BUNDESLAND</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q3" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2|District</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="C4" s="17">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D4" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D4" s="20">
-        <v>0</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
         <v>1</v>
       </c>
-      <c r="F4" s="23">
-        <f>sas_subdivision_type!A2</f>
+      <c r="G4" s="23">
+        <f>O2</f>
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="H4" s="41" t="str">
         <f t="shared" si="0"/>
         <v>3|6|21|0|1|1</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="K4" s="16">
+        <v>3</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="M4" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>3|CANTON</v>
+      </c>
+      <c r="O4" s="16">
+        <v>3</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q4" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>3|Gun</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="C5" s="17">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
-        <f>pas_subdivision_type!A23</f>
+      <c r="D5" s="8">
+        <f>K23</f>
         <v>22</v>
       </c>
-      <c r="D5" s="20">
+      <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="22">
+      <c r="F5" s="22">
         <v>1</v>
       </c>
-      <c r="F5" s="23">
-        <f>sas_subdivision_type!A3</f>
+      <c r="G5" s="23">
+        <f>O3</f>
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="H5" s="41" t="str">
         <f t="shared" si="0"/>
         <v>4|15|22|1|1|2</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="K5" s="16">
+        <v>4</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="M5" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>4|CHANGWAT</v>
+      </c>
+      <c r="Q5" s="39"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="C6" s="17">
         <v>21</v>
       </c>
-      <c r="C6" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D6" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
       <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="2" t="str">
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>5|21|17|0|0|</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="K6" s="16">
+        <v>5</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="M6" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>5|COUNTY</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="C7" s="17">
         <v>27</v>
       </c>
-      <c r="C7" s="8">
-        <f>pas_subdivision_type!A24</f>
+      <c r="D7" s="8">
+        <f>K24</f>
         <v>23</v>
       </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
       <c r="E7" s="20">
         <v>0</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="2" t="str">
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>6|27|23|0|0|</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="K7" s="16">
+        <v>6</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="M7" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>6|DEPARTMENT</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="C8" s="17">
         <v>29</v>
       </c>
-      <c r="C8" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D8" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
       <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2" t="str">
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>7|29|17|0|0|</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="K8" s="16">
+        <v>7</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="M8" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>7|DISTRICT</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="C9" s="17">
         <v>32</v>
       </c>
-      <c r="C9" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D9" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
       <c r="E9" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2" t="str">
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>8|32|17|0|0|</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="K9" s="16">
+        <v>8</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="M9" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>8|DISTRITO</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="C10" s="17">
         <v>50</v>
       </c>
-      <c r="C10" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D10" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
       <c r="E10" s="20">
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="2" t="str">
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>9|50|21|0|0|</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="K10" s="16">
+        <v>9</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>9|JUDETE</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="C11" s="17">
         <v>52</v>
       </c>
-      <c r="C11" s="8">
-        <f>pas_subdivision_type!A13</f>
+      <c r="D11" s="8">
+        <f>K13</f>
         <v>12</v>
       </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
       <c r="E11" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="2" t="str">
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>10|52|12|0|0|</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="K11" s="16">
+        <v>10</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>10|KUNTA</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="C12" s="17">
         <v>54</v>
       </c>
-      <c r="C12" s="8">
-        <f>pas_subdivision_type!A15</f>
+      <c r="D12" s="8">
+        <f>K15</f>
         <v>14</v>
       </c>
-      <c r="D12" s="20">
+      <c r="E12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="22">
+      <c r="F12" s="22">
         <v>1</v>
       </c>
-      <c r="F12" s="23">
-        <f>sas_subdivision_type!A3</f>
+      <c r="G12" s="23">
+        <f>O3</f>
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="H12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>11|54|14|1|1|2</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="K12" s="16">
+        <v>11</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="M12" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>11|LAN</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="C13" s="17">
         <v>61</v>
       </c>
-      <c r="C13" s="8">
-        <f>pas_subdivision_type!A15</f>
+      <c r="D13" s="8">
+        <f>K15</f>
         <v>14</v>
       </c>
-      <c r="D13" s="20">
+      <c r="E13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="22">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="23">
-        <f>sas_subdivision_type!A3</f>
+      <c r="G13" s="23">
+        <f>O3</f>
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="H13" s="41" t="str">
         <f t="shared" si="0"/>
         <v>12|61|14|1|1|2</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="K13" s="16">
+        <v>12</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="M13" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>12|MAAKOND</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="C14" s="17">
         <v>70</v>
       </c>
-      <c r="C14" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D14" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
       <c r="E14" s="20">
         <v>0</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="2" t="str">
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="41" t="str">
         <f t="shared" si="0"/>
         <v>13|70|17|0|0|</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="K14" s="16">
+        <v>13</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="M14" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>13|MEGYE</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="C15" s="17">
         <v>74</v>
       </c>
-      <c r="C15" s="8">
-        <f>pas_subdivision_type!A7</f>
+      <c r="D15" s="8">
+        <f>K7</f>
         <v>6</v>
       </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
       <c r="E15" s="20">
         <v>0</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="2" t="str">
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>14|74|6|0|0|</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="I15" s="19" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="K15" s="16">
+        <v>14</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="M15" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>14|OBLAST</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="C16" s="17">
         <v>86</v>
       </c>
-      <c r="C16" s="8">
-        <f>pas_subdivision_type!A7</f>
+      <c r="D16" s="8">
+        <f>K7</f>
         <v>6</v>
       </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
       <c r="E16" s="20">
         <v>0</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="2" t="str">
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="41" t="str">
         <f t="shared" si="0"/>
         <v>15|86|6|0|0|</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="I16" s="19" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="K16" s="16">
+        <v>15</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="M16" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>15|OKRES</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="C17" s="17">
         <v>100</v>
       </c>
-      <c r="C17" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D17" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D17" s="20">
-        <v>0</v>
-      </c>
       <c r="E17" s="20">
         <v>0</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="2" t="str">
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="41" t="str">
         <f t="shared" si="0"/>
         <v>16|100|17|0|0|</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="I17" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="K17" s="16">
+        <v>16</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="M17" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>16|PREFECTURE</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="C18" s="17">
         <v>104</v>
       </c>
-      <c r="C18" s="8">
-        <f>pas_subdivision_type!A7</f>
+      <c r="D18" s="8">
+        <f>K7</f>
         <v>6</v>
       </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
       <c r="E18" s="20">
         <v>0</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="2" t="str">
+      <c r="F18" s="20">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="41" t="str">
         <f t="shared" si="0"/>
         <v>17|104|6|0|0|</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="19" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="K18" s="16">
+        <v>17</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="M18" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>17|PROVINCE</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="C19" s="17">
         <v>108</v>
       </c>
-      <c r="C19" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D19" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
       <c r="E19" s="20">
         <v>0</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="2" t="str">
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="41" t="str">
         <f t="shared" si="0"/>
         <v>18|108|21|0|0|</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="I19" s="19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="K19" s="16">
+        <v>18</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="M19" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>18|PROVINSI</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="C20" s="17">
         <v>110</v>
       </c>
-      <c r="C20" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D20" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="23">
-        <f>sas_subdivision_type!A2</f>
+      <c r="G20" s="23">
+        <f>O2</f>
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="H20" s="41" t="str">
         <f t="shared" si="0"/>
         <v>19|110|21|0|1|1</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="I20" s="19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="K20" s="16">
+        <v>19</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="M20" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>19|RAION</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="C21" s="17">
         <v>112</v>
       </c>
-      <c r="C21" s="8">
-        <f>pas_subdivision_type!A21</f>
+      <c r="D21" s="8">
+        <f>K21</f>
         <v>20</v>
       </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
       <c r="E21" s="20">
         <v>0</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="2" t="str">
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="41" t="str">
         <f t="shared" si="0"/>
         <v>20|112|20|0|0|</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="19" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="K21" s="16">
+        <v>20</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="M21" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>20|REGION</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="C22" s="17">
         <v>126</v>
       </c>
-      <c r="C22" s="8">
-        <f>pas_subdivision_type!A15</f>
+      <c r="D22" s="8">
+        <f>K15</f>
         <v>14</v>
       </c>
-      <c r="D22" s="20">
+      <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="E22" s="22">
+      <c r="F22" s="22">
         <v>1</v>
       </c>
-      <c r="F22" s="23">
-        <f>sas_subdivision_type!A3</f>
+      <c r="G22" s="23">
+        <f>O3</f>
         <v>2</v>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="H22" s="41" t="str">
         <f t="shared" si="0"/>
         <v>21|126|14|1|1|2</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="I22" s="19" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="K22" s="16">
+        <v>21</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="M22" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>21|STATE</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="C23" s="17">
         <v>130</v>
       </c>
-      <c r="C23" s="8">
-        <f>pas_subdivision_type!A15</f>
+      <c r="D23" s="8">
+        <f>K15</f>
         <v>14</v>
       </c>
-      <c r="D23" s="20">
+      <c r="E23" s="20">
         <v>1</v>
       </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="2" t="str">
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="41" t="str">
         <f t="shared" si="0"/>
         <v>22|130|14|1|0|</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="I23" s="19" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="K23" s="16">
+        <v>22</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="M23" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>22|SUBYEKT</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="C24" s="17">
         <v>132</v>
       </c>
-      <c r="C24" s="8">
-        <f>pas_subdivision_type!A7</f>
+      <c r="D24" s="8">
+        <f>K7</f>
         <v>6</v>
       </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
       <c r="E24" s="20">
         <v>0</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="2" t="str">
+      <c r="F24" s="20">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="41" t="str">
         <f t="shared" si="0"/>
         <v>23|132|6|0|0|</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="I24" s="19" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="K24" s="16">
+        <v>23</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="M24" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>23|VOBLAST</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="C25" s="17">
         <v>137</v>
       </c>
-      <c r="C25" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D25" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
       <c r="E25" s="20">
+        <v>0</v>
+      </c>
+      <c r="F25" s="48">
         <v>1</v>
       </c>
-      <c r="F25" s="21">
-        <f>sas_subdivision_type!A3</f>
+      <c r="G25" s="49">
+        <f>O3</f>
         <v>2</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="H25" s="41" t="str">
         <f t="shared" si="0"/>
         <v>24|137|17|0|1|2</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="I25" s="19" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="K25" s="16">
+        <v>24</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="M25" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>24|VOIVODESHIP</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
+      <c r="C26" s="17">
         <v>138</v>
       </c>
-      <c r="C26" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D26" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
       <c r="E26" s="20">
         <v>0</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="2" t="str">
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="41" t="str">
         <f t="shared" si="0"/>
         <v>25|138|21|0|0|</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="I26" s="19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="K26" s="16">
+        <v>25</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="M26" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>25|ZUPANIJA</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="C27" s="17">
         <v>144</v>
       </c>
-      <c r="C27" s="8">
-        <f>pas_subdivision_type!A7</f>
+      <c r="D27" s="8">
+        <f>K7</f>
         <v>6</v>
       </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
       <c r="E27" s="20">
         <v>0</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="2" t="str">
+      <c r="F27" s="20">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="41" t="str">
         <f t="shared" si="0"/>
         <v>26|144|6|0|0|</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="I27" s="19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="17">
+      <c r="C28" s="17">
         <v>147</v>
       </c>
-      <c r="C28" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D28" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
       <c r="E28" s="20">
         <v>0</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="2" t="str">
+      <c r="F28" s="20">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="41" t="str">
         <f t="shared" si="0"/>
         <v>27|147|21|0|0|</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="I28" s="19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
+      <c r="C29" s="17">
         <v>148</v>
       </c>
-      <c r="C29" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D29" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
       <c r="E29" s="20">
         <v>0</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="2" t="str">
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="41" t="str">
         <f t="shared" si="0"/>
         <v>28|148|21|0|0|</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="I29" s="19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="M29" s="38" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
+      <c r="C30" s="17">
         <v>149</v>
       </c>
-      <c r="C30" s="8">
-        <f>pas_subdivision_type!A9</f>
+      <c r="D30" s="8">
+        <f>K9</f>
         <v>8</v>
       </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
       <c r="E30" s="20">
         <v>0</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="2" t="str">
+      <c r="F30" s="20">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="41" t="str">
         <f t="shared" si="0"/>
         <v>29|149|8|0|0|</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="I30" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
+      <c r="C31" s="17">
         <v>150</v>
       </c>
-      <c r="C31" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D31" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
       <c r="E31" s="20">
         <v>0</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="2" t="str">
+      <c r="F31" s="20">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="41" t="str">
         <f t="shared" si="0"/>
         <v>30|150|21|0|0|</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="I31" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="17">
+      <c r="C32" s="17">
         <v>151</v>
       </c>
-      <c r="C32" s="8">
-        <f>pas_subdivision_type!A15</f>
+      <c r="D32" s="8">
+        <f>K15</f>
         <v>14</v>
       </c>
-      <c r="D32" s="20">
+      <c r="E32" s="20">
         <v>1</v>
       </c>
-      <c r="E32" s="22">
+      <c r="F32" s="22">
         <v>1</v>
       </c>
-      <c r="F32" s="23">
-        <f>sas_subdivision_type!A3</f>
+      <c r="G32" s="23">
+        <f>O3</f>
         <v>2</v>
       </c>
-      <c r="G32" s="2" t="str">
+      <c r="H32" s="41" t="str">
         <f t="shared" si="0"/>
         <v>31|151|14|1|1|2</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="I32" s="19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
+      <c r="C33" s="17">
         <v>153</v>
       </c>
-      <c r="C33" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D33" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
       <c r="E33" s="20">
         <v>0</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="2" t="str">
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="41" t="str">
         <f t="shared" si="0"/>
         <v>32|153|21|0|0|</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="I33" s="19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
+      <c r="C34" s="17">
         <v>163</v>
       </c>
-      <c r="C34" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D34" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
       <c r="E34" s="20">
         <v>0</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="2" t="str">
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="41" t="str">
         <f t="shared" si="0"/>
         <v>33|163|17|0|0|</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="I34" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
+      <c r="C35" s="17">
         <v>170</v>
       </c>
-      <c r="C35" s="8">
-        <f>pas_subdivision_type!A21</f>
+      <c r="D35" s="8">
+        <f>K21</f>
         <v>20</v>
       </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-      <c r="E35" s="22">
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
         <v>1</v>
       </c>
-      <c r="F35" s="23">
-        <f>sas_subdivision_type!A2</f>
+      <c r="G35" s="23">
+        <f>O2</f>
         <v>1</v>
       </c>
-      <c r="G35" s="2" t="str">
+      <c r="H35" s="41" t="str">
         <f t="shared" si="0"/>
         <v>34|170|20|0|1|1</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="I35" s="19" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="17">
+      <c r="C36" s="17">
         <v>177</v>
       </c>
-      <c r="C36" s="8">
-        <f>pas_subdivision_type!A17</f>
+      <c r="D36" s="8">
+        <f>K17</f>
         <v>16</v>
       </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22">
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
         <v>1</v>
       </c>
-      <c r="F36" s="23">
-        <f>sas_subdivision_type!A4</f>
+      <c r="G36" s="23">
+        <f>O4</f>
         <v>3</v>
       </c>
-      <c r="G36" s="2" t="str">
+      <c r="H36" s="41" t="str">
         <f t="shared" si="0"/>
         <v>35|177|16|0|1|3</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="I36" s="19" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="17">
+      <c r="C37" s="17">
         <v>179</v>
       </c>
-      <c r="C37" s="8">
-        <f>pas_subdivision_type!A20</f>
+      <c r="D37" s="8">
+        <f>K20</f>
         <v>19</v>
       </c>
-      <c r="D37" s="20">
-        <v>0</v>
-      </c>
       <c r="E37" s="20">
         <v>0</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="2" t="str">
+      <c r="F37" s="20">
+        <v>0</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="41" t="str">
         <f t="shared" si="0"/>
         <v>36|179|19|0|0|</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="I37" s="19" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="17">
+      <c r="C38" s="17">
         <v>192</v>
       </c>
-      <c r="C38" s="8">
-        <f>pas_subdivision_type!A17</f>
+      <c r="D38" s="8">
+        <f>K17</f>
         <v>16</v>
       </c>
-      <c r="D38" s="20">
-        <v>0</v>
-      </c>
-      <c r="E38" s="22">
+      <c r="E38" s="20">
+        <v>0</v>
+      </c>
+      <c r="F38" s="22">
         <v>1</v>
       </c>
-      <c r="F38" s="23">
-        <f>sas_subdivision_type!A4</f>
+      <c r="G38" s="23">
+        <f>O4</f>
         <v>3</v>
       </c>
-      <c r="G38" s="2" t="str">
+      <c r="H38" s="41" t="str">
         <f t="shared" si="0"/>
         <v>37|192|16|0|1|3</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="I38" s="19" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="17">
+      <c r="C39" s="17">
         <v>206</v>
       </c>
-      <c r="C39" s="8">
-        <f>pas_subdivision_type!A8</f>
+      <c r="D39" s="8">
+        <f>K8</f>
         <v>7</v>
       </c>
-      <c r="D39" s="20">
-        <v>0</v>
-      </c>
       <c r="E39" s="20">
         <v>0</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="2" t="str">
+      <c r="F39" s="20">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="41" t="str">
         <f t="shared" si="0"/>
         <v>38|206|7|0|0|</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="I39" s="19" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="17">
+      <c r="C40" s="17">
         <v>209</v>
       </c>
-      <c r="C40" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D40" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D40" s="20">
-        <v>0</v>
-      </c>
       <c r="E40" s="20">
         <v>0</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="2" t="str">
+      <c r="F40" s="20">
+        <v>0</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="41" t="str">
         <f t="shared" si="0"/>
         <v>39|209|17|0|0|</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="I40" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="17">
+      <c r="C41" s="17">
         <v>212</v>
       </c>
-      <c r="C41" s="8">
-        <f>pas_subdivision_type!A15</f>
+      <c r="D41" s="8">
+        <f>K15</f>
         <v>14</v>
       </c>
-      <c r="D41" s="20">
-        <v>0</v>
-      </c>
       <c r="E41" s="20">
         <v>0</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="2" t="str">
+      <c r="F41" s="20">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="41" t="str">
         <f t="shared" si="0"/>
         <v>40|212|14|0|0|</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="I41" s="19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="17">
+      <c r="C42" s="17">
         <v>214</v>
       </c>
-      <c r="C42" s="8">
-        <f>pas_subdivision_type!A7</f>
+      <c r="D42" s="8">
+        <f>K7</f>
         <v>6</v>
       </c>
-      <c r="D42" s="20">
-        <v>0</v>
-      </c>
       <c r="E42" s="20">
         <v>0</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="2" t="str">
+      <c r="F42" s="20">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="41" t="str">
         <f t="shared" si="0"/>
         <v>41|214|6|0|0|</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="I42" s="19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="17">
+      <c r="C43" s="17">
         <v>221</v>
       </c>
-      <c r="C43" s="8">
-        <f>pas_subdivision_type!A2</f>
+      <c r="D43" s="8">
+        <f>K2</f>
         <v>1</v>
       </c>
-      <c r="D43" s="20">
-        <v>0</v>
-      </c>
       <c r="E43" s="20">
         <v>0</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="2" t="str">
+      <c r="F43" s="20">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="41" t="str">
         <f t="shared" si="0"/>
         <v>42|221|1|0|0|</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="I43" s="19" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="17">
+      <c r="C44" s="17">
         <v>224</v>
       </c>
-      <c r="C44" s="8">
-        <f>pas_subdivision_type!A11</f>
+      <c r="D44" s="8">
+        <f>K11</f>
         <v>10</v>
       </c>
-      <c r="D44" s="20">
-        <v>0</v>
-      </c>
       <c r="E44" s="20">
         <v>0</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="2" t="str">
+      <c r="F44" s="20">
+        <v>0</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="41" t="str">
         <f t="shared" si="0"/>
         <v>43|224|10|0|0|</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="I44" s="19" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="17">
+      <c r="C45" s="17">
         <v>225</v>
       </c>
-      <c r="C45" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D45" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D45" s="20">
-        <v>0</v>
-      </c>
       <c r="E45" s="20">
         <v>0</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="2" t="str">
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="41" t="str">
         <f t="shared" si="0"/>
         <v>44|225|17|0|0|</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="I45" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="17">
+      <c r="C46" s="17">
         <v>227</v>
       </c>
-      <c r="C46" s="8">
-        <f>pas_subdivision_type!A7</f>
+      <c r="D46" s="8">
+        <f>K7</f>
         <v>6</v>
       </c>
-      <c r="D46" s="20">
-        <v>0</v>
-      </c>
       <c r="E46" s="20">
         <v>0</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="2" t="str">
+      <c r="F46" s="20">
+        <v>0</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="41" t="str">
         <f t="shared" si="0"/>
         <v>45|227|6|0|0|</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="I46" s="19" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="17">
+      <c r="C47" s="17">
         <v>230</v>
       </c>
-      <c r="C47" s="8">
-        <f>pas_subdivision_type!A3</f>
+      <c r="D47" s="8">
+        <f>K3</f>
         <v>2</v>
       </c>
-      <c r="D47" s="20">
-        <v>0</v>
-      </c>
       <c r="E47" s="20">
         <v>0</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="2" t="str">
+      <c r="F47" s="20">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="41" t="str">
         <f t="shared" si="0"/>
         <v>46|230|2|0|0|</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="I47" s="19" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="17">
+      <c r="C48" s="17">
         <v>239</v>
       </c>
-      <c r="C48" s="8">
-        <f>pas_subdivision_type!A14</f>
+      <c r="D48" s="8">
+        <f>K14</f>
         <v>13</v>
       </c>
-      <c r="D48" s="20">
-        <v>0</v>
-      </c>
       <c r="E48" s="20">
         <v>0</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="2" t="str">
+      <c r="F48" s="20">
+        <v>0</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="41" t="str">
         <f t="shared" si="0"/>
         <v>47|239|13|0|0|</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="I48" s="19" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="17">
+      <c r="C49" s="17">
         <v>245</v>
       </c>
-      <c r="C49" s="8">
-        <f>pas_subdivision_type!A6</f>
+      <c r="D49" s="8">
+        <f>K6</f>
         <v>5</v>
       </c>
-      <c r="D49" s="20">
-        <v>0</v>
-      </c>
       <c r="E49" s="20">
         <v>0</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="2" t="str">
+      <c r="F49" s="20">
+        <v>0</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="41" t="str">
         <f t="shared" si="0"/>
         <v>48|245|5|0|0|</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="I49" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="17">
+      <c r="C50" s="17">
         <v>248</v>
       </c>
-      <c r="C50" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D50" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D50" s="20">
-        <v>0</v>
-      </c>
       <c r="E50" s="20">
         <v>0</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="2" t="str">
+      <c r="F50" s="20">
+        <v>0</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="41" t="str">
         <f t="shared" si="0"/>
         <v>49|248|17|0|0|</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="I50" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="17">
+      <c r="C51" s="17">
         <v>256</v>
       </c>
-      <c r="C51" s="8">
-        <f>pas_subdivision_type!A9</f>
+      <c r="D51" s="8">
+        <f>K9</f>
         <v>8</v>
       </c>
-      <c r="D51" s="20">
-        <v>0</v>
-      </c>
       <c r="E51" s="20">
         <v>0</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="2" t="str">
+      <c r="F51" s="20">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="41" t="str">
         <f t="shared" si="0"/>
         <v>50|256|8|0|0|</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="I51" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="17">
+      <c r="C52" s="17">
         <v>263</v>
       </c>
-      <c r="C52" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D52" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D52" s="20">
-        <v>0</v>
-      </c>
       <c r="E52" s="20">
         <v>0</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="2" t="str">
+      <c r="F52" s="20">
+        <v>0</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="41" t="str">
         <f t="shared" si="0"/>
         <v>51|263|17|0|0|</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="I52" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="17">
+      <c r="C53" s="17">
         <v>269</v>
       </c>
-      <c r="C53" s="8">
-        <f>pas_subdivision_type!A25</f>
+      <c r="D53" s="8">
+        <f>K25</f>
         <v>24</v>
       </c>
-      <c r="D53" s="20">
-        <v>0</v>
-      </c>
       <c r="E53" s="20">
         <v>0</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="2" t="str">
+      <c r="F53" s="20">
+        <v>0</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="41" t="str">
         <f t="shared" si="0"/>
         <v>52|269|24|0|0|</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="I53" s="19" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="17">
+      <c r="C54" s="17">
         <v>272</v>
       </c>
-      <c r="C54" s="8">
-        <f>pas_subdivision_type!A9</f>
+      <c r="D54" s="8">
+        <f>K9</f>
         <v>8</v>
       </c>
-      <c r="D54" s="20">
-        <v>0</v>
-      </c>
       <c r="E54" s="20">
         <v>0</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="2" t="str">
+      <c r="F54" s="20">
+        <v>0</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="41" t="str">
         <f t="shared" si="0"/>
         <v>53|272|8|0|0|</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="I54" s="19" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="17">
+      <c r="C55" s="17">
         <v>275</v>
       </c>
-      <c r="C55" s="8">
-        <f>pas_subdivision_type!A10</f>
+      <c r="D55" s="8">
+        <f>K10</f>
         <v>9</v>
       </c>
-      <c r="D55" s="20">
-        <v>0</v>
-      </c>
       <c r="E55" s="20">
         <v>0</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="2" t="str">
+      <c r="F55" s="20">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="41" t="str">
         <f t="shared" si="0"/>
         <v>54|275|9|0|0|</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="I55" s="19" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="17">
+      <c r="C56" s="17">
         <v>281</v>
       </c>
-      <c r="C56" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="D56" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D56" s="20">
-        <v>0</v>
-      </c>
       <c r="E56" s="20">
         <v>0</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="2" t="str">
+      <c r="F56" s="20">
+        <v>0</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="41" t="str">
         <f t="shared" si="0"/>
         <v>55|281|17|0|0|</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="I56" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="17">
+      <c r="C57" s="17">
         <v>284</v>
       </c>
-      <c r="C57" s="8">
-        <f>pas_subdivision_type!A12</f>
+      <c r="D57" s="8">
+        <f>K12</f>
         <v>11</v>
       </c>
-      <c r="D57" s="20">
-        <v>0</v>
-      </c>
       <c r="E57" s="20">
         <v>0</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="2" t="str">
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="41" t="str">
         <f t="shared" si="0"/>
         <v>56|284|11|0|0|</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="I57" s="19" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="17">
+      <c r="C58" s="17">
         <v>287</v>
       </c>
-      <c r="C58" s="8">
-        <f>pas_subdivision_type!A4</f>
+      <c r="D58" s="8">
+        <f>K4</f>
         <v>3</v>
       </c>
-      <c r="D58" s="20">
-        <v>0</v>
-      </c>
       <c r="E58" s="20">
         <v>0</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="2" t="str">
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="41" t="str">
         <f t="shared" si="0"/>
         <v>57|287|3|0|0|</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="I58" s="19" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="17">
+      <c r="C59" s="17">
         <v>288</v>
       </c>
-      <c r="C59" s="8">
-        <f>pas_subdivision_type!A15</f>
+      <c r="D59" s="8">
+        <f>K15</f>
         <v>14</v>
       </c>
-      <c r="D59" s="20">
-        <v>0</v>
-      </c>
-      <c r="E59" s="22">
+      <c r="E59" s="20">
+        <v>0</v>
+      </c>
+      <c r="F59" s="22">
         <v>1</v>
       </c>
-      <c r="F59" s="23">
-        <f>sas_subdivision_type!A3</f>
+      <c r="G59" s="23">
+        <f>O3</f>
         <v>2</v>
       </c>
-      <c r="G59" s="2" t="str">
+      <c r="H59" s="41" t="str">
         <f t="shared" si="0"/>
         <v>58|288|14|0|1|2</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="I59" s="19" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="17">
+      <c r="C60" s="17">
         <v>291</v>
       </c>
-      <c r="C60" s="8">
-        <f>pas_subdivision_type!A22</f>
+      <c r="D60" s="8">
+        <f>K22</f>
         <v>21</v>
       </c>
-      <c r="D60" s="20">
-        <v>0</v>
-      </c>
-      <c r="E60" s="22">
+      <c r="E60" s="20">
+        <v>0</v>
+      </c>
+      <c r="F60" s="22">
         <v>1</v>
       </c>
-      <c r="F60" s="23">
-        <f>sas_subdivision_type!A2</f>
+      <c r="G60" s="23">
+        <f>O3</f>
+        <v>2</v>
+      </c>
+      <c r="H60" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>59|291|21|0|1|2</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="17">
+        <v>318</v>
+      </c>
+      <c r="D61" s="8">
+        <f>K18</f>
+        <v>17</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>60|318|17|0|0|</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="17">
+        <v>327</v>
+      </c>
+      <c r="D62" s="8">
+        <f>K19</f>
+        <v>18</v>
+      </c>
+      <c r="E62" s="20">
+        <v>0</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>61|327|18|0|0|</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="17">
+        <v>339</v>
+      </c>
+      <c r="D63" s="8">
+        <f>K17</f>
+        <v>16</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0</v>
+      </c>
+      <c r="F63" s="22">
         <v>1</v>
       </c>
-      <c r="G60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>59|291|21|0|1|1</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17">
-        <v>318</v>
-      </c>
-      <c r="C61" s="8">
-        <f>pas_subdivision_type!A18</f>
+      <c r="G63" s="23">
+        <f>O4</f>
+        <v>3</v>
+      </c>
+      <c r="H63" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>62|339|16|0|1|3</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="17">
+        <v>375</v>
+      </c>
+      <c r="D64" s="8">
+        <f>K18</f>
         <v>17</v>
       </c>
-      <c r="D61" s="20">
-        <v>0</v>
-      </c>
-      <c r="E61" s="20">
-        <v>0</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>60|318|17|0|0|</v>
-      </c>
-      <c r="H61" s="19" t="s">
+      <c r="E64" s="20">
+        <v>0</v>
+      </c>
+      <c r="F64" s="20">
+        <v>0</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>63|375|17|0|0|</v>
+      </c>
+      <c r="I64" s="19" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17">
-        <v>327</v>
-      </c>
-      <c r="C62" s="8">
-        <f>pas_subdivision_type!A19</f>
-        <v>18</v>
-      </c>
-      <c r="D62" s="20">
-        <v>0</v>
-      </c>
-      <c r="E62" s="20">
-        <v>0</v>
-      </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>61|327|18|0|0|</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17">
-        <v>339</v>
-      </c>
-      <c r="C63" s="8">
-        <f>pas_subdivision_type!A17</f>
-        <v>16</v>
-      </c>
-      <c r="D63" s="20">
-        <v>0</v>
-      </c>
-      <c r="E63" s="22">
-        <v>1</v>
-      </c>
-      <c r="F63" s="23">
-        <f>sas_subdivision_type!A4</f>
-        <v>3</v>
-      </c>
-      <c r="G63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>62|339|16|0|1|3</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="17">
-        <v>375</v>
-      </c>
-      <c r="C64" s="8">
-        <f>pas_subdivision_type!A18</f>
-        <v>17</v>
-      </c>
-      <c r="D64" s="20">
-        <v>0</v>
-      </c>
-      <c r="E64" s="20">
-        <v>0</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>63|375|17|0|0|</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="17">
+      <c r="C65" s="17">
         <v>386</v>
       </c>
-      <c r="C65" s="8">
-        <f>pas_subdivision_type!A6</f>
+      <c r="D65" s="8">
+        <f>K6</f>
         <v>5</v>
       </c>
-      <c r="D65" s="20">
-        <v>0</v>
-      </c>
       <c r="E65" s="20">
         <v>0</v>
       </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="2" t="str">
+      <c r="F65" s="20">
+        <v>0</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="41" t="str">
         <f t="shared" si="0"/>
         <v>64|386|5|0|0|</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="I65" s="19" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="17">
+      <c r="C66" s="17">
         <v>387</v>
       </c>
-      <c r="C66" s="8">
-        <f>pas_subdivision_type!A5</f>
+      <c r="D66" s="8">
+        <f>K5</f>
         <v>4</v>
       </c>
-      <c r="D66" s="20">
-        <v>0</v>
-      </c>
       <c r="E66" s="20">
         <v>0</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="2" t="str">
-        <f t="shared" ref="G66:G69" si="1">A66&amp;"|"&amp;B66&amp;"|"&amp;C66&amp;"|"&amp;D66&amp;"|"&amp;E66&amp;"|"&amp;F66</f>
+      <c r="F66" s="20">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="41" t="str">
+        <f t="shared" ref="H66:H69" si="3">B66&amp;"|"&amp;C66&amp;"|"&amp;D66&amp;"|"&amp;E66&amp;"|"&amp;F66&amp;"|"&amp;G66</f>
         <v>65|387|4|0|0|</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="I66" s="19" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="17">
+      <c r="C67" s="17">
         <v>497</v>
       </c>
-      <c r="C67" s="8">
-        <f>pas_subdivision_type!A26</f>
+      <c r="D67" s="8">
+        <f>K26</f>
         <v>25</v>
       </c>
-      <c r="D67" s="20">
-        <v>0</v>
-      </c>
       <c r="E67" s="20">
         <v>0</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F67" s="20">
+        <v>0</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="41" t="str">
+        <f t="shared" si="3"/>
         <v>66|497|25|0|0|</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="I67" s="19" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="17">
+      <c r="C68" s="17">
         <v>503</v>
       </c>
-      <c r="C68" s="8">
-        <f>pas_subdivision_type!A16</f>
+      <c r="D68" s="8">
+        <f>K16</f>
         <v>15</v>
       </c>
-      <c r="D68" s="20">
-        <v>0</v>
-      </c>
       <c r="E68" s="20">
         <v>0</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F68" s="20">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="41" t="str">
+        <f t="shared" si="3"/>
         <v>67|503|15|0|0|</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="I68" s="19" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="17">
+      <c r="C69" s="17">
         <v>504</v>
       </c>
-      <c r="C69" s="8">
-        <f>pas_subdivision_type!A16</f>
+      <c r="D69" s="8">
+        <f>K16</f>
         <v>15</v>
       </c>
-      <c r="D69" s="20">
-        <v>0</v>
-      </c>
       <c r="E69" s="20">
         <v>0</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="F69" s="20">
+        <v>0</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="41" t="str">
+        <f t="shared" si="3"/>
         <v>68|504|15|0|0|</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="I69" s="19" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="42"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="43" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -11231,398 +12461,3435 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D26967-BF7E-482B-B31F-6AE0FA6C63BB}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FCF9E-88D0-4190-A2F7-F0642BE1327B}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1" s="5" t="str">
-        <f>A1&amp;"|"&amp;B1</f>
-        <v>id|pas_subdivision_type</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="B1" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" s="26" t="str">
+        <f>A1&amp;"|"&amp;B1&amp;"|"&amp;C1</f>
+        <v>id|code|subdivition</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="44" t="str">
+        <f>F1&amp;"|"&amp;G1&amp;"|"&amp;H1</f>
+        <v>id|pas_001_id|cq_zone_id</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="N1" s="26" t="str">
+        <f>K1&amp;"|"&amp;L1&amp;"|"&amp;M1</f>
+        <v>id|pas_001_id|itu_zone_id</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f t="shared" ref="C2:C26" si="0">A2&amp;"|"&amp;B2</f>
-        <v>1|AMT</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" s="25" t="str">
+        <f t="shared" ref="D2:D14" si="0">A2&amp;"|"&amp;B2&amp;"|"&amp;C2</f>
+        <v xml:space="preserve">1|NS |Nova Scotia </v>
+      </c>
+      <c r="F2" s="30">
+        <v>1</v>
+      </c>
+      <c r="G2" s="30">
+        <v>1</v>
+      </c>
+      <c r="H2" s="30">
+        <v>5</v>
+      </c>
+      <c r="I2" s="29" t="str">
+        <f t="shared" ref="I2:I18" si="1">F2&amp;"|"&amp;G2&amp;"|"&amp;H2</f>
+        <v>1|1|5</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>9</v>
+      </c>
+      <c r="N2" s="31" t="str">
+        <f t="shared" ref="N2:N20" si="2">K2&amp;"|"&amp;L2&amp;"|"&amp;M2</f>
+        <v>1|1|9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>2|BUNDESLAND</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="B3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">2|QC |Québec </v>
+      </c>
+      <c r="F3" s="30">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30">
+        <v>2</v>
+      </c>
+      <c r="I3" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>2|2|2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>4</v>
+      </c>
+      <c r="N3" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>2|2|4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>3|CANTON</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="B4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">3|ON |Ontario </v>
+      </c>
+      <c r="F4" s="30">
+        <v>3</v>
+      </c>
+      <c r="G4" s="30">
+        <v>2</v>
+      </c>
+      <c r="H4" s="30">
+        <v>5</v>
+      </c>
+      <c r="I4" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>3|2|5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>9</v>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>3|2|9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>4|CHANGWAT</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="B5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">4|MB |Manitoba </v>
+      </c>
+      <c r="F5" s="30">
+        <v>4</v>
+      </c>
+      <c r="G5" s="30">
+        <v>3</v>
+      </c>
+      <c r="H5" s="30">
+        <v>4</v>
+      </c>
+      <c r="I5" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>4|3|4</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>3</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>4|3|3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="C6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>5|COUNTY</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="B6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">5|SK |Saskatchewan </v>
+      </c>
+      <c r="F6" s="30">
+        <v>5</v>
+      </c>
+      <c r="G6" s="30">
+        <v>4</v>
+      </c>
+      <c r="H6" s="30">
+        <v>4</v>
+      </c>
+      <c r="I6" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>5|4|4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4</v>
+      </c>
+      <c r="N6" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>5|3|4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>6|DEPARTMENT</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">6|AB |Alberta </v>
+      </c>
+      <c r="F7" s="30">
+        <v>6</v>
+      </c>
+      <c r="G7" s="30">
+        <v>5</v>
+      </c>
+      <c r="H7" s="30">
+        <v>4</v>
+      </c>
+      <c r="I7" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>6|5|4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3</v>
+      </c>
+      <c r="N7" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>6|4|3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>7|DISTRICT</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">7|BC |British Columbia </v>
+      </c>
+      <c r="F8" s="30">
+        <v>7</v>
+      </c>
+      <c r="G8" s="30">
+        <v>6</v>
+      </c>
+      <c r="H8" s="30">
+        <v>4</v>
+      </c>
+      <c r="I8" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>7|6|4</v>
+      </c>
+      <c r="K8" s="8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="8">
+        <v>4</v>
+      </c>
+      <c r="N8" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>7|4|4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>8|DISTRITO</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="B9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">8|NT |Northwest Territories </v>
+      </c>
+      <c r="F9" s="30">
+        <v>8</v>
+      </c>
+      <c r="G9" s="30">
+        <v>7</v>
+      </c>
+      <c r="H9" s="30">
+        <v>3</v>
+      </c>
+      <c r="I9" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>8|7|3</v>
+      </c>
+      <c r="K9" s="8">
+        <v>8</v>
+      </c>
+      <c r="L9" s="8">
+        <v>5</v>
+      </c>
+      <c r="M9" s="8">
+        <v>3</v>
+      </c>
+      <c r="N9" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>8|5|3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>9|JUDETE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="B10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">9|NB |New Brunswick </v>
+      </c>
+      <c r="F10" s="30">
+        <v>9</v>
+      </c>
+      <c r="G10" s="30">
+        <v>8</v>
+      </c>
+      <c r="H10" s="30">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>9|8|1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>9</v>
+      </c>
+      <c r="L10" s="8">
+        <v>6</v>
+      </c>
+      <c r="M10" s="8">
+        <v>2</v>
+      </c>
+      <c r="N10" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>9|6|2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>10|KUNTA</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="B11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">10|NL |Newfoundland and Labrador </v>
+      </c>
+      <c r="F11" s="30">
+        <v>10</v>
+      </c>
+      <c r="G11" s="30">
+        <v>8</v>
+      </c>
+      <c r="H11" s="30">
+        <v>2</v>
+      </c>
+      <c r="I11" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>10|8|2</v>
+      </c>
+      <c r="K11" s="8">
+        <v>10</v>
+      </c>
+      <c r="L11" s="8">
+        <v>7</v>
+      </c>
+      <c r="M11" s="8">
+        <v>2</v>
+      </c>
+      <c r="N11" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>10|7|2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>11|LAN</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">11|YT |Yukon </v>
+      </c>
+      <c r="F12" s="30">
+        <v>11</v>
+      </c>
+      <c r="G12" s="30">
+        <v>8</v>
+      </c>
+      <c r="H12" s="30">
+        <v>4</v>
+      </c>
+      <c r="I12" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>11|8|4</v>
+      </c>
+      <c r="K12" s="8">
+        <v>11</v>
+      </c>
+      <c r="L12" s="8">
+        <v>8</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>11|8|3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>12|MAAKOND</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="B13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">12|PE |Prince Edward Island </v>
+      </c>
+      <c r="F13" s="30">
+        <v>12</v>
+      </c>
+      <c r="G13" s="30">
+        <v>9</v>
+      </c>
+      <c r="H13" s="30">
+        <v>5</v>
+      </c>
+      <c r="I13" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>12|9|5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8">
+        <v>8</v>
+      </c>
+      <c r="M13" s="8">
+        <v>4</v>
+      </c>
+      <c r="N13" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>12|8|4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>13|MEGYE</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="B14" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">13|NU |Nunavut </v>
+      </c>
+      <c r="F14" s="30">
+        <v>13</v>
+      </c>
+      <c r="G14" s="30">
+        <v>10</v>
+      </c>
+      <c r="H14" s="30">
+        <v>2</v>
+      </c>
+      <c r="I14" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>13|10|2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>13</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8">
+        <v>75</v>
+      </c>
+      <c r="N14" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>13|8|75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>14|OBLAST</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="G15" s="30">
+        <v>10</v>
+      </c>
+      <c r="H15" s="30">
+        <v>5</v>
+      </c>
+      <c r="I15" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>14|10|5</v>
+      </c>
+      <c r="K15" s="8">
+        <v>14</v>
+      </c>
+      <c r="L15" s="8">
+        <v>9</v>
+      </c>
+      <c r="M15" s="8">
+        <v>9</v>
+      </c>
+      <c r="N15" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>14|9|9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>15|OKRES</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="G16" s="30">
+        <v>11</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>15|11|1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>15</v>
+      </c>
+      <c r="L16" s="8">
+        <v>10</v>
+      </c>
+      <c r="M16" s="8">
+        <v>9</v>
+      </c>
+      <c r="N16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>15|10|9</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>16|PREFECTURE</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="G17" s="30">
+        <v>12</v>
+      </c>
+      <c r="H17" s="30">
+        <v>5</v>
+      </c>
+      <c r="I17" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>16|12|5</v>
+      </c>
+      <c r="K17" s="8">
+        <v>16</v>
+      </c>
+      <c r="L17" s="8">
+        <v>11</v>
+      </c>
+      <c r="M17" s="8">
+        <v>2</v>
+      </c>
+      <c r="N17" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>16|11|2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>17|PROVINCE</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="G18" s="30">
+        <v>13</v>
+      </c>
+      <c r="H18" s="30">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>17|13|2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>17</v>
+      </c>
+      <c r="L18" s="8">
+        <v>12</v>
+      </c>
+      <c r="M18" s="8">
+        <v>9</v>
+      </c>
+      <c r="N18" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>17|12|9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="K19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="C19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>18|PROVINSI</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="L19" s="8">
+        <v>13</v>
+      </c>
+      <c r="M19" s="8">
+        <v>4</v>
+      </c>
+      <c r="N19" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>18|13|4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="K20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="C20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>19|RAION</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>20|REGION</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="C22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>21|STATE</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>22|SUBYEKT</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="C24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>23|VOBLAST</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>24|VOIVODESHIP</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>25|ZUPANIJA</v>
-      </c>
+      <c r="L20" s="8">
+        <v>13</v>
+      </c>
+      <c r="M20" s="8">
+        <v>9</v>
+      </c>
+      <c r="N20" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>19|13|9</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="4:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="B2:B26">
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6D83F5-E7A7-4DEF-B7A7-BCE0D8748748}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18DCC7-E659-4BBC-994E-EFC06234585C}">
+  <dimension ref="B1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" s="54" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1</f>
+        <v>id|dxcc_id|code|subdivision|is_deleted</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="50">
+        <v>1</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="F2" s="50">
+        <v>0</v>
+      </c>
+      <c r="G2" s="53" t="str">
+        <f t="shared" ref="G2:G18" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
+        <v>1|5|1|Brändö|0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="50">
+        <v>2</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0</v>
+      </c>
+      <c r="G3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|5|2|Eckerö|0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="50">
+        <v>3</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="F4" s="50">
+        <v>0</v>
+      </c>
+      <c r="G4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|5|3|Finström|0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="50">
+        <v>4</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="F5" s="50">
+        <v>0</v>
+      </c>
+      <c r="G5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|5|4|Föglö|0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="50">
+        <v>5</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="F6" s="50">
+        <v>0</v>
+      </c>
+      <c r="G6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|5|5|Geta|0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="50">
+        <v>6</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|5|6|Hammarland|0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="50">
+        <v>7</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="F8" s="50">
+        <v>0</v>
+      </c>
+      <c r="G8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|5|7|Jomala|0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="50">
+        <v>8</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="50">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|5|8|Kumlinge|0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="50">
+        <v>9</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="F10" s="50">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|5|9|Kökar|0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="50">
+        <v>10</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="50">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|5|10|Lemland|0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="50">
+        <v>11</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|5|11|Lumparland|0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="50">
+        <v>12</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>498</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0</v>
+      </c>
+      <c r="G13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|5|12|Maarianhamina|0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="50">
+        <v>13</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|5|13|Saltvik|0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
+      <c r="D15" s="50">
+        <v>14</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="F15" s="50">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|5|14|Sottunga|0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="50">
+        <v>15</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|5|15|Sund|0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="50">
+        <v>16</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="F17" s="50">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>16|5|16|Vårdö|0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="50">
+        <v>51</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="F18" s="50">
+        <v>1</v>
+      </c>
+      <c r="G18" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>17|5|51|Märket|1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B163A399-242D-4154-8FBB-7802D41E235D}">
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <f>A1&amp;"|"&amp;B1</f>
-        <v>id|sas_division_type</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="C1" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="54" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f t="shared" ref="C2:C4" si="0">A2&amp;"|"&amp;B2</f>
-        <v>1|County</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>2|District</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>3|Gun</v>
+      <c r="C2" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f t="shared" ref="F2" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|6|AK|Alaska</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="38" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="38" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E94F41-E17E-4B9C-9C63-31535A794C71}">
+  <dimension ref="B1:S44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="92.7109375" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="61" customWidth="1"/>
+    <col min="16" max="16" width="3" style="21" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="21" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1&amp;"|"&amp;G1&amp;"|"&amp;H1</f>
+        <v>id|dxcc_id|code|subdivision|oblast|before_date|referred_to_as</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="N1" s="54" t="str">
+        <f>K1&amp;"|"&amp;L1&amp;"|"&amp;M1</f>
+        <v>id|pas_015_id|cq_zone_id</v>
+      </c>
+      <c r="O1" s="60"/>
+      <c r="P1" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="S1" s="54" t="str">
+        <f>P1&amp;"|"&amp;Q1&amp;"|"&amp;R1</f>
+        <v>id|pas_015_id|itu_zone_id</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>15</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" s="50">
+        <v>174</v>
+      </c>
+      <c r="G2" s="55">
+        <v>39448</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;IF(G2 &lt;&gt; "",TEXT(G2,"yyyy-mm-dd"),"")&amp;"|"&amp;H2</f>
+        <v>1|15|UO|Ust’-Ordynsky Autonomous Okrug|174|2008-01-01|</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>18</v>
+      </c>
+      <c r="N2" s="53" t="str">
+        <f t="shared" ref="N2:N40" si="0">K2&amp;"|"&amp;L2&amp;"|"&amp;M2</f>
+        <v>1|1|18</v>
+      </c>
+      <c r="O2" s="60"/>
+      <c r="P2" s="62">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="62">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="8">
+        <v>32</v>
+      </c>
+      <c r="S2" s="53" t="str">
+        <f t="shared" ref="S2:S39" si="1">P2&amp;"|"&amp;Q2&amp;"|"&amp;R2</f>
+        <v>1|1|32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>15</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3" s="50">
+        <v>175</v>
+      </c>
+      <c r="G3" s="55">
+        <v>39508</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="53" t="str">
+        <f t="shared" ref="I3:I39" si="2">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3&amp;"|"&amp;IF(G3 &lt;&gt; "",TEXT(G3,"yyyy-mm-dd"),"")&amp;"|"&amp;H3</f>
+        <v>2|15|AB|Aginsky Buryatsky Autonomous Okrug|175|2008-03-01|</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L42" si="3">B3</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>18</v>
+      </c>
+      <c r="N3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|2|18</v>
+      </c>
+      <c r="O3" s="60"/>
+      <c r="P3" s="62">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="62">
+        <f t="shared" ref="Q3:Q39" si="4">B3</f>
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
+        <v>33</v>
+      </c>
+      <c r="S3" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>2|2|33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="F4" s="50">
+        <v>165</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>3|15|CB|Chelyabinsk (Chelyabinskaya oblast)|165||</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="8">
+        <v>17</v>
+      </c>
+      <c r="N4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|3|17</v>
+      </c>
+      <c r="O4" s="60"/>
+      <c r="P4" s="62">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="62">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="R4" s="8">
+        <v>30</v>
+      </c>
+      <c r="S4" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>3|3|30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="50">
+        <v>154</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>4|15|SV|Sverdlovskaya oblast|154||</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>17</v>
+      </c>
+      <c r="N5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|4|17</v>
+      </c>
+      <c r="O5" s="60"/>
+      <c r="P5" s="62">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="62">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="R5" s="8">
+        <v>30</v>
+      </c>
+      <c r="S5" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>4|4|30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="50">
+        <v>140</v>
+      </c>
+      <c r="G6" s="55">
+        <v>38687</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>5|15|PM|Perm` (Permskaya oblast)|140|2005-12-01|</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="8">
+        <v>17</v>
+      </c>
+      <c r="N6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|5|17</v>
+      </c>
+      <c r="O6" s="60"/>
+      <c r="P6" s="62">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="62">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="R6" s="8">
+        <v>30</v>
+      </c>
+      <c r="S6" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>5|5|30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>586</v>
+      </c>
+      <c r="F7" s="50">
+        <v>140</v>
+      </c>
+      <c r="G7" s="55">
+        <v>38687</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>6|15|PM|Permskaya Kraj|140|2005-12-01|</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="8">
+        <v>17</v>
+      </c>
+      <c r="N7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|6|17</v>
+      </c>
+      <c r="O7" s="60"/>
+      <c r="P7" s="62">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="62">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>30</v>
+      </c>
+      <c r="S7" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>6|6|30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>15</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="F8" s="50">
+        <v>141</v>
+      </c>
+      <c r="G8" s="55">
+        <v>38687</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>7|15|KP|Komi-Permyatsky Autonomous Okrug|141|2005-12-01|</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M8" s="8">
+        <v>17</v>
+      </c>
+      <c r="N8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|7|17</v>
+      </c>
+      <c r="O8" s="60"/>
+      <c r="P8" s="62">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="62">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="R8" s="8">
+        <v>30</v>
+      </c>
+      <c r="S8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>7|7|30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>15</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="50">
+        <v>158</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>8|15|TO|Tomsk (Tomskaya oblast)|158||</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="8">
+        <v>18</v>
+      </c>
+      <c r="N9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|8|18</v>
+      </c>
+      <c r="O9" s="60"/>
+      <c r="P9" s="62">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="62">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="R9" s="8">
+        <v>30</v>
+      </c>
+      <c r="S9" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>8|8|30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>15</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="F10" s="50">
+        <v>162</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>9|15|HM|Khanty-Mansyisky Autonomous Okrug|162||</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M10" s="8">
+        <v>17</v>
+      </c>
+      <c r="N10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|9|17</v>
+      </c>
+      <c r="O10" s="60"/>
+      <c r="P10" s="62">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="62">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="R10" s="8">
+        <v>21</v>
+      </c>
+      <c r="S10" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>9|9|21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>15</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="50">
+        <v>163</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>10|15|YN|Yamalo-Nenetsky Autonomous Okrug|163||</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="8">
+        <v>17</v>
+      </c>
+      <c r="N11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|10|17</v>
+      </c>
+      <c r="O11" s="60"/>
+      <c r="P11" s="62">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="62">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="R11" s="8">
+        <v>21</v>
+      </c>
+      <c r="S11" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>10|10|21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="F12" s="50">
+        <v>161</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>11|15|TN|Tyumen' (Tyumenskaya oblast)|161||</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M12" s="8">
+        <v>17</v>
+      </c>
+      <c r="N12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|11|17</v>
+      </c>
+      <c r="O12" s="60"/>
+      <c r="P12" s="62">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="62">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="R12" s="8">
+        <v>30</v>
+      </c>
+      <c r="S12" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>11|11|30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>15</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="F13" s="50">
+        <v>146</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>12|15|OM|Omsk (Omskaya oblast)|146||</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M13" s="8">
+        <v>17</v>
+      </c>
+      <c r="N13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|12|17</v>
+      </c>
+      <c r="O13" s="60"/>
+      <c r="P13" s="62">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="62">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="R13" s="8">
+        <v>30</v>
+      </c>
+      <c r="S13" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>12|12|30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>15</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="F14" s="50">
+        <v>145</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>13|15|NS|Novosibirsk (Novosibirskaya oblast)|145||</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M14" s="8">
+        <v>18</v>
+      </c>
+      <c r="N14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|13|18</v>
+      </c>
+      <c r="O14" s="60"/>
+      <c r="P14" s="62">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="62">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="R14" s="8">
+        <v>31</v>
+      </c>
+      <c r="S14" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>13|13|31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="F15" s="50">
+        <v>134</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>14|15|KN|Kurgan (Kurganskaya oblast)|134||</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="M15" s="8">
+        <v>17</v>
+      </c>
+      <c r="N15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|14|17</v>
+      </c>
+      <c r="O15" s="60"/>
+      <c r="P15" s="62">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="62">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="R15" s="8">
+        <v>30</v>
+      </c>
+      <c r="S15" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>14|14|30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>15</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="F16" s="50">
+        <v>167</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>15|15|OB|Orenburg (Orenburgskaya oblast)|167||</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M16" s="23">
+        <v>16</v>
+      </c>
+      <c r="N16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|15|16</v>
+      </c>
+      <c r="O16" s="60"/>
+      <c r="P16" s="62">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="62">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="R16" s="8">
+        <v>30</v>
+      </c>
+      <c r="S16" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>15|15|30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="F17" s="50">
+        <v>130</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>16|15|KE|Kemerovo (Kemerovskaya oblast)|130||</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17" s="23">
+        <f>B16</f>
+        <v>15</v>
+      </c>
+      <c r="M17" s="23">
+        <v>17</v>
+      </c>
+      <c r="N17" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>16|15|17</v>
+      </c>
+      <c r="O17" s="60"/>
+      <c r="P17" s="62">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="62">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R17" s="8">
+        <v>31</v>
+      </c>
+      <c r="S17" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>16|16|31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>15</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="F18" s="50">
+        <v>84</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>17|15|BA|Republic of Bashkortostan|84||</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18" s="8">
+        <f>B17</f>
+        <v>16</v>
+      </c>
+      <c r="M18" s="8">
+        <v>18</v>
+      </c>
+      <c r="N18" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>17|16|18</v>
+      </c>
+      <c r="O18" s="60"/>
+      <c r="P18" s="62">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="62">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="R18" s="8">
+        <v>30</v>
+      </c>
+      <c r="S18" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>17|17|30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>15</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="F19" s="50">
+        <v>90</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>18|15|KO|Republic of Komi|90||</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19" s="8">
+        <f>B18</f>
+        <v>17</v>
+      </c>
+      <c r="M19" s="8">
+        <v>16</v>
+      </c>
+      <c r="N19" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>18|17|16</v>
+      </c>
+      <c r="O19" s="60"/>
+      <c r="P19" s="62">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="R19" s="8">
+        <v>20</v>
+      </c>
+      <c r="S19" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>18|18|20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>15</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="F20" s="50">
+        <v>99</v>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>19|15|AL|Altaysky Kraj|99||</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20" s="8">
+        <f>B19</f>
+        <v>18</v>
+      </c>
+      <c r="M20" s="8">
+        <v>17</v>
+      </c>
+      <c r="N20" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>19|18|17</v>
+      </c>
+      <c r="O20" s="60"/>
+      <c r="P20" s="62">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="62">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="R20" s="8">
+        <v>31</v>
+      </c>
+      <c r="S20" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>19|19|31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>15</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="F21" s="50">
+        <v>100</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>20|15|GA|Republic Gorny Altay|100||</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21" s="8">
+        <f>B20</f>
+        <v>19</v>
+      </c>
+      <c r="M21" s="8">
+        <v>18</v>
+      </c>
+      <c r="N21" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>20|19|18</v>
+      </c>
+      <c r="O21" s="60"/>
+      <c r="P21" s="62">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="R21" s="8">
+        <v>31</v>
+      </c>
+      <c r="S21" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>20|20|31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>15</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="50">
+        <v>103</v>
+      </c>
+      <c r="G22" s="55"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>21|15|KK|Krasnoyarsk (Krasnoyarsk Kraj)|103||</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22" s="8">
+        <f>B21</f>
+        <v>20</v>
+      </c>
+      <c r="M22" s="8">
+        <v>18</v>
+      </c>
+      <c r="N22" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>21|20|18</v>
+      </c>
+      <c r="O22" s="60"/>
+      <c r="P22" s="62">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="62">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="R22" s="8">
+        <v>32</v>
+      </c>
+      <c r="S22" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>21|21|32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>15</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="F23" s="50">
+        <v>105</v>
+      </c>
+      <c r="G23" s="55">
+        <v>39083</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>22|15|TM|Taymyr Autonomous Okrug|105|2007-01-01|</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8">
+        <f>B22</f>
+        <v>21</v>
+      </c>
+      <c r="M23" s="8">
+        <v>18</v>
+      </c>
+      <c r="N23" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>22|21|18</v>
+      </c>
+      <c r="O23" s="60"/>
+      <c r="P23" s="62">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R23" s="8">
+        <v>32</v>
+      </c>
+      <c r="S23" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>22|22|32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>15</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="F24" s="50">
+        <v>110</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>23|15|HK|Khabarovsk (Khabarovsky Kraj)|110||</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24" s="8">
+        <f>B23</f>
+        <v>22</v>
+      </c>
+      <c r="M24" s="8">
+        <v>18</v>
+      </c>
+      <c r="N24" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>23|22|18</v>
+      </c>
+      <c r="O24" s="60"/>
+      <c r="P24" s="62">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="62">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="R24" s="8">
+        <v>34</v>
+      </c>
+      <c r="S24" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>23|23|34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
+        <v>15</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>551</v>
+      </c>
+      <c r="F25" s="50">
+        <v>111</v>
+      </c>
+      <c r="G25" s="55"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>24|15|EA|Yevreyskaya Autonomous Oblast|111||</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25" s="8">
+        <f>B24</f>
+        <v>23</v>
+      </c>
+      <c r="M25" s="8">
+        <v>19</v>
+      </c>
+      <c r="N25" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>24|23|19</v>
+      </c>
+      <c r="O25" s="60"/>
+      <c r="P25" s="62">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="62">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="R25" s="8">
+        <v>33</v>
+      </c>
+      <c r="S25" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>24|24|33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>15</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="F26" s="50">
+        <v>153</v>
+      </c>
+      <c r="G26" s="55"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>25|15|SL|Sakhalin (Sakhalinskaya oblast)|153||</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26" s="8">
+        <f>B25</f>
+        <v>24</v>
+      </c>
+      <c r="M26" s="8">
+        <v>19</v>
+      </c>
+      <c r="N26" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>25|24|19</v>
+      </c>
+      <c r="O26" s="60"/>
+      <c r="P26" s="62">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="62">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="R26" s="8">
+        <v>34</v>
+      </c>
+      <c r="S26" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>25|25|34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>15</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="F27" s="50">
+        <v>106</v>
+      </c>
+      <c r="G27" s="55">
+        <v>39083</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>26|15|EV|Evenkiysky Autonomous Okrug|106|2007-01-01|</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27" s="8">
+        <f>B26</f>
+        <v>25</v>
+      </c>
+      <c r="M27" s="8">
+        <v>19</v>
+      </c>
+      <c r="N27" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>26|25|19</v>
+      </c>
+      <c r="O27" s="60"/>
+      <c r="P27" s="62">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="62">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="R27" s="8">
+        <v>22</v>
+      </c>
+      <c r="S27" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>26|26|22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8">
+        <v>15</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="F28" s="50">
+        <v>138</v>
+      </c>
+      <c r="G28" s="55"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>27|15|MG|Magadan (Magadanskaya oblast)|138||</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28" s="8">
+        <f>B27</f>
+        <v>26</v>
+      </c>
+      <c r="M28" s="8">
+        <v>18</v>
+      </c>
+      <c r="N28" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>27|26|18</v>
+      </c>
+      <c r="O28" s="60"/>
+      <c r="P28" s="62">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="62">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="R28" s="8">
+        <v>24</v>
+      </c>
+      <c r="S28" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>27|27|24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8">
+        <v>15</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="F29" s="50">
+        <v>112</v>
+      </c>
+      <c r="G29" s="55"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>28|15|AM|Amurskaya oblast|112||</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+      <c r="L29" s="8">
+        <f>B28</f>
+        <v>27</v>
+      </c>
+      <c r="M29" s="8">
+        <v>19</v>
+      </c>
+      <c r="N29" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>28|27|19</v>
+      </c>
+      <c r="O29" s="60"/>
+      <c r="P29" s="62">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="62">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="R29" s="8">
+        <v>33</v>
+      </c>
+      <c r="S29" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>28|28|33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8">
+        <v>15</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="F30" s="50">
+        <v>139</v>
+      </c>
+      <c r="G30" s="55"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>29|15|CK|Chukotka Autonomous Okrug|139||</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="L30" s="8">
+        <f>B29</f>
+        <v>28</v>
+      </c>
+      <c r="M30" s="8">
+        <v>19</v>
+      </c>
+      <c r="N30" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>29|28|19</v>
+      </c>
+      <c r="O30" s="60"/>
+      <c r="P30" s="62">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="62">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="R30" s="8">
+        <v>26</v>
+      </c>
+      <c r="S30" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>29|29|26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="8">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8">
+        <v>15</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="F31" s="50">
+        <v>107</v>
+      </c>
+      <c r="G31" s="55"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>30|15|PK|Primorsky Kraj|107||</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="L31" s="8">
+        <f>B30</f>
+        <v>29</v>
+      </c>
+      <c r="M31" s="8">
+        <v>19</v>
+      </c>
+      <c r="N31" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>30|29|19</v>
+      </c>
+      <c r="O31" s="60"/>
+      <c r="P31" s="62">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="62">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="R31" s="8">
+        <v>34</v>
+      </c>
+      <c r="S31" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>30|30|34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8">
+        <v>15</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="F32" s="50">
+        <v>85</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>31|15|BU|Republic of Buryatia|85||</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32" s="8">
+        <f>B31</f>
+        <v>30</v>
+      </c>
+      <c r="M32" s="8">
+        <v>19</v>
+      </c>
+      <c r="N32" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>31|30|19</v>
+      </c>
+      <c r="O32" s="60"/>
+      <c r="P32" s="62">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="62">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="R32" s="8">
+        <v>32</v>
+      </c>
+      <c r="S32" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>31|31|32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8">
+        <v>15</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="F33" s="50">
+        <v>98</v>
+      </c>
+      <c r="G33" s="55"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>32|15|YA|Sakha (Yakut) Republic|98||</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="L33" s="8">
+        <f>B32</f>
+        <v>31</v>
+      </c>
+      <c r="M33" s="8">
+        <v>18</v>
+      </c>
+      <c r="N33" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>32|31|18</v>
+      </c>
+      <c r="O33" s="60"/>
+      <c r="P33" s="62">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="62">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="R33" s="8">
+        <v>32</v>
+      </c>
+      <c r="S33" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>32|32|32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8">
+        <v>15</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="F34" s="50">
+        <v>124</v>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>33|15|IR|Irkutsk (Irkutskaya oblast)|124||</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34" s="8">
+        <f>B33</f>
+        <v>32</v>
+      </c>
+      <c r="M34" s="8">
+        <v>19</v>
+      </c>
+      <c r="N34" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>33|32|19</v>
+      </c>
+      <c r="O34" s="60"/>
+      <c r="P34" s="62">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="62">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="R34" s="8">
+        <v>32</v>
+      </c>
+      <c r="S34" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>33|33|32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8">
+        <v>15</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="F35" s="50">
+        <v>166</v>
+      </c>
+      <c r="G35" s="55">
+        <v>39508</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>584</v>
+      </c>
+      <c r="I35" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>34|15|CT|Zabaykalsky Kraj|166|2008-03-01|Chita (Chitinskaya oblast)</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35" s="8">
+        <f>B34</f>
+        <v>33</v>
+      </c>
+      <c r="M35" s="8">
+        <v>18</v>
+      </c>
+      <c r="N35" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>34|33|18</v>
+      </c>
+      <c r="O35" s="60"/>
+      <c r="P35" s="62">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="62">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="R35" s="8">
+        <v>33</v>
+      </c>
+      <c r="S35" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>34|34|33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8">
+        <v>15</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="F36" s="50">
+        <v>104</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>35|15|HA|Republic of Khakassia|104||</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36" s="8">
+        <f>B35</f>
+        <v>34</v>
+      </c>
+      <c r="M36" s="8">
+        <v>18</v>
+      </c>
+      <c r="N36" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>35|34|18</v>
+      </c>
+      <c r="O36" s="60"/>
+      <c r="P36" s="62">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="62">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="R36" s="8">
+        <v>32</v>
+      </c>
+      <c r="S36" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>35|35|32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8">
+        <v>15</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="F37" s="50">
+        <v>129</v>
+      </c>
+      <c r="G37" s="55">
+        <v>39083</v>
+      </c>
+      <c r="H37" s="51"/>
+      <c r="I37" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>36|15|KY|Koryaksky Autonomous Okrug|129|2007-01-01|</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+      <c r="L37" s="8">
+        <f>B36</f>
+        <v>35</v>
+      </c>
+      <c r="M37" s="8">
+        <v>18</v>
+      </c>
+      <c r="N37" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>36|35|18</v>
+      </c>
+      <c r="O37" s="60"/>
+      <c r="P37" s="62">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="62">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="R37" s="8">
+        <v>25</v>
+      </c>
+      <c r="S37" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>36|36|25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8">
+        <v>15</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="F38" s="50">
+        <v>159</v>
+      </c>
+      <c r="G38" s="55"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>37|15|TU|Republic of Tuva|159||</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+      <c r="L38" s="8">
+        <f>B37</f>
+        <v>36</v>
+      </c>
+      <c r="M38" s="8">
+        <v>19</v>
+      </c>
+      <c r="N38" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>37|36|19</v>
+      </c>
+      <c r="O38" s="60"/>
+      <c r="P38" s="62">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="62">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="R38" s="8">
+        <v>32</v>
+      </c>
+      <c r="S38" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>37|37|32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8">
+        <v>15</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="F39" s="50">
+        <v>128</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>38|15|KT|Kamchatka (Kamchatskaya oblast)|128||</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+      <c r="L39" s="8">
+        <f>B38</f>
+        <v>37</v>
+      </c>
+      <c r="M39" s="8">
+        <v>23</v>
+      </c>
+      <c r="N39" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>38|37|23</v>
+      </c>
+      <c r="O39" s="60"/>
+      <c r="P39" s="62">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="62">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="R39" s="8">
+        <v>35</v>
+      </c>
+      <c r="S39" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>38|38|35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+      <c r="K40">
+        <v>39</v>
+      </c>
+      <c r="L40" s="8">
+        <f>B39</f>
+        <v>38</v>
+      </c>
+      <c r="M40" s="8">
+        <v>19</v>
+      </c>
+      <c r="N40" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>39|38|19</v>
+      </c>
+      <c r="O40" s="60"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="63"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="32"/>
+    </row>
+    <row r="43" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="N43" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="S43" s="38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I44" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="S44" s="38" t="s">
+        <v>591</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D8D12E-EA55-477D-8283-9C7D7C10BC0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4127BD6-D0BE-4743-89E8-4A26BB87C789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENU-LIST" sheetId="37" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="pas_005" sheetId="47" r:id="rId5"/>
     <sheet name="pas_006" sheetId="48" r:id="rId6"/>
     <sheet name="pas_015" sheetId="49" r:id="rId7"/>
+    <sheet name="pas-021" sheetId="50" r:id="rId8"/>
+    <sheet name="pas_027" sheetId="51" r:id="rId9"/>
+    <sheet name="pas_029" sheetId="52" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -310,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="620">
   <si>
     <t>t</t>
   </si>
@@ -2095,6 +2098,81 @@
   </si>
   <si>
     <t>pas_015_utizone</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Baleares</t>
+  </si>
+  <si>
+    <t>Beleric Is.</t>
+  </si>
+  <si>
+    <t>pas_021</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Minsk (Minskaya voblasts')</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brest (Brestskaya voblasts')</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Grodno (Hrodzenskaya voblasts')</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Vitebsk (Vitsyebskaya voblasts')</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Mogilev (Mahilyowskaya voblasts')</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>Gomel (Homyel'skaya voblasts')</t>
+  </si>
+  <si>
+    <t>Horad Minsk</t>
+  </si>
+  <si>
+    <t>pas_027</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Canary Is.</t>
+  </si>
+  <si>
+    <t>pas_029</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -2324,7 +2402,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2436,7 +2514,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2466,6 +2544,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2985,6 +3066,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DC69E8-80AB-4EA2-B28F-47DFA34FD30B}">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="54" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>29</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f t="shared" ref="F2:F3" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|29|GC|Las Palmas</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>29</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>619</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|29|TF|Tenerife</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="37" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="37" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E404"/>
@@ -13262,15 +13427,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18DCC7-E659-4BBC-994E-EFC06234585C}">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13683,8 +13848,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13750,7 +13917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E94F41-E17E-4B9C-9C63-31535A794C71}">
   <dimension ref="B1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13907,7 +14074,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L42" si="3">B3</f>
+        <f t="shared" ref="L3:L16" si="3">B3</f>
         <v>2</v>
       </c>
       <c r="M3" s="8">
@@ -14641,7 +14808,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="23">
-        <f>B16</f>
+        <f t="shared" ref="L17:L40" si="5">B16</f>
         <v>15</v>
       </c>
       <c r="M17" s="23">
@@ -14693,7 +14860,7 @@
         <v>17</v>
       </c>
       <c r="L18" s="8">
-        <f>B17</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="M18" s="8">
@@ -14745,7 +14912,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="8">
-        <f>B18</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="M19" s="8">
@@ -14797,7 +14964,7 @@
         <v>19</v>
       </c>
       <c r="L20" s="8">
-        <f>B19</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="M20" s="8">
@@ -14849,7 +15016,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="8">
-        <f>B20</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="M21" s="8">
@@ -14901,7 +15068,7 @@
         <v>21</v>
       </c>
       <c r="L22" s="8">
-        <f>B21</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M22" s="8">
@@ -14955,7 +15122,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="8">
-        <f>B22</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="M23" s="8">
@@ -15007,7 +15174,7 @@
         <v>23</v>
       </c>
       <c r="L24" s="8">
-        <f>B23</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M24" s="8">
@@ -15059,7 +15226,7 @@
         <v>24</v>
       </c>
       <c r="L25" s="8">
-        <f>B24</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="M25" s="8">
@@ -15111,7 +15278,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="8">
-        <f>B25</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="M26" s="8">
@@ -15165,7 +15332,7 @@
         <v>26</v>
       </c>
       <c r="L27" s="8">
-        <f>B26</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M27" s="8">
@@ -15217,7 +15384,7 @@
         <v>27</v>
       </c>
       <c r="L28" s="8">
-        <f>B27</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="M28" s="8">
@@ -15269,7 +15436,7 @@
         <v>28</v>
       </c>
       <c r="L29" s="8">
-        <f>B28</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="M29" s="8">
@@ -15321,7 +15488,7 @@
         <v>29</v>
       </c>
       <c r="L30" s="8">
-        <f>B29</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="M30" s="8">
@@ -15373,7 +15540,7 @@
         <v>30</v>
       </c>
       <c r="L31" s="8">
-        <f>B30</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="M31" s="8">
@@ -15425,7 +15592,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="8">
-        <f>B31</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="M32" s="8">
@@ -15477,7 +15644,7 @@
         <v>32</v>
       </c>
       <c r="L33" s="8">
-        <f>B32</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="M33" s="8">
@@ -15529,7 +15696,7 @@
         <v>33</v>
       </c>
       <c r="L34" s="8">
-        <f>B33</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="M34" s="8">
@@ -15585,7 +15752,7 @@
         <v>34</v>
       </c>
       <c r="L35" s="8">
-        <f>B34</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="M35" s="8">
@@ -15637,7 +15804,7 @@
         <v>35</v>
       </c>
       <c r="L36" s="8">
-        <f>B35</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="M36" s="8">
@@ -15691,7 +15858,7 @@
         <v>36</v>
       </c>
       <c r="L37" s="8">
-        <f>B36</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="M37" s="8">
@@ -15743,7 +15910,7 @@
         <v>37</v>
       </c>
       <c r="L38" s="8">
-        <f>B37</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="M38" s="8">
@@ -15795,7 +15962,7 @@
         <v>38</v>
       </c>
       <c r="L39" s="8">
-        <f>B38</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="M39" s="8">
@@ -15834,7 +16001,7 @@
         <v>39</v>
       </c>
       <c r="L40" s="8">
-        <f>B39</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="M40" s="8">
@@ -15892,4 +16059,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DAA529-7071-4254-87B0-DF8867DDA350}">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="54" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>21</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|21|IB|Baleares</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="37" t="s">
+        <v>597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5C29C6-033F-4181-8CBE-3172A9188B6A}">
+  <dimension ref="B1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" s="54" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f t="shared" ref="F2:F8" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|27|MI|Minsk (Minskaya voblasts')</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|27|BR|Brest (Brestskaya voblasts')</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|27|HR|Grodno (Hrodzenskaya voblasts')</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|27|VI|Vitebsk (Vitsyebskaya voblasts')</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|27|MA|Mogilev (Mahilyowskaya voblasts')</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|27|HO|Gomel (Homyel'skaya voblasts')</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" t="s">
+        <v>611</v>
+      </c>
+      <c r="F8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|27|HM|Horad Minsk</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="37" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="37" t="s">
+        <v>613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC93D5-2C0F-46D1-ABA8-7BD01D2E13B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155DCEA8-CE20-48D1-9995-F19D2EB1EFF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENU-LIST" sheetId="37" r:id="rId1"/>
@@ -27,6 +27,10 @@
     <sheet name="pas_050" sheetId="54" r:id="rId12"/>
     <sheet name="pas_052" sheetId="55" r:id="rId13"/>
     <sheet name="pas_054" sheetId="56" r:id="rId14"/>
+    <sheet name="pas_061" sheetId="57" r:id="rId15"/>
+    <sheet name="pas_070" sheetId="58" r:id="rId16"/>
+    <sheet name="pas_074" sheetId="59" r:id="rId17"/>
+    <sheet name="pas_086" sheetId="60" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -317,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="900">
   <si>
     <t>t</t>
   </si>
@@ -2783,6 +2787,240 @@
   </si>
   <si>
     <t>European Russia</t>
+  </si>
+  <si>
+    <t>pas_061.csv</t>
+  </si>
+  <si>
+    <t>Franz Josef Land</t>
+  </si>
+  <si>
+    <t>import_only</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>FJL</t>
+  </si>
+  <si>
+    <t>pas_070.csv</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Camagüey</t>
+  </si>
+  <si>
+    <t>Ciego de `vila</t>
+  </si>
+  <si>
+    <t>Cienfuegos</t>
+  </si>
+  <si>
+    <t>Ciudad de La Habana</t>
+  </si>
+  <si>
+    <t>Granma</t>
+  </si>
+  <si>
+    <t>Guantánamo</t>
+  </si>
+  <si>
+    <t>Holquin</t>
+  </si>
+  <si>
+    <t>Isla de la Juventud</t>
+  </si>
+  <si>
+    <t>La Habana</t>
+  </si>
+  <si>
+    <t>Las Tunas</t>
+  </si>
+  <si>
+    <t>Matanzas</t>
+  </si>
+  <si>
+    <t>Pinar del Río</t>
+  </si>
+  <si>
+    <t>Sancti Spiritus</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>Villa Clara</t>
+  </si>
+  <si>
+    <t>pas_074.csv</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Ahuachapán</t>
+  </si>
+  <si>
+    <t>Cabañas</t>
+  </si>
+  <si>
+    <t>Chalatenango</t>
+  </si>
+  <si>
+    <t>Cuscatlán</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>La Uniôn</t>
+  </si>
+  <si>
+    <t>Morazán</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>San Vicente</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>Sonsonate</t>
+  </si>
+  <si>
+    <t>Usulután</t>
+  </si>
+  <si>
+    <t>pas_086.csv</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Atlantico Norte</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Atlantico Sur</t>
+  </si>
+  <si>
+    <t>Boaco</t>
+  </si>
+  <si>
+    <t>Carazo</t>
+  </si>
+  <si>
+    <t>Chinandega</t>
+  </si>
+  <si>
+    <t>Chontales</t>
+  </si>
+  <si>
+    <t>Estel</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Jinotega</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Madriz</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>Masaya</t>
+  </si>
+  <si>
+    <t>Matagalpa</t>
+  </si>
+  <si>
+    <t>Nueva Segovia</t>
+  </si>
+  <si>
+    <t>Río San Juan</t>
+  </si>
+  <si>
+    <t>Rivas</t>
   </si>
 </sst>
 </file>
@@ -2792,7 +3030,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2881,6 +3119,11 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3002,7 +3245,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3151,6 +3394,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3483,7 +3729,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -3492,7 +3738,7 @@
     <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>411</v>
       </c>
@@ -3500,7 +3746,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>408</v>
       </c>
@@ -3517,7 +3763,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="30" t="s">
         <v>481</v>
       </c>
@@ -3535,7 +3781,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -3550,7 +3796,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>418</v>
       </c>
@@ -3565,7 +3811,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>450</v>
       </c>
@@ -3580,7 +3826,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>480</v>
       </c>
@@ -3598,7 +3844,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="61" t="s">
         <v>627</v>
       </c>
@@ -3613,7 +3859,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="61" t="s">
         <v>628</v>
       </c>
@@ -3628,7 +3874,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>504</v>
       </c>
@@ -3643,7 +3889,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>501</v>
       </c>
@@ -3654,55 +3900,55 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
@@ -3719,7 +3965,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -3728,7 +3974,7 @@
     <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="22" t="s">
         <v>403</v>
       </c>
@@ -3746,7 +3992,7 @@
         <v>id|dxcc_id|code|subdivision</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -3764,7 +4010,7 @@
         <v>1|29|GC|Las Palmas</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -3782,12 +4028,12 @@
         <v>2|29|TF|Tenerife</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="F6" s="27" t="s">
         <v>604</v>
       </c>
@@ -3805,7 +4051,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -3814,7 +4060,7 @@
     <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="22" t="s">
         <v>403</v>
       </c>
@@ -3832,7 +4078,7 @@
         <v>id|dxcc_id|code|subdivision</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -3850,7 +4096,7 @@
         <v>1|32|CE|Ceuta</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -3868,12 +4114,12 @@
         <v>2|32|ML|Melilla</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="F6" s="27" t="s">
         <v>636</v>
       </c>
@@ -3891,7 +4137,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -3900,7 +4146,7 @@
     <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="22" t="s">
         <v>403</v>
       </c>
@@ -3918,7 +4164,7 @@
         <v>id|dxcc_id|code|subdivision</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -3936,7 +4182,7 @@
         <v>1|50|COL|Colima</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -3954,7 +4200,7 @@
         <v>2|50|DF|Distrito Federal</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3972,7 +4218,7 @@
         <v>3|50|EMX|Estado de México</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3990,7 +4236,7 @@
         <v>4|50|GTO|Guanajuato</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>5</v>
       </c>
@@ -4008,7 +4254,7 @@
         <v>5|50|HGO|Hidalgo</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -4026,7 +4272,7 @@
         <v>6|50|JAL|Jalisco</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -4044,7 +4290,7 @@
         <v>7|50|MIC|Michoacán de Ocampo</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>8</v>
       </c>
@@ -4062,7 +4308,7 @@
         <v>8|50|MOR|Morelos</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>9</v>
       </c>
@@ -4080,7 +4326,7 @@
         <v>9|50|NAY|Nayarit</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>10</v>
       </c>
@@ -4098,7 +4344,7 @@
         <v>10|50|PUE|Puebla</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -4116,7 +4362,7 @@
         <v>11|50|QRO|Querétaro de Arteaga</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -4134,7 +4380,7 @@
         <v>12|50|TLX|Tlaxcala</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14">
         <v>13</v>
       </c>
@@ -4152,7 +4398,7 @@
         <v>13|50|VER|Veracruz-Llave</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15">
         <v>14</v>
       </c>
@@ -4170,7 +4416,7 @@
         <v>14|50|AGS|Aguascalientes</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16">
         <v>15</v>
       </c>
@@ -4188,7 +4434,7 @@
         <v>15|50|BC|Baja California</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="6">
         <v>16</v>
       </c>
@@ -4206,7 +4452,7 @@
         <v>16|50|BCS|Baja California Sur</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="6">
         <v>17</v>
       </c>
@@ -4224,7 +4470,7 @@
         <v>17|50|CHH|Chihuahua</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19">
         <v>18</v>
       </c>
@@ -4242,7 +4488,7 @@
         <v>18|50|COA|Coahuila de Zaragoza</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>19</v>
       </c>
@@ -4260,7 +4506,7 @@
         <v>19|50|DGO|Durango</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21">
         <v>20</v>
       </c>
@@ -4278,7 +4524,7 @@
         <v>20|50|NL|Nuevo Leon</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -4296,7 +4542,7 @@
         <v>21|50|SLP|San Luis Potosí</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="6">
         <v>22</v>
       </c>
@@ -4314,7 +4560,7 @@
         <v>22|50|SIN|Sinaloa</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24">
         <v>23</v>
       </c>
@@ -4332,7 +4578,7 @@
         <v>23|50|SON|Sonora</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25">
         <v>24</v>
       </c>
@@ -4350,7 +4596,7 @@
         <v>24|50|TMS|Tamaulipas</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26">
         <v>25</v>
       </c>
@@ -4368,7 +4614,7 @@
         <v>25|50|ZAC|Zacatecas</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="6">
         <v>26</v>
       </c>
@@ -4386,7 +4632,7 @@
         <v>26|50|CAM|Campeche</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="6">
         <v>27</v>
       </c>
@@ -4404,7 +4650,7 @@
         <v>27|50|CHS|Chiapas</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29">
         <v>28</v>
       </c>
@@ -4422,7 +4668,7 @@
         <v>28|50|GRO|Guerrero</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30">
         <v>29</v>
       </c>
@@ -4440,7 +4686,7 @@
         <v>29|50|OAX|Oaxaca</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31">
         <v>30</v>
       </c>
@@ -4458,7 +4704,7 @@
         <v>30|50|QTR|Quintana Roo</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32" s="6">
         <v>31</v>
       </c>
@@ -4476,7 +4722,7 @@
         <v>31|50|TAB|Tabasco</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="6">
         <v>32</v>
       </c>
@@ -4494,12 +4740,12 @@
         <v>32|50|YUC|Yucatán</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="F35" s="27" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="F36" s="27" t="s">
         <v>702</v>
       </c>
@@ -4517,7 +4763,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
@@ -4526,7 +4772,7 @@
     <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="23" t="s">
         <v>403</v>
       </c>
@@ -4544,7 +4790,7 @@
         <v>id|dxcc_id|code|subdivision</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -4562,7 +4808,7 @@
         <v>1|52|37|Harju County (Harjumaa)</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -4580,7 +4826,7 @@
         <v>2|52|39|Hiiuma County (Hiiumaa)</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -4598,7 +4844,7 @@
         <v>3|52|44|Ida-Viru County (Ida-Virumaa)</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -4616,7 +4862,7 @@
         <v>4|52|51|Järva County (Järvamaa)</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -4634,7 +4880,7 @@
         <v>5|52|49|Jöge County (Jögevamaa)</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -4652,7 +4898,7 @@
         <v>6|52|57|Lääne County (Läänemaa)</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -4670,7 +4916,7 @@
         <v>7|52|59|Lääne-Viru County (Lääne-Virumaa)</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -4688,7 +4934,7 @@
         <v>8|52|67|Pärrnu County (Pärnumaa)</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -4706,7 +4952,7 @@
         <v>9|52|65|Polva County (Polvamaa)</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -4724,7 +4970,7 @@
         <v>10|52|70|Rapla County (Raplamaa)</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -4742,7 +4988,7 @@
         <v>11|52|74|Saare County (Saaremaa)</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -4760,7 +5006,7 @@
         <v>12|52|78|Tartu County (Tartumaa)</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" s="6">
         <v>13</v>
       </c>
@@ -4778,7 +5024,7 @@
         <v>13|52|82|Valga County (Valgamaa)</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -4796,7 +5042,7 @@
         <v>14|52|84|Viljandi County (Viljandimaa)</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="6">
         <v>15</v>
       </c>
@@ -4814,12 +5060,12 @@
         <v>15|52|86|Vôru County (Vôrumaa)</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6">
       <c r="F18" s="27" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6">
       <c r="F19" s="27" t="s">
         <v>704</v>
       </c>
@@ -4833,9 +5079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47340DB4-68AA-4E30-A4CE-F1DC1AD4DAFD}">
   <dimension ref="B1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
@@ -4845,7 +5091,7 @@
     <col min="9" max="9" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="42" t="s">
         <v>403</v>
       </c>
@@ -4872,7 +5118,7 @@
         <v>id|dxcc_id|code|subdivision|oblast|cq_zone|itu_zone</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -4899,7 +5145,7 @@
         <v>1|54|SP|City of St. Petersburg|169|16|29</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -4926,7 +5172,7 @@
         <v>2|54|LO|Leningradskaya oblast|136|16|29</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -4953,7 +5199,7 @@
         <v>3|54|KL|Republic of Karelia|88|16|19</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -4980,7 +5226,7 @@
         <v>4|54|AR|Arkhangelsk (Arkhangelskaya oblast)|113|16|19</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -5007,7 +5253,7 @@
         <v>5|54|NO|Nenetsky Autonomous Okrug|114|16|20</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -5034,7 +5280,7 @@
         <v>6|54|VO|Vologda (Vologodskaya oblast)|120|16|29</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -5061,7 +5307,7 @@
         <v>7|54|NV|Novgorodskaya oblast|144|16|29</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -5088,7 +5334,7 @@
         <v>8|54|PS|Pskov (Pskovskaya oblast)|149|16|29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -5115,7 +5361,7 @@
         <v>9|54|MU|Murmansk (Murmanskaya oblast)|143|16|19</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -5142,7 +5388,7 @@
         <v>10|54|MA|City of Moscow|170|16|29</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9">
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -5169,7 +5415,7 @@
         <v>11|54|MO|Moscowskaya oblast|142|16|29</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -5196,7 +5442,7 @@
         <v>12|54|OR|Oryel (Orlovskaya oblast)|147|16|29</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="B14" s="6">
         <v>13</v>
       </c>
@@ -5223,7 +5469,7 @@
         <v>13|54|LP|Lipetsk (Lipetskaya oblast)|137|16|29</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9">
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -5250,7 +5496,7 @@
         <v>14|54|TV|Tver' (Tverskaya oblast)|126|16|29</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9">
       <c r="B16" s="6">
         <v>15</v>
       </c>
@@ -5277,7 +5523,7 @@
         <v>15|54|SM|Smolensk (Smolenskaya oblast)|155|16|29</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9">
       <c r="B17" s="6">
         <v>16</v>
       </c>
@@ -5304,7 +5550,7 @@
         <v>16|54|YR|Yaroslavl (Yaroslavskaya oblast)|168|16|29</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="6">
         <v>17</v>
       </c>
@@ -5331,7 +5577,7 @@
         <v>17|54|KS|Kostroma (Kostromskaya oblast)|132|16|29</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9">
       <c r="B19" s="6">
         <v>18</v>
       </c>
@@ -5358,7 +5604,7 @@
         <v>18|54|TL|Tula (Tul'skaya oblast)|160|16|29</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="6">
         <v>19</v>
       </c>
@@ -5385,7 +5631,7 @@
         <v>19|54|VR|Voronezh (Voronezhskaya oblast)|121|16|29</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="6">
         <v>20</v>
       </c>
@@ -5412,7 +5658,7 @@
         <v>20|54|TB|Tambov (Tambovskaya oblast)|157|16|29</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -5439,7 +5685,7 @@
         <v>21|54|RA|Ryazan' (Ryazanskaya oblast)|151|16|29</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9">
       <c r="B23" s="6">
         <v>22</v>
       </c>
@@ -5466,7 +5712,7 @@
         <v>22|54|NN|Nizhni Novgorod (Nizhegorodskaya oblast)|122|16|29</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9">
       <c r="B24" s="6">
         <v>23</v>
       </c>
@@ -5493,7 +5739,7 @@
         <v>23|54|IV|Ivanovo (Ivanovskaya oblast)|123|16|29</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9">
       <c r="B25" s="6">
         <v>24</v>
       </c>
@@ -5520,7 +5766,7 @@
         <v>24|54|VL|Vladimir (Vladimirskaya oblast)|119|16|29</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9">
       <c r="B26" s="6">
         <v>25</v>
       </c>
@@ -5547,7 +5793,7 @@
         <v>25|54|KU|Kursk (Kurskaya oblast)|135|16|29</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9">
       <c r="B27" s="6">
         <v>26</v>
       </c>
@@ -5574,7 +5820,7 @@
         <v>26|54|KG|Kaluga (Kaluzhskaya oblast)|127|16|29</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9">
       <c r="B28" s="6">
         <v>27</v>
       </c>
@@ -5601,7 +5847,7 @@
         <v>27|54|BR|Bryansk (Bryanskaya oblast)|118|16|29</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9">
       <c r="B29" s="6">
         <v>28</v>
       </c>
@@ -5628,7 +5874,7 @@
         <v>28|54|BO|Belgorod (Belgorodskaya oblast)|117|16|29</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9">
       <c r="B30" s="6">
         <v>29</v>
       </c>
@@ -5655,7 +5901,7 @@
         <v>29|54|VG|Volgograd (Volgogradskaya oblast)|156|16|29</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9">
       <c r="B31" s="6">
         <v>30</v>
       </c>
@@ -5682,7 +5928,7 @@
         <v>30|54|SA|Saratov (Saratovskaya oblast)|152|16|29</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9">
       <c r="B32" s="6">
         <v>31</v>
       </c>
@@ -5709,7 +5955,7 @@
         <v>31|54|PE|Penza (Penzenskaya oblast)|148|16|29</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="6">
         <v>32</v>
       </c>
@@ -5736,7 +5982,7 @@
         <v>32|54|SR|Samara (Samarskaya oblast)|133|16|30</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="6">
         <v>33</v>
       </c>
@@ -5763,7 +6009,7 @@
         <v>33|54|UL|Ulyanovsk (Ulyanovskaya oblast)|164|16|29</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="6">
         <v>34</v>
       </c>
@@ -5790,7 +6036,7 @@
         <v>34|54|KI|Kirov (Kirovskaya oblast)|131|16|30</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="6">
         <v>35</v>
       </c>
@@ -5817,7 +6063,7 @@
         <v>35|54|TA|Republic of Tataria|94|16|30</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="6">
         <v>36</v>
       </c>
@@ -5844,7 +6090,7 @@
         <v>36|54|MR|Republic of Marij-El|91|16|29</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="6">
         <v>37</v>
       </c>
@@ -5871,7 +6117,7 @@
         <v>37|54|MD|Republic of Mordovia|92|16|29</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="6">
         <v>38</v>
       </c>
@@ -5898,7 +6144,7 @@
         <v>38|54|UD|Republic of Udmurtia|95|16|30</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="6">
         <v>39</v>
       </c>
@@ -5925,7 +6171,7 @@
         <v>39|54|CU|Republic of Chuvashia|97|16|29</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="6">
         <v>40</v>
       </c>
@@ -5952,7 +6198,7 @@
         <v>40|54|KR|Krasnodar (Krasnodarsky Kraj)|101|16|29</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="6">
         <v>41</v>
       </c>
@@ -5979,7 +6225,7 @@
         <v>41|54|KC|Republic of Karachaevo-Cherkessia|109|16|29</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="6">
         <v>42</v>
       </c>
@@ -6006,7 +6252,7 @@
         <v>42|54|ST|Stavropol' (Stavropolsky Kraj)|108|16|29</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="6">
         <v>43</v>
       </c>
@@ -6033,7 +6279,7 @@
         <v>43|54|KM|Republic of Kalmykia|89|16|29</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="B45" s="6">
         <v>44</v>
       </c>
@@ -6060,7 +6306,7 @@
         <v>44|54|SO|Republic of Northern Ossetia|93|16|29</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9">
       <c r="B46" s="6">
         <v>45</v>
       </c>
@@ -6087,7 +6333,7 @@
         <v>45|54|RO|Rostov-on-Don (Rostovskaya oblast)|150|16|29</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9">
       <c r="B47" s="6">
         <v>46</v>
       </c>
@@ -6114,7 +6360,7 @@
         <v>46|54|CN|Republic Chechnya|96|16|29</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9">
       <c r="B48" s="6">
         <v>47</v>
       </c>
@@ -6141,7 +6387,7 @@
         <v>47|54|IN|Republic of Ingushetia|96|16|29</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="B49" s="6">
         <v>48</v>
       </c>
@@ -6168,7 +6414,7 @@
         <v>48|54|AO|Astrakhan' (Astrakhanskaya oblast)|115|16|29</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="B50" s="6">
         <v>49</v>
       </c>
@@ -6195,7 +6441,7 @@
         <v>49|54|DA|Republic of Daghestan|86|16|29</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="6">
         <v>50</v>
       </c>
@@ -6222,7 +6468,7 @@
         <v>50|54|KB|Republic of Kabardino-Balkaria|87|16|29</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="6">
         <v>51</v>
       </c>
@@ -6249,14 +6495,1087 @@
         <v>51|54|AD|Republic of Adygeya|102|16|29</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="I54" s="27" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="I55" s="27" t="s">
         <v>821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D39DD10-E616-4347-A6AE-EF935EC8F01E}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1" s="39" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1</f>
+        <v>id|dxcc_id|code|subdivision|import_only</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E2" t="s">
+        <v>728</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="54" t="str">
+        <f t="shared" ref="G2:G3" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
+        <v>1|61|R|Arkhangelsk (Arkhangelskaya oblast)|0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>826</v>
+      </c>
+      <c r="E3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>2|61|FJL|Franz Josef Land|1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="G5" s="27" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="G6" s="27" t="s">
+        <v>823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C07055-F5B9-44F5-9B7D-EFB8D415253E}">
+  <dimension ref="B1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="39" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F2" s="54" t="str">
+        <f t="shared" ref="F2:F16" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|70|9|Camagüey</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>70</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F3" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>2|70|8|Ciego de `vila</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F4" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>3|70|6|Cienfuegos</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="F5" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>4|70|3|Ciudad de La Habana</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>70</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F6" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>5|70|12|Granma</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>70</v>
+      </c>
+      <c r="D7" s="6">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F7" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>6|70|14|Guantánamo</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F8" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>7|70|11|Holquin</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>70</v>
+      </c>
+      <c r="D9" s="6">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F9" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>8|70|99|Isla de la Juventud</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>70</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F10" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>9|70|2|La Habana</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>70</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F11" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>10|70|10|Las Tunas</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F12" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>11|70|4|Matanzas</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>70</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>12|70|1|Pinar del Río</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>13|70|7|Sancti Spiritus</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>70</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>14|70|13|Santiago de Cuba</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F16" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>15|70|5|Villa Clara</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="27" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="27" t="s">
+        <v>828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C5F5F9-1B4B-485E-8A1B-7F598EB7FF45}">
+  <dimension ref="B1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="39" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E2" t="s">
+        <v>854</v>
+      </c>
+      <c r="F2" s="54" t="str">
+        <f t="shared" ref="F2:F15" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|74|AH|Ahuachapán</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F3" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>2|74|CA|Cabañas</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>848</v>
+      </c>
+      <c r="E4" t="s">
+        <v>856</v>
+      </c>
+      <c r="F4" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>3|74|CH|Chalatenango</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E5" t="s">
+        <v>857</v>
+      </c>
+      <c r="F5" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>4|74|CU|Cuscatlán</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>849</v>
+      </c>
+      <c r="E6" t="s">
+        <v>858</v>
+      </c>
+      <c r="F6" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>5|74|LI|La Libertad</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>850</v>
+      </c>
+      <c r="E7" t="s">
+        <v>859</v>
+      </c>
+      <c r="F7" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>6|74|PA|La Paz</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>851</v>
+      </c>
+      <c r="E8" t="s">
+        <v>860</v>
+      </c>
+      <c r="F8" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>7|74|UN|La Uniôn</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>740</v>
+      </c>
+      <c r="E9" t="s">
+        <v>861</v>
+      </c>
+      <c r="F9" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>8|74|MO|Morazán</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>748</v>
+      </c>
+      <c r="E10" t="s">
+        <v>862</v>
+      </c>
+      <c r="F10" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>9|74|SM|San Miguel</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>852</v>
+      </c>
+      <c r="E11" t="s">
+        <v>863</v>
+      </c>
+      <c r="F11" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>10|74|SS|San Salvador</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>510</v>
+      </c>
+      <c r="E12" t="s">
+        <v>864</v>
+      </c>
+      <c r="F12" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>11|74|SV|San Vicente</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>777</v>
+      </c>
+      <c r="E13" t="s">
+        <v>865</v>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>12|74|SA|Santa Ana</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" t="s">
+        <v>866</v>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>13|74|SO|Sonsonate</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>853</v>
+      </c>
+      <c r="E15" t="s">
+        <v>867</v>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>14|74|US|Usulután</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="27" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="27" t="s">
+        <v>845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C656BE-A3BF-4537-BDFB-7A181AF182F0}">
+  <dimension ref="B1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="39" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E2" t="s">
+        <v>885</v>
+      </c>
+      <c r="F2" s="54" t="str">
+        <f t="shared" ref="F2:F18" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|86|BO|Boaco</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F3" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>2|86|CA|Carazo</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>870</v>
+      </c>
+      <c r="E4" t="s">
+        <v>887</v>
+      </c>
+      <c r="F4" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>3|86|CI|Chinandega</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E5" t="s">
+        <v>888</v>
+      </c>
+      <c r="F5" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>4|86|CO|Chontales</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E6" t="s">
+        <v>889</v>
+      </c>
+      <c r="F6" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>5|86|ES|Estel</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>873</v>
+      </c>
+      <c r="E7" t="s">
+        <v>890</v>
+      </c>
+      <c r="F7" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>6|86|GR|Granada</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>874</v>
+      </c>
+      <c r="E8" t="s">
+        <v>891</v>
+      </c>
+      <c r="F8" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>7|86|JI|Jinotega</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>875</v>
+      </c>
+      <c r="E9" t="s">
+        <v>892</v>
+      </c>
+      <c r="F9" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>8|86|LE|Leon</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>791</v>
+      </c>
+      <c r="E10" t="s">
+        <v>893</v>
+      </c>
+      <c r="F10" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>9|86|MD|Madriz</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>876</v>
+      </c>
+      <c r="E11" t="s">
+        <v>894</v>
+      </c>
+      <c r="F11" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>10|86|MN|Managua</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>877</v>
+      </c>
+      <c r="E12" t="s">
+        <v>895</v>
+      </c>
+      <c r="F12" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>11|86|MS|Masaya</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>878</v>
+      </c>
+      <c r="E13" t="s">
+        <v>896</v>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>12|86|MT|Matagalpa</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" t="s">
+        <v>897</v>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>13|86|NS|Nueva Segovia</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>879</v>
+      </c>
+      <c r="E15" t="s">
+        <v>898</v>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>14|86|SJ|Río San Juan</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>880</v>
+      </c>
+      <c r="E16" t="s">
+        <v>899</v>
+      </c>
+      <c r="F16" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>15|86|RI|Rivas</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>881</v>
+      </c>
+      <c r="E17" t="s">
+        <v>882</v>
+      </c>
+      <c r="F17" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>16|86|AN|Atlantico Norte</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>883</v>
+      </c>
+      <c r="E18" t="s">
+        <v>884</v>
+      </c>
+      <c r="F18" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>17|86|AS|Atlantico Sur</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="F20" s="27" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="F21" s="27" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -6272,7 +7591,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="11" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="11" hidden="1" customWidth="1"/>
@@ -6282,7 +7601,7 @@
     <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>403</v>
       </c>
@@ -6300,7 +7619,7 @@
         <v>id|code|name|is_deleted</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -6318,7 +7637,7 @@
         <v>0|0|None (the contacted station is known to not be within a DXCC entity)|f</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -6336,7 +7655,7 @@
         <v>1|1|CANADA|f</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -6354,7 +7673,7 @@
         <v>2|2|ABU AIL IS.|f</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -6372,7 +7691,7 @@
         <v>3|3|AFGHANISTAN|t</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -6390,7 +7709,7 @@
         <v>4|4|AGALEGA &amp; ST. BRANDON IS.|f</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -6408,7 +7727,7 @@
         <v>5|5|ALAND IS.|f</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -6426,7 +7745,7 @@
         <v>6|6|ALASKA|f</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -6444,7 +7763,7 @@
         <v>7|7|ALBANIA|f</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -6462,7 +7781,7 @@
         <v>8|8|ALDABRA|f</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -6480,7 +7799,7 @@
         <v>9|9|AMERICAN SAMOA|t</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -6498,7 +7817,7 @@
         <v>10|10|AMSTERDAM &amp; ST. PAUL IS.|f</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -6516,7 +7835,7 @@
         <v>11|11|ANDAMAN &amp; NICOBAR IS.|f</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -6534,7 +7853,7 @@
         <v>12|12|ANGUILLA|f</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -6552,7 +7871,7 @@
         <v>13|13|ANTARCTICA|f</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -6570,7 +7889,7 @@
         <v>14|14|ARMENIA|f</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -6588,7 +7907,7 @@
         <v>15|15|ASIATIC RUSSIA|f</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -6606,7 +7925,7 @@
         <v>16|16|NEW ZEALAND SUBANTARCTIC ISLANDS|f</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -6624,7 +7943,7 @@
         <v>17|17|AVES I.|f</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -6642,7 +7961,7 @@
         <v>18|18|AZERBAIJAN|f</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -6660,7 +7979,7 @@
         <v>19|19|BAJO NUEVO|f</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -6678,7 +7997,7 @@
         <v>20|20|BAKER &amp; HOWLAND IS.|t</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -6696,7 +8015,7 @@
         <v>21|21|BALEARIC IS.|f</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -6714,7 +8033,7 @@
         <v>22|22|PALAU|f</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -6732,7 +8051,7 @@
         <v>23|23|BLENHEIM REEF|f</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -6750,7 +8069,7 @@
         <v>24|24|BOUVET|t</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -6768,7 +8087,7 @@
         <v>25|25|BRITISH NORTH BORNEO|f</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -6786,7 +8105,7 @@
         <v>26|26|BRITISH SOMALILAND|t</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -6804,7 +8123,7 @@
         <v>27|27|BELARUS|t</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -6822,7 +8141,7 @@
         <v>28|28|CANAL ZONE|f</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -6840,7 +8159,7 @@
         <v>29|29|CANARY IS.|t</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -6858,7 +8177,7 @@
         <v>30|30|CELEBE &amp; MOLUCCA IS.|f</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -6876,7 +8195,7 @@
         <v>31|31|C. KIRIBATI (BRITISH PHOENIX IS.)|t</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -6894,7 +8213,7 @@
         <v>32|32|CEUTA &amp; MELILLA|f</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -6912,7 +8231,7 @@
         <v>33|33|CHAGOS IS.|f</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -6930,7 +8249,7 @@
         <v>34|34|CHATHAM IS.|f</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -6948,7 +8267,7 @@
         <v>35|35|CHRISTMAS I.|f</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -6966,7 +8285,7 @@
         <v>36|36|CLIPPERTON I.|f</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -6984,7 +8303,7 @@
         <v>37|37|COCOS I.|f</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -7002,7 +8321,7 @@
         <v>38|38|COCOS (KEELING) IS.|f</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -7020,7 +8339,7 @@
         <v>39|39|COMOROS|f</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -7038,7 +8357,7 @@
         <v>40|40|CRETE|t</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -7056,7 +8375,7 @@
         <v>41|41|CROZET I.|f</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -7074,7 +8393,7 @@
         <v>42|42|DAMAO DIU|f</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75">
       <c r="A45" s="10">
         <v>43</v>
       </c>
@@ -7092,7 +8411,7 @@
         <v>43|43|DESECHEO I.|t</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75">
       <c r="A46" s="10">
         <v>44</v>
       </c>
@@ -7110,7 +8429,7 @@
         <v>44|44|DESROCHES|f</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -7128,7 +8447,7 @@
         <v>45|45|DODECANESE|t</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75">
       <c r="A48" s="10">
         <v>46</v>
       </c>
@@ -7146,7 +8465,7 @@
         <v>46|46|EAST MALAYSIA|f</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -7164,7 +8483,7 @@
         <v>47|47|EASTER I.|f</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75">
       <c r="A50" s="10">
         <v>48</v>
       </c>
@@ -7182,7 +8501,7 @@
         <v>48|48|E. KIRIBATI (LINE IS.)|f</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -7200,7 +8519,7 @@
         <v>49|49|EQUATORIAL GUINEA|f</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -7218,7 +8537,7 @@
         <v>50|50|MEXICO|f</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -7236,7 +8555,7 @@
         <v>51|51|ERITREA|f</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -7254,7 +8573,7 @@
         <v>52|52|ESTONIA|f</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -7272,7 +8591,7 @@
         <v>53|53|ETHIOPIA|f</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -7290,7 +8609,7 @@
         <v>54|54|EUROPEAN RUSSIA|f</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="10">
         <v>55</v>
       </c>
@@ -7308,7 +8627,7 @@
         <v>55|55|FARQUHAR|f</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -7326,7 +8645,7 @@
         <v>56|56|FERNANDO DE NORONHA|t</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75">
       <c r="A59" s="10">
         <v>57</v>
       </c>
@@ -7344,7 +8663,7 @@
         <v>57|57|FRENCH EQUATORIAL AFRICA|f</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75">
       <c r="A60" s="10">
         <v>58</v>
       </c>
@@ -7362,7 +8681,7 @@
         <v>58|58|FRENCH INDO-CHINA|t</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="10">
         <v>59</v>
       </c>
@@ -7380,7 +8699,7 @@
         <v>59|59|FRENCH WEST AFRICA|t</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75">
       <c r="A62" s="10">
         <v>60</v>
       </c>
@@ -7398,7 +8717,7 @@
         <v>60|60|BAHAMAS|t</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -7416,7 +8735,7 @@
         <v>61|61|FRANZ JOSEF LAND|f</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -7434,7 +8753,7 @@
         <v>62|62|BARBADOS|f</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -7452,7 +8771,7 @@
         <v>63|63|FRENCH GUIANA|f</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -7470,7 +8789,7 @@
         <v>64|64|BERMUDA|f</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -7488,7 +8807,7 @@
         <v>65|65|BRITISH VIRGIN IS.|f</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -7506,7 +8825,7 @@
         <v>66|66|BELIZE|f</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -7524,7 +8843,7 @@
         <v>67|67|FRENCH INDIA|f</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -7542,7 +8861,7 @@
         <v>68|68|KUWAIT/SAUDI ARABIA NEUTRAL ZONE|t</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -7560,7 +8879,7 @@
         <v>69|69|CAYMAN IS.|t</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -7578,7 +8897,7 @@
         <v>70|70|CUBA|f</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -7596,7 +8915,7 @@
         <v>71|71|GALAPAGOS IS.|f</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -7614,7 +8933,7 @@
         <v>72|72|DOMINICAN REPUBLIC|f</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75">
       <c r="A75" s="10">
         <v>74</v>
       </c>
@@ -7632,7 +8951,7 @@
         <v>74|74|EL SALVADOR|f</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -7650,7 +8969,7 @@
         <v>75|75|GEORGIA|f</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75">
       <c r="A77" s="10">
         <v>76</v>
       </c>
@@ -7668,7 +8987,7 @@
         <v>76|76|GUATEMALA|f</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -7686,7 +9005,7 @@
         <v>77|77|GRENADA|f</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -7704,7 +9023,7 @@
         <v>78|78|HAITI|f</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -7722,7 +9041,7 @@
         <v>79|79|GUADELOUPE|f</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -7740,7 +9059,7 @@
         <v>80|80|HONDURAS|f</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="10">
         <v>81</v>
       </c>
@@ -7758,7 +9077,7 @@
         <v>81|81|GERMANY|f</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75">
       <c r="A83" s="10">
         <v>82</v>
       </c>
@@ -7776,7 +9095,7 @@
         <v>82|82|JAMAICA|t</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="10">
         <v>84</v>
       </c>
@@ -7794,7 +9113,7 @@
         <v>84|84|MARTINIQUE|f</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75">
       <c r="A85" s="10">
         <v>85</v>
       </c>
@@ -7812,7 +9131,7 @@
         <v>85|85|BONAIRE CURACAO|f</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75">
       <c r="A86" s="10">
         <v>86</v>
       </c>
@@ -7830,7 +9149,7 @@
         <v>86|86|NICARAGUA|t</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="10">
         <v>88</v>
       </c>
@@ -7848,7 +9167,7 @@
         <v>88|88|PANAMA|f</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75">
       <c r="A88" s="10">
         <v>89</v>
       </c>
@@ -7866,7 +9185,7 @@
         <v>89|89|TURKS &amp; CAICOS IS.|f</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75">
       <c r="A89" s="10">
         <v>90</v>
       </c>
@@ -7884,7 +9203,7 @@
         <v>90|90|TRINIDAD &amp; TOBAGO|f</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="10">
         <v>91</v>
       </c>
@@ -7902,7 +9221,7 @@
         <v>91|91|ARUBA|f</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75">
       <c r="A91" s="10">
         <v>93</v>
       </c>
@@ -7920,7 +9239,7 @@
         <v>93|93|GEYSER REEF|f</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75">
       <c r="A92" s="10">
         <v>94</v>
       </c>
@@ -7938,7 +9257,7 @@
         <v>94|94|ANTIGUA &amp; BARBUDA|t</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75">
       <c r="A93" s="10">
         <v>95</v>
       </c>
@@ -7956,7 +9275,7 @@
         <v>95|95|DOMINICA|f</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75">
       <c r="A94" s="10">
         <v>96</v>
       </c>
@@ -7974,7 +9293,7 @@
         <v>96|96|MONTSERRAT|f</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75">
       <c r="A95" s="10">
         <v>97</v>
       </c>
@@ -7992,7 +9311,7 @@
         <v>97|97|ST. LUCIA|f</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75">
       <c r="A96" s="10">
         <v>98</v>
       </c>
@@ -8010,7 +9329,7 @@
         <v>98|98|ST. VINCENT|f</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="10">
         <v>99</v>
       </c>
@@ -8028,7 +9347,7 @@
         <v>99|99|GLORIOSO IS.|f</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="10">
         <v>100</v>
       </c>
@@ -8046,7 +9365,7 @@
         <v>100|100|ARGENTINA|f</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="10">
         <v>101</v>
       </c>
@@ -8064,7 +9383,7 @@
         <v>101|101|GOA|f</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="10">
         <v>102</v>
       </c>
@@ -8082,7 +9401,7 @@
         <v>102|102|GOLD COAST, TOGOLAND|t</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75">
       <c r="A101" s="10">
         <v>103</v>
       </c>
@@ -8100,7 +9419,7 @@
         <v>103|103|GUAM|t</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75">
       <c r="A102" s="10">
         <v>104</v>
       </c>
@@ -8118,7 +9437,7 @@
         <v>104|104|BOLIVIA|f</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="10">
         <v>105</v>
       </c>
@@ -8136,7 +9455,7 @@
         <v>105|105|GUANTANAMO BAY|f</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75">
       <c r="A104" s="10">
         <v>106</v>
       </c>
@@ -8154,7 +9473,7 @@
         <v>106|106|GUERNSEY|f</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75">
       <c r="A105" s="10">
         <v>107</v>
       </c>
@@ -8172,7 +9491,7 @@
         <v>107|107|GUINEA|f</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="10">
         <v>108</v>
       </c>
@@ -8190,7 +9509,7 @@
         <v>108|108|BRAZIL|f</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75">
       <c r="A107" s="10">
         <v>109</v>
       </c>
@@ -8208,7 +9527,7 @@
         <v>109|109|GUINEA-BISSAU|f</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75">
       <c r="A108" s="10">
         <v>110</v>
       </c>
@@ -8226,7 +9545,7 @@
         <v>110|110|HAWAII|f</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75">
       <c r="A109" s="10">
         <v>111</v>
       </c>
@@ -8244,7 +9563,7 @@
         <v>111|111|HEARD I.|f</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75">
       <c r="A110" s="10">
         <v>112</v>
       </c>
@@ -8262,7 +9581,7 @@
         <v>112|112|CHILE|f</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75">
       <c r="A111" s="10">
         <v>113</v>
       </c>
@@ -8280,7 +9599,7 @@
         <v>113|113|IFNI|f</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75">
       <c r="A112" s="10">
         <v>114</v>
       </c>
@@ -8298,7 +9617,7 @@
         <v>114|114|ISLE OF MAN|t</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75">
       <c r="A113" s="10">
         <v>115</v>
       </c>
@@ -8316,7 +9635,7 @@
         <v>115|115|ITALIAN SOMALILAND|f</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75">
       <c r="A114" s="10">
         <v>116</v>
       </c>
@@ -8334,7 +9653,7 @@
         <v>116|116|COLOMBIA|t</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75">
       <c r="A115" s="10">
         <v>117</v>
       </c>
@@ -8352,7 +9671,7 @@
         <v>117|117|ITU HQ|f</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75">
       <c r="A116" s="10">
         <v>118</v>
       </c>
@@ -8370,7 +9689,7 @@
         <v>118|118|JAN MAYEN|f</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75">
       <c r="A117" s="10">
         <v>119</v>
       </c>
@@ -8388,7 +9707,7 @@
         <v>119|119|JAVA|f</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75">
       <c r="A118" s="10">
         <v>120</v>
       </c>
@@ -8406,7 +9725,7 @@
         <v>120|120|ECUADOR|t</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75">
       <c r="A119" s="10">
         <v>122</v>
       </c>
@@ -8424,7 +9743,7 @@
         <v>122|122|JERSEY|f</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75">
       <c r="A120" s="10">
         <v>123</v>
       </c>
@@ -8442,7 +9761,7 @@
         <v>123|123|JOHNSTON I.|f</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75">
       <c r="A121" s="10">
         <v>124</v>
       </c>
@@ -8460,7 +9779,7 @@
         <v>124|124|JUAN DE NOVA, EUROPA|f</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75">
       <c r="A122" s="10">
         <v>125</v>
       </c>
@@ -8478,7 +9797,7 @@
         <v>125|125|JUAN FERNANDEZ IS.|f</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75">
       <c r="A123" s="10">
         <v>126</v>
       </c>
@@ -8496,7 +9815,7 @@
         <v>126|126|KALININGRAD|f</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75">
       <c r="A124" s="10">
         <v>127</v>
       </c>
@@ -8514,7 +9833,7 @@
         <v>127|127|KAMARAN IS.|f</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75">
       <c r="A125" s="10">
         <v>128</v>
       </c>
@@ -8532,7 +9851,7 @@
         <v>128|128|KARELO-FINNISH REPUBLIC|f</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75">
       <c r="A126" s="10">
         <v>129</v>
       </c>
@@ -8550,7 +9869,7 @@
         <v>129|129|GUYANA|t</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75">
       <c r="A127" s="10">
         <v>130</v>
       </c>
@@ -8568,7 +9887,7 @@
         <v>130|130|KAZAKHSTAN|f</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75">
       <c r="A128" s="10">
         <v>131</v>
       </c>
@@ -8586,7 +9905,7 @@
         <v>131|131|KERGUELEN IS.|f</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75">
       <c r="A129" s="10">
         <v>132</v>
       </c>
@@ -8604,7 +9923,7 @@
         <v>132|132|PARAGUAY|f</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75">
       <c r="A130" s="10">
         <v>133</v>
       </c>
@@ -8622,7 +9941,7 @@
         <v>133|133|KERMADEC IS.|f</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75">
       <c r="A131" s="10">
         <v>134</v>
       </c>
@@ -8640,7 +9959,7 @@
         <v>134|134|KINGMAN REEF|f</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75">
       <c r="A132" s="10">
         <v>135</v>
       </c>
@@ -8658,7 +9977,7 @@
         <v>135|135|KYRGYZSTAN|t</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75">
       <c r="A133" s="10">
         <v>136</v>
       </c>
@@ -8676,7 +9995,7 @@
         <v>136|136|PERU|f</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.75">
       <c r="A134" s="10">
         <v>137</v>
       </c>
@@ -8694,7 +10013,7 @@
         <v>137|137|REPUBLIC OF KOREA|f</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75">
       <c r="A135" s="10">
         <v>138</v>
       </c>
@@ -8712,7 +10031,7 @@
         <v>138|138|KURE I.|f</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75">
       <c r="A136" s="10">
         <v>139</v>
       </c>
@@ -8730,7 +10049,7 @@
         <v>139|139|KURIA MURIA I.|f</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75">
       <c r="A137" s="10">
         <v>140</v>
       </c>
@@ -8748,7 +10067,7 @@
         <v>140|140|SURINAME|t</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75">
       <c r="A138" s="10">
         <v>141</v>
       </c>
@@ -8766,7 +10085,7 @@
         <v>141|141|FALKLAND IS.|f</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75">
       <c r="A139" s="10">
         <v>142</v>
       </c>
@@ -8784,7 +10103,7 @@
         <v>142|142|LAKSHADWEEP IS.|f</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75">
       <c r="A140" s="10">
         <v>143</v>
       </c>
@@ -8802,7 +10121,7 @@
         <v>143|143|LAOS|f</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75">
       <c r="A141" s="10">
         <v>144</v>
       </c>
@@ -8820,7 +10139,7 @@
         <v>144|144|URUGUAY|f</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75">
       <c r="A142" s="10">
         <v>145</v>
       </c>
@@ -8838,7 +10157,7 @@
         <v>145|145|LATVIA|f</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75">
       <c r="A143" s="10">
         <v>146</v>
       </c>
@@ -8856,7 +10175,7 @@
         <v>146|146|LITHUANIA|f</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75">
       <c r="A144" s="10">
         <v>147</v>
       </c>
@@ -8874,7 +10193,7 @@
         <v>147|147|LORD HOWE I.|f</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.75">
       <c r="A145" s="10">
         <v>148</v>
       </c>
@@ -8892,7 +10211,7 @@
         <v>148|148|VENEZUELA|f</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15.75">
       <c r="A146" s="10">
         <v>149</v>
       </c>
@@ -8910,7 +10229,7 @@
         <v>149|149|AZORES|f</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15.75">
       <c r="A147" s="10">
         <v>150</v>
       </c>
@@ -8928,7 +10247,7 @@
         <v>150|150|AUSTRALIA|f</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15.75">
       <c r="A148" s="10">
         <v>151</v>
       </c>
@@ -8946,7 +10265,7 @@
         <v>151|151|MALYJ VYSOTSKIJ I.|f</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15.75">
       <c r="A149" s="10">
         <v>152</v>
       </c>
@@ -8964,7 +10283,7 @@
         <v>152|152|MACAO|t</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15.75">
       <c r="A150" s="10">
         <v>153</v>
       </c>
@@ -8982,7 +10301,7 @@
         <v>153|153|MACQUARIE I.|f</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75">
       <c r="A151" s="10">
         <v>154</v>
       </c>
@@ -9000,7 +10319,7 @@
         <v>154|154|YEMEN ARAB REPUBLIC|f</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15.75">
       <c r="A152" s="10">
         <v>155</v>
       </c>
@@ -9018,7 +10337,7 @@
         <v>155|155|MALAYA|t</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75">
       <c r="A153" s="10">
         <v>157</v>
       </c>
@@ -9036,7 +10355,7 @@
         <v>157|157|NAURU|t</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75">
       <c r="A154" s="10">
         <v>158</v>
       </c>
@@ -9054,7 +10373,7 @@
         <v>158|158|VANUATU|f</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75">
       <c r="A155" s="10">
         <v>159</v>
       </c>
@@ -9072,7 +10391,7 @@
         <v>159|159|MALDIVES|f</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75">
       <c r="A156" s="10">
         <v>160</v>
       </c>
@@ -9090,7 +10409,7 @@
         <v>160|160|TONGA|f</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75">
       <c r="A157" s="10">
         <v>161</v>
       </c>
@@ -9108,7 +10427,7 @@
         <v>161|161|MALPELO I.|f</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75">
       <c r="A158" s="10">
         <v>162</v>
       </c>
@@ -9126,7 +10445,7 @@
         <v>162|162|NEW CALEDONIA|f</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75">
       <c r="A159" s="10">
         <v>163</v>
       </c>
@@ -9144,7 +10463,7 @@
         <v>163|163|PAPUA NEW GUINEA|f</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75">
       <c r="A160" s="10">
         <v>164</v>
       </c>
@@ -9162,7 +10481,7 @@
         <v>164|164|MANCHURIA|f</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75">
       <c r="A161" s="10">
         <v>165</v>
       </c>
@@ -9180,7 +10499,7 @@
         <v>165|165|MAURITIUS|t</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75">
       <c r="A162" s="10">
         <v>166</v>
       </c>
@@ -9198,7 +10517,7 @@
         <v>166|166|MARIANA IS.|f</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75">
       <c r="A163" s="10">
         <v>167</v>
       </c>
@@ -9216,7 +10535,7 @@
         <v>167|167|MARKET REEF|f</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75">
       <c r="A164" s="10">
         <v>168</v>
       </c>
@@ -9234,7 +10553,7 @@
         <v>168|168|MARSHALL IS.|f</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75">
       <c r="A165" s="10">
         <v>169</v>
       </c>
@@ -9252,7 +10571,7 @@
         <v>169|169|MAYOTTE|f</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75">
       <c r="A166" s="10">
         <v>170</v>
       </c>
@@ -9270,7 +10589,7 @@
         <v>170|170|NEW ZEALAND|f</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75">
       <c r="A167" s="10">
         <v>171</v>
       </c>
@@ -9288,7 +10607,7 @@
         <v>171|171|MELLISH REEF|f</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75">
       <c r="A168" s="10">
         <v>172</v>
       </c>
@@ -9306,7 +10625,7 @@
         <v>172|172|PITCAIRN I.|f</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75">
       <c r="A169" s="10">
         <v>173</v>
       </c>
@@ -9324,7 +10643,7 @@
         <v>173|173|MICRONESIA|f</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75">
       <c r="A170" s="10">
         <v>174</v>
       </c>
@@ -9342,7 +10661,7 @@
         <v>174|174|MIDWAY I.|f</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75">
       <c r="A171" s="10">
         <v>175</v>
       </c>
@@ -9360,7 +10679,7 @@
         <v>175|175|FRENCH POLYNESIA|f</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75">
       <c r="A172" s="10">
         <v>176</v>
       </c>
@@ -9378,7 +10697,7 @@
         <v>176|176|FIJI|f</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75">
       <c r="A173" s="10">
         <v>177</v>
       </c>
@@ -9396,7 +10715,7 @@
         <v>177|177|MINAMI TORISHIMA|f</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75">
       <c r="A174" s="10">
         <v>178</v>
       </c>
@@ -9414,7 +10733,7 @@
         <v>178|178|MINERVA REEF|f</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75">
       <c r="A175" s="10">
         <v>179</v>
       </c>
@@ -9432,7 +10751,7 @@
         <v>179|179|MOLDOVA|t</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75">
       <c r="A176" s="10">
         <v>180</v>
       </c>
@@ -9450,7 +10769,7 @@
         <v>180|180|MOUNT ATHOS|f</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75">
       <c r="A177" s="10">
         <v>181</v>
       </c>
@@ -9468,7 +10787,7 @@
         <v>181|181|MOZAMBIQUE|f</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75">
       <c r="A178" s="10">
         <v>182</v>
       </c>
@@ -9486,7 +10805,7 @@
         <v>182|182|NAVASSA I.|f</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75">
       <c r="A179" s="10">
         <v>183</v>
       </c>
@@ -9504,7 +10823,7 @@
         <v>183|183|NETHERLANDS BORNEO|f</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75">
       <c r="A180" s="10">
         <v>184</v>
       </c>
@@ -9522,7 +10841,7 @@
         <v>184|184|NETHERLANDS NEW GUINEA|t</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75">
       <c r="A181" s="10">
         <v>185</v>
       </c>
@@ -9540,7 +10859,7 @@
         <v>185|185|SOLOMON IS.|t</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75">
       <c r="A182" s="10">
         <v>186</v>
       </c>
@@ -9558,7 +10877,7 @@
         <v>186|186|NEWFOUNDLAND, LABRADOR|f</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75">
       <c r="A183" s="10">
         <v>187</v>
       </c>
@@ -9576,7 +10895,7 @@
         <v>187|187|NIGER|t</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75">
       <c r="A184" s="10">
         <v>188</v>
       </c>
@@ -9594,7 +10913,7 @@
         <v>188|188|NIUE|f</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75">
       <c r="A185" s="10">
         <v>189</v>
       </c>
@@ -9612,7 +10931,7 @@
         <v>189|189|NORFOLK I.|f</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75">
       <c r="A186" s="10">
         <v>190</v>
       </c>
@@ -9630,7 +10949,7 @@
         <v>190|190|SAMOA|f</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75">
       <c r="A187" s="10">
         <v>191</v>
       </c>
@@ -9648,7 +10967,7 @@
         <v>191|191|NORTH COOK IS.|f</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75">
       <c r="A188" s="10">
         <v>192</v>
       </c>
@@ -9666,7 +10985,7 @@
         <v>192|192|OGASAWARA|f</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75">
       <c r="A189" s="10">
         <v>193</v>
       </c>
@@ -9684,7 +11003,7 @@
         <v>193|193|OKINAWA (RYUKYU IS.)|f</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75">
       <c r="A190" s="10">
         <v>194</v>
       </c>
@@ -9702,7 +11021,7 @@
         <v>194|194|OKINO TORI-SHIMA|t</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75">
       <c r="A191" s="10">
         <v>195</v>
       </c>
@@ -9720,7 +11039,7 @@
         <v>195|195|ANNOBON I.|t</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75">
       <c r="A192" s="10">
         <v>196</v>
       </c>
@@ -9738,7 +11057,7 @@
         <v>196|196|PALESTINE|f</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75">
       <c r="A193" s="10">
         <v>197</v>
       </c>
@@ -9756,7 +11075,7 @@
         <v>197|197|PALMYRA &amp; JARVIS IS.|t</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75">
       <c r="A194" s="10">
         <v>198</v>
       </c>
@@ -9774,7 +11093,7 @@
         <v>198|198|PAPUA TERRITORY|f</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15.75">
       <c r="A195" s="10">
         <v>199</v>
       </c>
@@ -9792,7 +11111,7 @@
         <v>199|199|PETER 1 I.|t</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15.75">
       <c r="A196" s="10">
         <v>200</v>
       </c>
@@ -9810,7 +11129,7 @@
         <v>200|200|PORTUGUESE TIMOR|f</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15.75">
       <c r="A197" s="10">
         <v>201</v>
       </c>
@@ -9828,7 +11147,7 @@
         <v>201|201|PRINCE EDWARD &amp; MARION IS.|t</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15.75">
       <c r="A198" s="10">
         <v>202</v>
       </c>
@@ -9846,7 +11165,7 @@
         <v>202|202|PUERTO RICO|f</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15.75">
       <c r="A199" s="10">
         <v>203</v>
       </c>
@@ -9864,7 +11183,7 @@
         <v>203|203|ANDORRA|f</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15.75">
       <c r="A200" s="10">
         <v>204</v>
       </c>
@@ -9882,7 +11201,7 @@
         <v>204|204|REVILLAGIGEDO|f</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15.75">
       <c r="A201" s="10">
         <v>205</v>
       </c>
@@ -9900,7 +11219,7 @@
         <v>205|205|ASCENSION I.|f</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15.75">
       <c r="A202" s="10">
         <v>206</v>
       </c>
@@ -9918,7 +11237,7 @@
         <v>206|206|AUSTRIA|f</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15.75">
       <c r="A203" s="10">
         <v>207</v>
       </c>
@@ -9936,7 +11255,7 @@
         <v>207|207|RODRIGUEZ I.|f</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15.75">
       <c r="A204" s="10">
         <v>208</v>
       </c>
@@ -9954,7 +11273,7 @@
         <v>208|208|RUANDA-URUNDI|f</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15.75">
       <c r="A205" s="10">
         <v>209</v>
       </c>
@@ -9972,7 +11291,7 @@
         <v>209|209|BELGIUM|t</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15.75">
       <c r="A206" s="10">
         <v>210</v>
       </c>
@@ -9990,7 +11309,7 @@
         <v>210|210|SAAR|f</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15.75">
       <c r="A207" s="10">
         <v>211</v>
       </c>
@@ -10008,7 +11327,7 @@
         <v>211|211|SABLE I.|t</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15.75">
       <c r="A208" s="10">
         <v>212</v>
       </c>
@@ -10026,7 +11345,7 @@
         <v>212|212|BULGARIA|f</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75">
       <c r="A209" s="10">
         <v>213</v>
       </c>
@@ -10044,7 +11363,7 @@
         <v>213|213|SAINT MARTIN|f</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75">
       <c r="A210" s="10">
         <v>214</v>
       </c>
@@ -10062,7 +11381,7 @@
         <v>214|214|CORSICA|f</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75">
       <c r="A211" s="10">
         <v>215</v>
       </c>
@@ -10080,7 +11399,7 @@
         <v>215|215|CYPRUS|f</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75">
       <c r="A212" s="10">
         <v>216</v>
       </c>
@@ -10098,7 +11417,7 @@
         <v>216|216|SAN ANDRES &amp; PROVIDENCIA|f</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75">
       <c r="A213" s="10">
         <v>217</v>
       </c>
@@ -10116,7 +11435,7 @@
         <v>217|217|SAN FELIX &amp; SAN AMBROSIO|f</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75">
       <c r="A214" s="10">
         <v>218</v>
       </c>
@@ -10134,7 +11453,7 @@
         <v>218|218|CZECHOSLOVAKIA|f</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75">
       <c r="A215" s="10">
         <v>219</v>
       </c>
@@ -10152,7 +11471,7 @@
         <v>219|219|SAO TOME &amp; PRINCIPE|t</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75">
       <c r="A216" s="10">
         <v>220</v>
       </c>
@@ -10170,7 +11489,7 @@
         <v>220|220|SARAWAK|f</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75">
       <c r="A217" s="10">
         <v>221</v>
       </c>
@@ -10188,7 +11507,7 @@
         <v>221|221|DENMARK|t</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75">
       <c r="A218" s="10">
         <v>222</v>
       </c>
@@ -10206,7 +11525,7 @@
         <v>222|222|FAROE IS.|f</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75">
       <c r="A219" s="10">
         <v>223</v>
       </c>
@@ -10224,7 +11543,7 @@
         <v>223|223|ENGLAND|f</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75">
       <c r="A220" s="10">
         <v>224</v>
       </c>
@@ -10242,7 +11561,7 @@
         <v>224|224|FINLAND|f</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75">
       <c r="A221" s="10">
         <v>225</v>
       </c>
@@ -10260,7 +11579,7 @@
         <v>225|225|SARDINIA|f</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75">
       <c r="A222" s="10">
         <v>226</v>
       </c>
@@ -10278,7 +11597,7 @@
         <v>226|226|SAUDI ARABIA/IRAQ NEUTRAL ZONE|f</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75">
       <c r="A223" s="10">
         <v>227</v>
       </c>
@@ -10296,7 +11615,7 @@
         <v>227|227|FRANCE|t</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75">
       <c r="A224" s="10">
         <v>228</v>
       </c>
@@ -10314,7 +11633,7 @@
         <v>228|228|SERRANA BANK &amp; RONCADOR CAY|f</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15.75">
       <c r="A225" s="10">
         <v>229</v>
       </c>
@@ -10332,7 +11651,7 @@
         <v>229|229|GERMAN DEMOCRATIC REPUBLIC|t</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15.75">
       <c r="A226" s="10">
         <v>230</v>
       </c>
@@ -10350,7 +11669,7 @@
         <v>230|230|FEDERAL REPUBLIC OF GERMANY|t</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15.75">
       <c r="A227" s="10">
         <v>231</v>
       </c>
@@ -10368,7 +11687,7 @@
         <v>231|231|SIKKIM|f</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75">
       <c r="A228" s="10">
         <v>232</v>
       </c>
@@ -10386,7 +11705,7 @@
         <v>232|232|SOMALIA|t</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15.75">
       <c r="A229" s="10">
         <v>233</v>
       </c>
@@ -10404,7 +11723,7 @@
         <v>233|233|GIBRALTAR|f</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15.75">
       <c r="A230" s="10">
         <v>234</v>
       </c>
@@ -10422,7 +11741,7 @@
         <v>234|234|SOUTH COOK IS.|f</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15.75">
       <c r="A231" s="10">
         <v>235</v>
       </c>
@@ -10440,7 +11759,7 @@
         <v>235|235|SOUTH GEORGIA I.|f</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15.75">
       <c r="A232" s="10">
         <v>236</v>
       </c>
@@ -10458,7 +11777,7 @@
         <v>236|236|GREECE|f</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15.75">
       <c r="A233" s="10">
         <v>237</v>
       </c>
@@ -10476,7 +11795,7 @@
         <v>237|237|GREENLAND|f</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15.75">
       <c r="A234" s="10">
         <v>238</v>
       </c>
@@ -10494,7 +11813,7 @@
         <v>238|238|SOUTH ORKNEY IS.|f</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15.75">
       <c r="A235" s="10">
         <v>239</v>
       </c>
@@ -10512,7 +11831,7 @@
         <v>239|239|HUNGARY|f</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15.75">
       <c r="A236" s="10">
         <v>240</v>
       </c>
@@ -10530,7 +11849,7 @@
         <v>240|240|SOUTH SANDWICH IS.|f</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15.75">
       <c r="A237" s="10">
         <v>241</v>
       </c>
@@ -10548,7 +11867,7 @@
         <v>241|241|SOUTH SHETLAND IS.|f</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15.75">
       <c r="A238" s="10">
         <v>242</v>
       </c>
@@ -10566,7 +11885,7 @@
         <v>242|242|ICELAND|f</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75">
       <c r="A239" s="10">
         <v>243</v>
       </c>
@@ -10584,7 +11903,7 @@
         <v>243|243|PEOPLE'S DEMOCRATIC REP. OF YEMEN|f</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15.75">
       <c r="A240" s="10">
         <v>244</v>
       </c>
@@ -10602,7 +11921,7 @@
         <v>244|244|SOUTHERN SUDAN|f</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75">
       <c r="A241" s="10">
         <v>245</v>
       </c>
@@ -10620,7 +11939,7 @@
         <v>245|245|IRELAND|t</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75">
       <c r="A242" s="10">
         <v>246</v>
       </c>
@@ -10638,7 +11957,7 @@
         <v>246|246|SOVEREIGN MILITARY ORDER OF MALTA|f</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75">
       <c r="A243" s="10">
         <v>247</v>
       </c>
@@ -10656,7 +11975,7 @@
         <v>247|247|SPRATLY IS.|f</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75">
       <c r="A244" s="10">
         <v>248</v>
       </c>
@@ -10674,7 +11993,7 @@
         <v>248|248|ITALY|f</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75">
       <c r="A245" s="10">
         <v>249</v>
       </c>
@@ -10692,7 +12011,7 @@
         <v>249|249|ST. KITTS &amp; NEVIS|f</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75">
       <c r="A246" s="10">
         <v>250</v>
       </c>
@@ -10710,7 +12029,7 @@
         <v>250|250|ST. HELENA|f</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75">
       <c r="A247" s="10">
         <v>251</v>
       </c>
@@ -10728,7 +12047,7 @@
         <v>251|251|LIECHTENSTEIN|f</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75">
       <c r="A248" s="10">
         <v>252</v>
       </c>
@@ -10746,7 +12065,7 @@
         <v>252|252|ST. PAUL I.|f</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75">
       <c r="A249" s="10">
         <v>253</v>
       </c>
@@ -10764,7 +12083,7 @@
         <v>253|253|ST. PETER &amp; ST. PAUL ROCKS|f</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75">
       <c r="A250" s="10">
         <v>254</v>
       </c>
@@ -10782,7 +12101,7 @@
         <v>254|254|LUXEMBOURG|f</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75">
       <c r="A251" s="10">
         <v>255</v>
       </c>
@@ -10800,7 +12119,7 @@
         <v>255|255|ST. MAARTEN, SABA ST. EUSTATIUS|f</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15.75">
       <c r="A252" s="10">
         <v>256</v>
       </c>
@@ -10818,7 +12137,7 @@
         <v>256|256|MADEIRA IS.|t</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15.75">
       <c r="A253" s="10">
         <v>257</v>
       </c>
@@ -10836,7 +12155,7 @@
         <v>257|257|MALTA|f</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15.75">
       <c r="A254" s="10">
         <v>258</v>
       </c>
@@ -10854,7 +12173,7 @@
         <v>258|258|SUMATRA|f</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75">
       <c r="A255" s="10">
         <v>259</v>
       </c>
@@ -10872,7 +12191,7 @@
         <v>259|259|SVALBARD|t</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15.75">
       <c r="A256" s="10">
         <v>260</v>
       </c>
@@ -10890,7 +12209,7 @@
         <v>260|260|MONACO|f</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15.75">
       <c r="A257" s="10">
         <v>261</v>
       </c>
@@ -10908,7 +12227,7 @@
         <v>261|261|SWAN IS.|f</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15.75">
       <c r="A258" s="10">
         <v>262</v>
       </c>
@@ -10926,7 +12245,7 @@
         <v>262|262|TAJIKISTAN|t</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15.75">
       <c r="A259" s="10">
         <v>263</v>
       </c>
@@ -10944,7 +12263,7 @@
         <v>263|263|NETHERLANDS|f</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15.75">
       <c r="A260" s="10">
         <v>264</v>
       </c>
@@ -10962,7 +12281,7 @@
         <v>264|264|TANGIER|f</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15.75">
       <c r="A261" s="10">
         <v>265</v>
       </c>
@@ -10980,7 +12299,7 @@
         <v>265|265|NORTHERN IRELAND|t</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15.75">
       <c r="A262" s="10">
         <v>266</v>
       </c>
@@ -10998,7 +12317,7 @@
         <v>266|266|NORWAY|f</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15.75">
       <c r="A263" s="10">
         <v>267</v>
       </c>
@@ -11016,7 +12335,7 @@
         <v>267|267|TERRITORY OF NEW GUINEA|f</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75">
       <c r="A264" s="10">
         <v>268</v>
       </c>
@@ -11034,7 +12353,7 @@
         <v>268|268|TIBET|t</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75">
       <c r="A265" s="10">
         <v>269</v>
       </c>
@@ -11052,7 +12371,7 @@
         <v>269|269|POLAND|t</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75">
       <c r="A266" s="10">
         <v>270</v>
       </c>
@@ -11070,7 +12389,7 @@
         <v>270|270|TOKELAU IS.|f</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75">
       <c r="A267" s="10">
         <v>271</v>
       </c>
@@ -11088,7 +12407,7 @@
         <v>271|271|TRIESTE|f</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75">
       <c r="A268" s="10">
         <v>272</v>
       </c>
@@ -11106,7 +12425,7 @@
         <v>272|272|PORTUGAL|t</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75">
       <c r="A269" s="10">
         <v>273</v>
       </c>
@@ -11124,7 +12443,7 @@
         <v>273|273|TRINDADE &amp; MARTIM VAZ IS.|f</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75">
       <c r="A270" s="10">
         <v>274</v>
       </c>
@@ -11142,7 +12461,7 @@
         <v>274|274|TRISTAN DA CUNHA &amp; GOUGH I.|f</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75">
       <c r="A271" s="10">
         <v>275</v>
       </c>
@@ -11160,7 +12479,7 @@
         <v>275|275|ROMANIA|f</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75">
       <c r="A272" s="10">
         <v>276</v>
       </c>
@@ -11178,7 +12497,7 @@
         <v>276|276|TROMELIN I.|f</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75">
       <c r="A273" s="10">
         <v>277</v>
       </c>
@@ -11196,7 +12515,7 @@
         <v>277|277|ST. PIERRE &amp; MIQUELON|f</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75">
       <c r="A274" s="10">
         <v>278</v>
       </c>
@@ -11214,7 +12533,7 @@
         <v>278|278|SAN MARINO|f</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75">
       <c r="A275" s="10">
         <v>279</v>
       </c>
@@ -11232,7 +12551,7 @@
         <v>279|279|SCOTLAND|f</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75">
       <c r="A276" s="10">
         <v>280</v>
       </c>
@@ -11250,7 +12569,7 @@
         <v>280|280|TURKMENISTAN|f</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75">
       <c r="A277" s="10">
         <v>281</v>
       </c>
@@ -11268,7 +12587,7 @@
         <v>281|281|SPAIN|f</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75">
       <c r="A278" s="10">
         <v>282</v>
       </c>
@@ -11286,7 +12605,7 @@
         <v>282|282|TUVALU|f</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75">
       <c r="A279" s="10">
         <v>283</v>
       </c>
@@ -11304,7 +12623,7 @@
         <v>283|283|UK SOVEREIGN BASE AREAS ON CYPRUS|f</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75">
       <c r="A280" s="10">
         <v>284</v>
       </c>
@@ -11322,7 +12641,7 @@
         <v>284|284|SWEDEN|f</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75">
       <c r="A281" s="10">
         <v>285</v>
       </c>
@@ -11340,7 +12659,7 @@
         <v>285|285|VIRGIN IS.|f</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="15.75">
       <c r="A282" s="10">
         <v>286</v>
       </c>
@@ -11358,7 +12677,7 @@
         <v>286|286|UGANDA|f</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15.75">
       <c r="A283" s="10">
         <v>287</v>
       </c>
@@ -11376,7 +12695,7 @@
         <v>287|287|SWITZERLAND|f</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15.75">
       <c r="A284" s="10">
         <v>288</v>
       </c>
@@ -11394,7 +12713,7 @@
         <v>288|288|UKRAINE|f</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75">
       <c r="A285" s="10">
         <v>289</v>
       </c>
@@ -11412,7 +12731,7 @@
         <v>289|289|UNITED NATIONS HQ|f</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75">
       <c r="A286" s="10">
         <v>291</v>
       </c>
@@ -11430,7 +12749,7 @@
         <v>291|291|UNITED STATES OF AMERICA|f</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75">
       <c r="A287" s="10">
         <v>292</v>
       </c>
@@ -11448,7 +12767,7 @@
         <v>292|292|UZBEKISTAN|f</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75">
       <c r="A288" s="10">
         <v>293</v>
       </c>
@@ -11466,7 +12785,7 @@
         <v>293|293|VIET NAM|f</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15.75">
       <c r="A289" s="10">
         <v>294</v>
       </c>
@@ -11484,7 +12803,7 @@
         <v>294|294|WALES|f</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15.75">
       <c r="A290" s="10">
         <v>295</v>
       </c>
@@ -11502,7 +12821,7 @@
         <v>295|295|VATICAN|f</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15.75">
       <c r="A291" s="10">
         <v>296</v>
       </c>
@@ -11520,7 +12839,7 @@
         <v>296|296|SERBIA|f</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15.75">
       <c r="A292" s="10">
         <v>297</v>
       </c>
@@ -11538,7 +12857,7 @@
         <v>297|297|WAKE I.|f</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15.75">
       <c r="A293" s="10">
         <v>298</v>
       </c>
@@ -11556,7 +12875,7 @@
         <v>298|298|WALLIS &amp; FUTUNA IS.|f</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="15.75">
       <c r="A294" s="10">
         <v>299</v>
       </c>
@@ -11574,7 +12893,7 @@
         <v>299|299|WEST MALAYSIA|f</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="15.75">
       <c r="A295" s="10">
         <v>301</v>
       </c>
@@ -11592,7 +12911,7 @@
         <v>301|301|W. KIRIBATI (GILBERT IS. )|f</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="15.75">
       <c r="A296" s="10">
         <v>302</v>
       </c>
@@ -11610,7 +12929,7 @@
         <v>302|302|WESTERN SAHARA|f</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="15.75">
       <c r="A297" s="10">
         <v>303</v>
       </c>
@@ -11628,7 +12947,7 @@
         <v>303|303|WILLIS I.|f</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="15.75">
       <c r="A298" s="10">
         <v>304</v>
       </c>
@@ -11646,7 +12965,7 @@
         <v>304|304|BAHRAIN|f</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="15.75">
       <c r="A299" s="10">
         <v>305</v>
       </c>
@@ -11664,7 +12983,7 @@
         <v>305|305|BANGLADESH|f</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="15.75">
       <c r="A300" s="10">
         <v>306</v>
       </c>
@@ -11682,7 +13001,7 @@
         <v>306|306|BHUTAN|f</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="15.75">
       <c r="A301" s="10">
         <v>307</v>
       </c>
@@ -11700,7 +13019,7 @@
         <v>307|307|ZANZIBAR|f</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="15.75">
       <c r="A302" s="10">
         <v>308</v>
       </c>
@@ -11718,7 +13037,7 @@
         <v>308|308|COSTA RICA|t</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="15.75">
       <c r="A303" s="10">
         <v>309</v>
       </c>
@@ -11736,7 +13055,7 @@
         <v>309|309|MYANMAR|f</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="15.75">
       <c r="A304" s="10">
         <v>312</v>
       </c>
@@ -11754,7 +13073,7 @@
         <v>312|312|CAMBODIA|f</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15.75">
       <c r="A305" s="10">
         <v>315</v>
       </c>
@@ -11772,7 +13091,7 @@
         <v>315|315|SRI LANKA|f</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15.75">
       <c r="A306" s="10">
         <v>318</v>
       </c>
@@ -11790,7 +13109,7 @@
         <v>318|318|CHINA|f</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15.75">
       <c r="A307" s="10">
         <v>321</v>
       </c>
@@ -11808,7 +13127,7 @@
         <v>321|321|HONG KONG|f</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15.75">
       <c r="A308" s="10">
         <v>324</v>
       </c>
@@ -11826,7 +13145,7 @@
         <v>324|324|INDIA|f</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75">
       <c r="A309" s="10">
         <v>327</v>
       </c>
@@ -11844,7 +13163,7 @@
         <v>327|327|INDONESIA|f</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75">
       <c r="A310" s="10">
         <v>330</v>
       </c>
@@ -11862,7 +13181,7 @@
         <v>330|330|IRAN|f</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75">
       <c r="A311" s="10">
         <v>333</v>
       </c>
@@ -11880,7 +13199,7 @@
         <v>333|333|IRAQ|f</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75">
       <c r="A312" s="10">
         <v>336</v>
       </c>
@@ -11898,7 +13217,7 @@
         <v>336|336|ISRAEL|f</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75">
       <c r="A313" s="10">
         <v>339</v>
       </c>
@@ -11916,7 +13235,7 @@
         <v>339|339|JAPAN|f</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="15.75">
       <c r="A314" s="10">
         <v>342</v>
       </c>
@@ -11934,7 +13253,7 @@
         <v>342|342|JORDAN|f</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15.75">
       <c r="A315" s="10">
         <v>344</v>
       </c>
@@ -11952,7 +13271,7 @@
         <v>344|344|DEMOCRATIC PEOPLE'S REP. OF KOREA|f</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15.75">
       <c r="A316" s="10">
         <v>345</v>
       </c>
@@ -11970,7 +13289,7 @@
         <v>345|345|BRUNEI DARUSSALAM|f</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15.75">
       <c r="A317" s="10">
         <v>348</v>
       </c>
@@ -11988,7 +13307,7 @@
         <v>348|348|KUWAIT|f</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15.75">
       <c r="A318" s="10">
         <v>354</v>
       </c>
@@ -12006,7 +13325,7 @@
         <v>354|354|LEBANON|f</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15.75">
       <c r="A319" s="10">
         <v>363</v>
       </c>
@@ -12024,7 +13343,7 @@
         <v>363|363|MONGOLIA|f</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="15.75">
       <c r="A320" s="10">
         <v>369</v>
       </c>
@@ -12042,7 +13361,7 @@
         <v>369|369|NEPAL|f</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15.75">
       <c r="A321" s="10">
         <v>370</v>
       </c>
@@ -12060,7 +13379,7 @@
         <v>370|370|OMAN|f</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15.75">
       <c r="A322" s="10">
         <v>372</v>
       </c>
@@ -12078,7 +13397,7 @@
         <v>372|372|PAKISTAN|f</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15.75">
       <c r="A323" s="10">
         <v>375</v>
       </c>
@@ -12096,7 +13415,7 @@
         <v>375|375|PHILIPPINES|f</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15.75">
       <c r="A324" s="10">
         <v>376</v>
       </c>
@@ -12114,7 +13433,7 @@
         <v>376|376|QATAR|f</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15.75">
       <c r="A325" s="10">
         <v>378</v>
       </c>
@@ -12132,7 +13451,7 @@
         <v>378|378|SAUDI ARABIA|f</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15.75">
       <c r="A326" s="10">
         <v>379</v>
       </c>
@@ -12150,7 +13469,7 @@
         <v>379|379|SEYCHELLES|f</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15.75">
       <c r="A327" s="10">
         <v>381</v>
       </c>
@@ -12168,7 +13487,7 @@
         <v>381|381|SINGAPORE|f</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15.75">
       <c r="A328" s="10">
         <v>382</v>
       </c>
@@ -12186,7 +13505,7 @@
         <v>382|382|DJIBOUTI|f</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15.75">
       <c r="A329" s="10">
         <v>384</v>
       </c>
@@ -12204,7 +13523,7 @@
         <v>384|384|SYRIA|f</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15.75">
       <c r="A330" s="10">
         <v>386</v>
       </c>
@@ -12222,7 +13541,7 @@
         <v>386|386|TAIWAN|f</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15.75">
       <c r="A331" s="10">
         <v>387</v>
       </c>
@@ -12240,7 +13559,7 @@
         <v>387|387|THAILAND|f</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15.75">
       <c r="A332" s="10">
         <v>390</v>
       </c>
@@ -12258,7 +13577,7 @@
         <v>390|390|TURKEY|f</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15.75">
       <c r="A333" s="10">
         <v>391</v>
       </c>
@@ -12276,7 +13595,7 @@
         <v>391|391|UNITED ARAB EMIRATES|f</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15.75">
       <c r="A334" s="10">
         <v>400</v>
       </c>
@@ -12294,7 +13613,7 @@
         <v>400|400|ALGERIA|f</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15.75">
       <c r="A335" s="10">
         <v>401</v>
       </c>
@@ -12312,7 +13631,7 @@
         <v>401|401|ANGOLA|f</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15.75">
       <c r="A336" s="10">
         <v>402</v>
       </c>
@@ -12330,7 +13649,7 @@
         <v>402|402|BOTSWANA|f</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15.75">
       <c r="A337" s="10">
         <v>404</v>
       </c>
@@ -12348,7 +13667,7 @@
         <v>404|404|BURUNDI|f</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15.75">
       <c r="A338" s="10">
         <v>406</v>
       </c>
@@ -12366,7 +13685,7 @@
         <v>406|406|CAMEROON|f</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15.75">
       <c r="A339" s="10">
         <v>408</v>
       </c>
@@ -12384,7 +13703,7 @@
         <v>408|408|CENTRAL AFRICA|f</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15.75">
       <c r="A340" s="10">
         <v>409</v>
       </c>
@@ -12402,7 +13721,7 @@
         <v>409|409|CAPE VERDE|f</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15.75">
       <c r="A341" s="10">
         <v>410</v>
       </c>
@@ -12420,7 +13739,7 @@
         <v>410|410|CHAD|f</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15.75">
       <c r="A342" s="10">
         <v>411</v>
       </c>
@@ -12438,7 +13757,7 @@
         <v>411|411|COMOROS|f</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15.75">
       <c r="A343" s="10">
         <v>412</v>
       </c>
@@ -12456,7 +13775,7 @@
         <v>412|412|REPUBLIC OF THE CONGO|f</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15.75">
       <c r="A344" s="10">
         <v>414</v>
       </c>
@@ -12474,7 +13793,7 @@
         <v>414|414|DEMOCRATIC REPUBLIC OF THE CONGO|f</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15.75">
       <c r="A345" s="10">
         <v>416</v>
       </c>
@@ -12492,7 +13811,7 @@
         <v>416|416|BENIN|f</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15.75">
       <c r="A346" s="10">
         <v>420</v>
       </c>
@@ -12510,7 +13829,7 @@
         <v>420|420|GABON|f</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15.75">
       <c r="A347" s="10">
         <v>422</v>
       </c>
@@ -12528,7 +13847,7 @@
         <v>422|422|THE GAMBIA|f</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15.75">
       <c r="A348" s="10">
         <v>424</v>
       </c>
@@ -12546,7 +13865,7 @@
         <v>424|424|GHANA|f</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="15.75">
       <c r="A349" s="10">
         <v>428</v>
       </c>
@@ -12564,7 +13883,7 @@
         <v>428|428|COTE D'IVOIRE|f</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="15.75">
       <c r="A350" s="10">
         <v>430</v>
       </c>
@@ -12582,7 +13901,7 @@
         <v>430|430|KENYA|f</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="15.75">
       <c r="A351" s="10">
         <v>432</v>
       </c>
@@ -12600,7 +13919,7 @@
         <v>432|432|LESOTHO|f</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="15.75">
       <c r="A352" s="10">
         <v>434</v>
       </c>
@@ -12618,7 +13937,7 @@
         <v>434|434|LIBERIA|f</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="15.75">
       <c r="A353" s="10">
         <v>436</v>
       </c>
@@ -12636,7 +13955,7 @@
         <v>436|436|LIBYA|f</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="15.75">
       <c r="A354" s="10">
         <v>438</v>
       </c>
@@ -12654,7 +13973,7 @@
         <v>438|438|MADAGASCAR|f</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="15.75">
       <c r="A355" s="10">
         <v>440</v>
       </c>
@@ -12672,7 +13991,7 @@
         <v>440|440|MALAWI|f</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="15.75">
       <c r="A356" s="10">
         <v>442</v>
       </c>
@@ -12690,7 +14009,7 @@
         <v>442|442|MALI|f</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="15.75">
       <c r="A357" s="10">
         <v>444</v>
       </c>
@@ -12708,7 +14027,7 @@
         <v>444|444|MAURITANIA|f</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="15.75">
       <c r="A358" s="10">
         <v>446</v>
       </c>
@@ -12726,7 +14045,7 @@
         <v>446|446|MOROCCO|f</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="15.75">
       <c r="A359" s="10">
         <v>450</v>
       </c>
@@ -12744,7 +14063,7 @@
         <v>450|450|NIGERIA|f</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="15.75">
       <c r="A360" s="10">
         <v>452</v>
       </c>
@@ -12762,7 +14081,7 @@
         <v>452|452|ZIMBABWE|f</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="15.75">
       <c r="A361" s="10">
         <v>453</v>
       </c>
@@ -12780,7 +14099,7 @@
         <v>453|453|REUNION I.|f</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="15.75">
       <c r="A362" s="10">
         <v>454</v>
       </c>
@@ -12798,7 +14117,7 @@
         <v>454|454|RWANDA|f</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="15.75">
       <c r="A363" s="10">
         <v>456</v>
       </c>
@@ -12816,7 +14135,7 @@
         <v>456|456|SENEGAL|f</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="15.75">
       <c r="A364" s="10">
         <v>458</v>
       </c>
@@ -12834,7 +14153,7 @@
         <v>458|458|SIERRA LEONE|f</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="15.75">
       <c r="A365" s="10">
         <v>460</v>
       </c>
@@ -12852,7 +14171,7 @@
         <v>460|460|ROTUMA I.|f</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="15.75">
       <c r="A366" s="10">
         <v>462</v>
       </c>
@@ -12870,7 +14189,7 @@
         <v>462|462|SOUTH AFRICA|f</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="15.75">
       <c r="A367" s="10">
         <v>464</v>
       </c>
@@ -12888,7 +14207,7 @@
         <v>464|464|NAMIBIA|f</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="15.75">
       <c r="A368" s="10">
         <v>466</v>
       </c>
@@ -12906,7 +14225,7 @@
         <v>466|466|SUDAN|f</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="15.75">
       <c r="A369" s="10">
         <v>468</v>
       </c>
@@ -12924,7 +14243,7 @@
         <v>468|468|SWAZILAND|f</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="15.75">
       <c r="A370" s="10">
         <v>470</v>
       </c>
@@ -12942,7 +14261,7 @@
         <v>470|470|TANZANIA|f</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="15.75">
       <c r="A371" s="10">
         <v>474</v>
       </c>
@@ -12960,7 +14279,7 @@
         <v>474|474|TUNISIA|f</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="15.75">
       <c r="A372" s="10">
         <v>478</v>
       </c>
@@ -12978,7 +14297,7 @@
         <v>478|478|EGYPT|f</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="15.75">
       <c r="A373" s="10">
         <v>480</v>
       </c>
@@ -12996,7 +14315,7 @@
         <v>480|480|BURKINA FASO|f</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="15.75">
       <c r="A374" s="10">
         <v>482</v>
       </c>
@@ -13014,7 +14333,7 @@
         <v>482|482|ZAMBIA|f</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="15.75">
       <c r="A375" s="10">
         <v>483</v>
       </c>
@@ -13032,7 +14351,7 @@
         <v>483|483|TOGO|f</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="15.75">
       <c r="A376" s="10">
         <v>488</v>
       </c>
@@ -13050,7 +14369,7 @@
         <v>488|488|WALVIS BAY|f</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="15.75">
       <c r="A377" s="10">
         <v>489</v>
       </c>
@@ -13068,7 +14387,7 @@
         <v>489|489|CONWAY REEF|t</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="15.75">
       <c r="A378" s="10">
         <v>490</v>
       </c>
@@ -13086,7 +14405,7 @@
         <v>490|490|BANABA I. (OCEAN I.)|f</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="15.75">
       <c r="A379" s="10">
         <v>492</v>
       </c>
@@ -13104,7 +14423,7 @@
         <v>492|492|YEMEN|f</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="15.75">
       <c r="A380" s="10">
         <v>493</v>
       </c>
@@ -13122,7 +14441,7 @@
         <v>493|493|PENGUIN IS.|f</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="15.75">
       <c r="A381" s="10">
         <v>497</v>
       </c>
@@ -13140,7 +14459,7 @@
         <v>497|497|CROATIA|t</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="15.75">
       <c r="A382" s="10">
         <v>499</v>
       </c>
@@ -13158,7 +14477,7 @@
         <v>499|499|SLOVENIA|f</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="15.75">
       <c r="A383" s="10">
         <v>501</v>
       </c>
@@ -13176,7 +14495,7 @@
         <v>501|501|BOSNIA-HERZEGOVINA|f</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="15.75">
       <c r="A384" s="10">
         <v>502</v>
       </c>
@@ -13194,7 +14513,7 @@
         <v>502|502|MACEDONIA|f</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="15.75">
       <c r="A385" s="10">
         <v>503</v>
       </c>
@@ -13212,7 +14531,7 @@
         <v>503|503|CZECH REPUBLIC|f</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="15.75">
       <c r="A386" s="10">
         <v>504</v>
       </c>
@@ -13230,7 +14549,7 @@
         <v>504|504|SLOVAK REPUBLIC|f</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="15.75">
       <c r="A387" s="10">
         <v>505</v>
       </c>
@@ -13248,7 +14567,7 @@
         <v>505|505|PRATAS I.|f</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="15.75">
       <c r="A388" s="10">
         <v>506</v>
       </c>
@@ -13266,7 +14585,7 @@
         <v>506|506|SCARBOROUGH REEF|f</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="15.75">
       <c r="A389" s="10">
         <v>507</v>
       </c>
@@ -13284,7 +14603,7 @@
         <v>507|507|TEMOTU PROVINCE|f</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="15.75">
       <c r="A390" s="10">
         <v>508</v>
       </c>
@@ -13302,7 +14621,7 @@
         <v>508|508|AUSTRAL I.|f</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="15.75">
       <c r="A391" s="10">
         <v>509</v>
       </c>
@@ -13320,7 +14639,7 @@
         <v>509|509|MARQUESAS IS.|f</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="15.75">
       <c r="A392" s="10">
         <v>510</v>
       </c>
@@ -13338,7 +14657,7 @@
         <v>510|510|PALESTINE|f</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="15.75">
       <c r="A393" s="10">
         <v>511</v>
       </c>
@@ -13356,7 +14675,7 @@
         <v>511|511|TIMOR-LESTE|f</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="15.75">
       <c r="A394" s="10">
         <v>512</v>
       </c>
@@ -13374,7 +14693,7 @@
         <v>512|512|CHESTERFIELD IS.|f</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="15.75">
       <c r="A395" s="10">
         <v>513</v>
       </c>
@@ -13392,7 +14711,7 @@
         <v>513|513|DUCIE I.|f</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="15.75">
       <c r="A396" s="10">
         <v>514</v>
       </c>
@@ -13410,7 +14729,7 @@
         <v>514|514|MONTENEGRO|f</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="15.75">
       <c r="A397" s="10">
         <v>515</v>
       </c>
@@ -13428,7 +14747,7 @@
         <v>515|515|SWAINS I.|f</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="15.75">
       <c r="A398" s="10">
         <v>516</v>
       </c>
@@ -13446,7 +14765,7 @@
         <v>516|516|SAINT BARTHELEMY|f</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="15.75">
       <c r="A399" s="10">
         <v>517</v>
       </c>
@@ -13464,7 +14783,7 @@
         <v>517|517|CURACAO|f</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="15.75">
       <c r="A400" s="10">
         <v>518</v>
       </c>
@@ -13482,7 +14801,7 @@
         <v>518|518|ST MAARTEN|f</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="15.75">
       <c r="A401" s="10">
         <v>519</v>
       </c>
@@ -13500,7 +14819,7 @@
         <v>519|519|SABA &amp; ST. EUSTATIUS|f</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="15.75">
       <c r="A402" s="10">
         <v>520</v>
       </c>
@@ -13518,7 +14837,7 @@
         <v>520|520|BONAIRE|f</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="15.75">
       <c r="A403" s="10">
         <v>521</v>
       </c>
@@ -13536,7 +14855,7 @@
         <v>521|521|SOUTH SUDAN (REPUBLIC OF)|f</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="15.75">
       <c r="A404" s="10">
         <v>522</v>
       </c>
@@ -13554,12 +14873,12 @@
         <v>522|522|REPUBLIC OF KOSOVO|f</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="E406" s="57" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="E407" s="57" t="s">
         <v>623</v>
       </c>
@@ -13576,7 +14895,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="3.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -13595,7 +14914,7 @@
     <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17">
       <c r="B1" s="3" t="s">
         <v>403</v>
       </c>
@@ -13639,7 +14958,7 @@
         <v>id|sas_division_type</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -13684,7 +15003,7 @@
         <v>1|County</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -13729,7 +15048,7 @@
         <v>2|District</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -13778,7 +15097,7 @@
         <v>3|Gun</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -13818,7 +15137,7 @@
       </c>
       <c r="Q5" s="53"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -13857,7 +15176,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -13893,7 +15212,7 @@
         <v>6|DEPARTMENT</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -13929,7 +15248,7 @@
         <v>7|DISTRICT</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -13965,7 +15284,7 @@
         <v>8|DISTRITO</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -14001,7 +15320,7 @@
         <v>9|JUDETE</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -14037,7 +15356,7 @@
         <v>10|KUNTA</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -14076,7 +15395,7 @@
         <v>11|LAN</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -14115,7 +15434,7 @@
         <v>12|MAAKOND</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -14151,7 +15470,7 @@
         <v>13|MEGYE</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -14187,7 +15506,7 @@
         <v>14|OBLAST</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -14223,7 +15542,7 @@
         <v>15|OKRES</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -14259,7 +15578,7 @@
         <v>16|PREFECTURE</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -14295,7 +15614,7 @@
         <v>17|PROVINCE</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -14331,7 +15650,7 @@
         <v>18|PROVINSI</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -14370,7 +15689,7 @@
         <v>19|RAION</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -14406,7 +15725,7 @@
         <v>20|REGION</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -14445,7 +15764,7 @@
         <v>21|STATE</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -14481,7 +15800,7 @@
         <v>22|SUBYEKT</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -14517,7 +15836,7 @@
         <v>23|VOBLAST</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -14556,7 +15875,7 @@
         <v>24|VOIVODESHIP</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -14592,7 +15911,7 @@
         <v>25|ZUPANIJA</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -14618,7 +15937,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -14647,7 +15966,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -14673,7 +15992,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -14699,7 +16018,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -14725,7 +16044,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -14754,7 +16073,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -14780,7 +16099,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -14806,7 +16125,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -14835,7 +16154,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -14864,7 +16183,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -14890,7 +16209,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -14919,7 +16238,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -14945,7 +16264,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -14971,7 +16290,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -14997,7 +16316,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -15023,7 +16342,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -15049,7 +16368,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -15075,7 +16394,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -15101,7 +16420,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9">
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -15127,7 +16446,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9">
       <c r="B47" s="1">
         <v>46</v>
       </c>
@@ -15153,7 +16472,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9">
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -15179,7 +16498,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -15205,7 +16524,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -15231,7 +16550,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -15257,7 +16576,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9">
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -15283,7 +16602,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -15309,7 +16628,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="B54" s="1">
         <v>53</v>
       </c>
@@ -15335,7 +16654,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" s="1">
         <v>54</v>
       </c>
@@ -15361,7 +16680,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -15387,7 +16706,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="B57" s="1">
         <v>56</v>
       </c>
@@ -15413,7 +16732,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="B58" s="1">
         <v>57</v>
       </c>
@@ -15439,7 +16758,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -15468,7 +16787,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -15497,7 +16816,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9">
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -15523,7 +16842,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" s="1">
         <v>61</v>
       </c>
@@ -15549,7 +16868,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="B63" s="1">
         <v>62</v>
       </c>
@@ -15578,7 +16897,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="B64" s="1">
         <v>63</v>
       </c>
@@ -15604,7 +16923,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9">
       <c r="B65" s="1">
         <v>64</v>
       </c>
@@ -15630,7 +16949,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9">
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -15656,7 +16975,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9">
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -15682,7 +17001,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9">
       <c r="B68" s="1">
         <v>67</v>
       </c>
@@ -15708,7 +17027,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9">
       <c r="B69" s="1">
         <v>68</v>
       </c>
@@ -15734,7 +17053,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9">
       <c r="H71" s="29" t="s">
         <v>624</v>
       </c>
@@ -15747,11 +17066,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FCF9E-88D0-4190-A2F7-F0642BE1327B}">
-  <dimension ref="B1:O25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
@@ -15767,7 +17086,7 @@
     <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15">
       <c r="B1" s="59" t="s">
         <v>403</v>
       </c>
@@ -15808,7 +17127,7 @@
         <v>id|pas_001_id|itu_zone_id</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -15849,7 +17168,7 @@
         <v>1|1|9</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -15890,7 +17209,7 @@
         <v>2|2|4</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -15931,7 +17250,7 @@
         <v>3|2|9</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -15972,7 +17291,7 @@
         <v>4|3|3</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -16013,7 +17332,7 @@
         <v>5|3|4</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -16054,7 +17373,7 @@
         <v>6|4|3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -16095,7 +17414,7 @@
         <v>7|4|4</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -16136,7 +17455,7 @@
         <v>8|5|3</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -16177,7 +17496,7 @@
         <v>9|6|2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -16218,7 +17537,7 @@
         <v>10|7|2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -16259,7 +17578,7 @@
         <v>11|8|3</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -16300,7 +17619,7 @@
         <v>12|8|4</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="6">
         <v>13</v>
       </c>
@@ -16341,7 +17660,7 @@
         <v>13|8|75</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="G15" s="25">
         <v>14</v>
       </c>
@@ -16369,7 +17688,7 @@
         <v>14|9|9</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="G16" s="25">
         <v>15</v>
       </c>
@@ -16397,7 +17716,7 @@
         <v>15|10|9</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="G17" s="25">
         <v>16</v>
       </c>
@@ -16425,7 +17744,7 @@
         <v>16|11|2</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="G18" s="25">
         <v>17</v>
       </c>
@@ -16453,7 +17772,7 @@
         <v>17|12|9</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -16471,7 +17790,7 @@
         <v>18|13|4</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -16489,7 +17808,7 @@
         <v>19|13|9</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="25"/>
@@ -16502,7 +17821,9 @@
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
+      <c r="A22" s="65"/>
+      <c r="C22" s="65"/>
       <c r="E22" s="57" t="s">
         <v>612</v>
       </c>
@@ -16521,7 +17842,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="E23" s="57" t="s">
         <v>609</v>
       </c>
@@ -16529,12 +17850,12 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -16550,7 +17871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="3" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -16560,7 +17881,7 @@
     <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7">
       <c r="B1" s="23" t="s">
         <v>403</v>
       </c>
@@ -16581,7 +17902,7 @@
         <v>id|dxcc_id|code|subdivision|is_deleted</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -16602,7 +17923,7 @@
         <v>1|5|1|Brändö|0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -16623,7 +17944,7 @@
         <v>2|5|2|Eckerö|0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -16644,7 +17965,7 @@
         <v>3|5|3|Finström|0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -16665,7 +17986,7 @@
         <v>4|5|4|Föglö|0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -16686,7 +18007,7 @@
         <v>5|5|5|Geta|0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -16707,7 +18028,7 @@
         <v>6|5|6|Hammarland|0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -16728,7 +18049,7 @@
         <v>7|5|7|Jomala|0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -16749,7 +18070,7 @@
         <v>8|5|8|Kumlinge|0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -16770,7 +18091,7 @@
         <v>9|5|9|Kökar|0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -16791,7 +18112,7 @@
         <v>10|5|10|Lemland|0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -16812,7 +18133,7 @@
         <v>11|5|11|Lumparland|0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -16833,7 +18154,7 @@
         <v>12|5|12|Maarianhamina|0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>13</v>
       </c>
@@ -16854,7 +18175,7 @@
         <v>13|5|13|Saltvik|0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -16875,7 +18196,7 @@
         <v>14|5|14|Sottunga|0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7">
       <c r="B16" s="6">
         <v>15</v>
       </c>
@@ -16896,7 +18217,7 @@
         <v>15|5|15|Sund|0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" s="6">
         <v>16</v>
       </c>
@@ -16917,7 +18238,7 @@
         <v>16|5|16|Vårdö|0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" s="6">
         <v>17</v>
       </c>
@@ -16938,7 +18259,7 @@
         <v>17|5|51|Märket|1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
@@ -16946,12 +18267,12 @@
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="G20" s="57" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="G21" s="57" t="s">
         <v>505</v>
       </c>
@@ -16967,7 +18288,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -16976,7 +18297,7 @@
     <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="23" t="s">
         <v>403</v>
       </c>
@@ -16994,7 +18315,7 @@
         <v>id|dxcc_id|code|subdivision</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -17012,19 +18333,19 @@
         <v>1|6|AK|Alaska</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="F4" s="57" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="F5" s="57" t="s">
         <v>503</v>
       </c>
@@ -17040,7 +18361,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="9.140625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" style="1" hidden="1" customWidth="1"/>
@@ -17059,7 +18380,7 @@
     <col min="19" max="19" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19">
       <c r="B1" s="42" t="s">
         <v>403</v>
       </c>
@@ -17113,7 +18434,7 @@
         <v>id|pas_015_id|itu_zone_id</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -17167,7 +18488,7 @@
         <v>1|1|32</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -17221,7 +18542,7 @@
         <v>2|2|33</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -17273,7 +18594,7 @@
         <v>3|3|30</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -17325,7 +18646,7 @@
         <v>4|4|30</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -17379,7 +18700,7 @@
         <v>5|5|30</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -17433,7 +18754,7 @@
         <v>6|6|30</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -17487,7 +18808,7 @@
         <v>7|7|30</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -17539,7 +18860,7 @@
         <v>8|8|30</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19">
       <c r="B10" s="6">
         <v>9</v>
       </c>
@@ -17591,7 +18912,7 @@
         <v>9|9|21</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19">
       <c r="B11" s="6">
         <v>10</v>
       </c>
@@ -17643,7 +18964,7 @@
         <v>10|10|21</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="B12" s="6">
         <v>11</v>
       </c>
@@ -17695,7 +19016,7 @@
         <v>11|11|30</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19">
       <c r="B13" s="6">
         <v>12</v>
       </c>
@@ -17747,7 +19068,7 @@
         <v>12|12|30</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19">
       <c r="B14" s="6">
         <v>13</v>
       </c>
@@ -17799,7 +19120,7 @@
         <v>13|13|31</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19">
       <c r="B15" s="6">
         <v>14</v>
       </c>
@@ -17851,7 +19172,7 @@
         <v>14|14|30</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="B16" s="6">
         <v>15</v>
       </c>
@@ -17903,7 +19224,7 @@
         <v>15|15|30</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19">
       <c r="B17" s="6">
         <v>16</v>
       </c>
@@ -17955,7 +19276,7 @@
         <v>16|16|31</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19">
       <c r="B18" s="6">
         <v>17</v>
       </c>
@@ -18007,7 +19328,7 @@
         <v>17|17|30</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19">
       <c r="B19" s="6">
         <v>18</v>
       </c>
@@ -18059,7 +19380,7 @@
         <v>18|18|20</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19">
       <c r="B20" s="6">
         <v>19</v>
       </c>
@@ -18111,7 +19432,7 @@
         <v>19|19|31</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19">
       <c r="B21" s="6">
         <v>20</v>
       </c>
@@ -18163,7 +19484,7 @@
         <v>20|20|31</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19">
       <c r="B22" s="6">
         <v>21</v>
       </c>
@@ -18215,7 +19536,7 @@
         <v>21|21|32</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19">
       <c r="B23" s="6">
         <v>22</v>
       </c>
@@ -18269,7 +19590,7 @@
         <v>22|22|32</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19">
       <c r="B24" s="6">
         <v>23</v>
       </c>
@@ -18321,7 +19642,7 @@
         <v>23|23|34</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19">
       <c r="B25" s="6">
         <v>24</v>
       </c>
@@ -18373,7 +19694,7 @@
         <v>24|24|33</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19">
       <c r="B26" s="6">
         <v>25</v>
       </c>
@@ -18425,7 +19746,7 @@
         <v>25|25|34</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19">
       <c r="B27" s="6">
         <v>26</v>
       </c>
@@ -18479,7 +19800,7 @@
         <v>26|26|22</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19">
       <c r="B28" s="6">
         <v>27</v>
       </c>
@@ -18531,7 +19852,7 @@
         <v>27|27|24</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19">
       <c r="B29" s="6">
         <v>28</v>
       </c>
@@ -18583,7 +19904,7 @@
         <v>28|28|33</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19">
       <c r="B30" s="6">
         <v>29</v>
       </c>
@@ -18635,7 +19956,7 @@
         <v>29|29|26</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19">
       <c r="B31" s="6">
         <v>30</v>
       </c>
@@ -18687,7 +20008,7 @@
         <v>30|30|34</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19">
       <c r="B32" s="6">
         <v>31</v>
       </c>
@@ -18739,7 +20060,7 @@
         <v>31|31|32</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19">
       <c r="B33" s="6">
         <v>32</v>
       </c>
@@ -18791,7 +20112,7 @@
         <v>32|32|32</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19">
       <c r="B34" s="6">
         <v>33</v>
       </c>
@@ -18843,7 +20164,7 @@
         <v>33|33|32</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19">
       <c r="B35" s="6">
         <v>34</v>
       </c>
@@ -18899,7 +20220,7 @@
         <v>34|34|33</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19">
       <c r="B36" s="6">
         <v>35</v>
       </c>
@@ -18951,7 +20272,7 @@
         <v>35|35|32</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19">
       <c r="B37" s="6">
         <v>36</v>
       </c>
@@ -19005,7 +20326,7 @@
         <v>36|36|25</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19">
       <c r="B38" s="6">
         <v>37</v>
       </c>
@@ -19057,7 +20378,7 @@
         <v>37|37|32</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19">
       <c r="B39" s="6">
         <v>38</v>
       </c>
@@ -19109,7 +20430,7 @@
         <v>38|38|35</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19">
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -19137,10 +20458,10 @@
       <c r="Q40" s="47"/>
       <c r="R40" s="48"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19">
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19">
       <c r="I42" s="57" t="s">
         <v>610</v>
       </c>
@@ -19159,13 +20480,13 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19">
       <c r="I43" s="57" t="s">
         <v>585</v>
       </c>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19">
       <c r="N44" s="28"/>
       <c r="S44" s="28"/>
     </row>
@@ -19181,7 +20502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -19190,7 +20511,7 @@
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="22" t="s">
         <v>403</v>
       </c>
@@ -19208,7 +20529,7 @@
         <v>id|dxcc_id|code|subdivision</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -19226,12 +20547,12 @@
         <v>1|21|IB|Baleares</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="F4" s="27" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
         <v>589</v>
       </c>
@@ -19248,7 +20569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
@@ -19257,7 +20578,7 @@
     <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="B1" s="22" t="s">
         <v>403</v>
       </c>
@@ -19275,7 +20596,7 @@
         <v>id|dxcc_id|code|subdivision</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -19293,7 +20614,7 @@
         <v>1|27|MI|Minsk (Minskaya voblasts')</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -19311,7 +20632,7 @@
         <v>2|27|BR|Brest (Brestskaya voblasts')</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="6">
         <v>3</v>
       </c>
@@ -19329,7 +20650,7 @@
         <v>3|27|HR|Grodno (Hrodzenskaya voblasts')</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="6">
         <v>4</v>
       </c>
@@ -19347,7 +20668,7 @@
         <v>4|27|VI|Vitebsk (Vitsyebskaya voblasts')</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="6">
         <v>5</v>
       </c>
@@ -19365,7 +20686,7 @@
         <v>5|27|MA|Mogilev (Mahilyowskaya voblasts')</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="6">
         <v>6</v>
       </c>
@@ -19383,7 +20704,7 @@
         <v>6|27|HO|Gomel (Homyel'skaya voblasts')</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="6">
         <v>7</v>
       </c>
@@ -19401,12 +20722,12 @@
         <v>7|27|HM|Horad Minsk</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="F10" s="27" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="F11" s="27" t="s">
         <v>603</v>
       </c>

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1FF8F0-3025-4F83-96EC-243EA9FBB1D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B6C37-B9B3-46AD-B134-C53B5C5EBE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,12 @@
     <sheet name="pas_104" sheetId="62" r:id="rId20"/>
     <sheet name="pas_108" sheetId="63" r:id="rId21"/>
     <sheet name="pas_110" sheetId="64" r:id="rId22"/>
+    <sheet name="pas_112" sheetId="65" r:id="rId23"/>
+    <sheet name="pas_126" sheetId="66" r:id="rId24"/>
+    <sheet name="pas-130" sheetId="67" r:id="rId25"/>
+    <sheet name="pas_132" sheetId="68" r:id="rId26"/>
+    <sheet name="pas_137" sheetId="69" r:id="rId27"/>
+    <sheet name="pas_138" sheetId="70" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -325,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1121">
   <si>
     <t>t</t>
   </si>
@@ -1689,81 +1695,42 @@
     <t>itu_zone_id</t>
   </si>
   <si>
-    <t xml:space="preserve">NS </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Scotia </t>
   </si>
   <si>
-    <t xml:space="preserve">QC </t>
-  </si>
-  <si>
     <t xml:space="preserve">Québec </t>
   </si>
   <si>
-    <t xml:space="preserve">ON </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ontario </t>
   </si>
   <si>
-    <t xml:space="preserve">MB </t>
-  </si>
-  <si>
     <t xml:space="preserve">Manitoba </t>
   </si>
   <si>
-    <t xml:space="preserve">SK </t>
-  </si>
-  <si>
     <t xml:space="preserve">Saskatchewan </t>
   </si>
   <si>
-    <t xml:space="preserve">AB </t>
-  </si>
-  <si>
     <t xml:space="preserve">Alberta </t>
   </si>
   <si>
-    <t xml:space="preserve">BC </t>
-  </si>
-  <si>
     <t xml:space="preserve">British Columbia </t>
   </si>
   <si>
-    <t xml:space="preserve">NT </t>
-  </si>
-  <si>
     <t xml:space="preserve">Northwest Territories </t>
   </si>
   <si>
-    <t xml:space="preserve">NB </t>
-  </si>
-  <si>
     <t xml:space="preserve">New Brunswick </t>
   </si>
   <si>
-    <t xml:space="preserve">NL </t>
-  </si>
-  <si>
     <t xml:space="preserve">Newfoundland and Labrador </t>
   </si>
   <si>
-    <t xml:space="preserve">YT </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yukon </t>
   </si>
   <si>
-    <t xml:space="preserve">PE </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prince Edward Island </t>
   </si>
   <si>
-    <t xml:space="preserve">NU </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nunavut </t>
   </si>
   <si>
@@ -3397,6 +3364,336 @@
   </si>
   <si>
     <t>Master DXCC list</t>
+  </si>
+  <si>
+    <t>pas_112.csv</t>
+  </si>
+  <si>
+    <t>Chilie</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Region Metropolitana de Santiago</t>
+  </si>
+  <si>
+    <t>Libertador General Bernardo O'Higgins</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>Maule</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>Bío-Bío</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>La Araucanía</t>
+  </si>
+  <si>
+    <t>XIV</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>Aisén del General Carlos Ibáñez del Campo</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Kalingrad (Kaliningradskaya oblast)</t>
+  </si>
+  <si>
+    <t>pas_126.csv</t>
+  </si>
+  <si>
+    <t>Kalingrad</t>
+  </si>
+  <si>
+    <t>pas_112</t>
+  </si>
+  <si>
+    <t>pas_126</t>
+  </si>
+  <si>
+    <t>Akmolinsk</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Aktyubnsk</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>Almaty</t>
+  </si>
+  <si>
+    <t>Atyrau</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>East Kazakhstan</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>Zhambyl</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>West Kazakhstan</t>
+  </si>
+  <si>
+    <t>Karaganda</t>
+  </si>
+  <si>
+    <t>Kostanay</t>
+  </si>
+  <si>
+    <t>Kyzylorda</t>
+  </si>
+  <si>
+    <t>Mangystau</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Pavlodar</t>
+  </si>
+  <si>
+    <t>North Kazakhstan</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>South Kazakhstan</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Astana city</t>
+  </si>
+  <si>
+    <t>Almaty city</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>pas_130</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>pas_132.csv</t>
+  </si>
+  <si>
+    <t>Alto Paraguay</t>
+  </si>
+  <si>
+    <t>Boquerón</t>
+  </si>
+  <si>
+    <t>Presidente Hayes</t>
+  </si>
+  <si>
+    <t>Amambay</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Canindeyú</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>ASU</t>
+  </si>
+  <si>
+    <t>Asunción</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Cordillera</t>
+  </si>
+  <si>
+    <t>Paraguarí</t>
+  </si>
+  <si>
+    <t>Caazapl</t>
+  </si>
+  <si>
+    <t>Caeguazú</t>
+  </si>
+  <si>
+    <t>Guairá</t>
+  </si>
+  <si>
+    <t>Miaiones</t>
+  </si>
+  <si>
+    <t>Ñeembucu</t>
+  </si>
+  <si>
+    <t>Alto Paraná</t>
+  </si>
+  <si>
+    <t>Itapua</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>pas_137.csv</t>
+  </si>
+  <si>
+    <t>Choongchungbuk-do (North Chungcheong Province)</t>
+  </si>
+  <si>
+    <t>Chungcheongnam-do (South Chungcheong Province)</t>
+  </si>
+  <si>
+    <t>Gangwon-do</t>
+  </si>
+  <si>
+    <t>Gyeonggi-do</t>
+  </si>
+  <si>
+    <t>Gyeongsangbug-do (North Gyeongsang Province)</t>
+  </si>
+  <si>
+    <t>Gyeongsangnam-do (South Gyeongsang Province)</t>
+  </si>
+  <si>
+    <t>Jeju-do</t>
+  </si>
+  <si>
+    <t>Jeollabuk-do (North Jeolla Province)</t>
+  </si>
+  <si>
+    <t>Jeollanam-do (South Jeolla Province)</t>
+  </si>
+  <si>
+    <t>Busan Gwang'yeogsi (Pusan Metropolitan City)</t>
+  </si>
+  <si>
+    <t>Daegu Gwang'yeogsi (Taegu Metropolitan City)</t>
+  </si>
+  <si>
+    <t>Daejeon Gwang'yeogsi (Daejeon Metropolitan City)</t>
+  </si>
+  <si>
+    <t>Gwangju Gwang'yeogsi (Kwangju Metropolitan City)</t>
+  </si>
+  <si>
+    <t>Incheon Gwang'yeogsi (Inchon Metropolitan City)</t>
+  </si>
+  <si>
+    <t>Seoul Teugbyeolsi (Seoul Special City)</t>
+  </si>
+  <si>
+    <t>Ulsan Gwanq'yeogsi (Ulsan Metropolitan City)</t>
+  </si>
+  <si>
+    <t>pas_138</t>
+  </si>
+  <si>
+    <t>Kure Island</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>pas_132</t>
+  </si>
+  <si>
+    <t>pas_137</t>
   </si>
 </sst>
 </file>
@@ -3621,7 +3918,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3778,6 +4075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -4102,7 +4400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18460EF-30D2-4D9B-9C36-93BDE7059CF7}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -4113,7 +4411,7 @@
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -4133,13 +4431,13 @@
         <v>408</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>409</v>
@@ -4148,18 +4446,18 @@
         <v>410</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="30" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>A4&amp;".csv"</f>
@@ -4172,7 +4470,7 @@
         <v>449</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4180,13 +4478,13 @@
         <v>448</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D28" si="0">A5&amp;".csv"</f>
+        <f t="shared" ref="D5:D34" si="0">A5&amp;".csv"</f>
         <v>pas_summary.csv</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4201,10 +4499,10 @@
         <v>418</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4222,10 +4520,10 @@
         <v>450</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4240,7 +4538,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -4260,12 +4558,12 @@
         <v>407</v>
       </c>
       <c r="G8" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="59" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -4287,7 +4585,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="59" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -4309,7 +4607,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
@@ -4331,7 +4629,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -4353,7 +4651,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="B13" s="6">
         <v>15</v>
@@ -4373,12 +4671,12 @@
         <v>407</v>
       </c>
       <c r="G13" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="B14" s="6">
         <v>21</v>
@@ -4400,7 +4698,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="B15" s="6">
         <v>27</v>
@@ -4422,7 +4720,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="B16" s="6">
         <v>29</v>
@@ -4444,7 +4742,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="B17" s="6">
         <v>32</v>
@@ -4466,7 +4764,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="B18" s="6">
         <v>50</v>
@@ -4488,7 +4786,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="B19" s="6">
         <v>52</v>
@@ -4510,7 +4808,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="B20" s="6">
         <v>54</v>
@@ -4532,7 +4830,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="B21" s="6">
         <v>61</v>
@@ -4554,7 +4852,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="B22" s="6">
         <v>70</v>
@@ -4576,7 +4874,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="B23" s="6">
         <v>74</v>
@@ -4598,7 +4896,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="B24" s="6">
         <v>86</v>
@@ -4620,7 +4918,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="B25" s="6">
         <v>100</v>
@@ -4642,7 +4940,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B26" s="6">
         <v>104</v>
@@ -4664,7 +4962,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="B27" s="6">
         <v>108</v>
@@ -4686,7 +4984,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B28" s="6">
         <v>110</v>
@@ -4703,6 +5001,138 @@
         <v>407</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B29" s="6">
+        <v>112</v>
+      </c>
+      <c r="C29" t="str">
+        <f>dxcc!D110</f>
+        <v>CHILE</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_112.csv</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B30" s="6">
+        <v>126</v>
+      </c>
+      <c r="C30" t="str">
+        <f>dxcc!D123</f>
+        <v>KALININGRAD</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_126.csv</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B31" s="6">
+        <v>130</v>
+      </c>
+      <c r="C31" t="str">
+        <f>dxcc!D127</f>
+        <v>KAZAKHSTAN</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_130.csv</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B32" s="6">
+        <v>132</v>
+      </c>
+      <c r="C32" t="str">
+        <f>dxcc!D129</f>
+        <v>PARAGUAY</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_132.csv</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B33" s="6">
+        <v>137</v>
+      </c>
+      <c r="C33" t="str">
+        <f>dxcc!D134</f>
+        <v>REPUBLIC OF KOREA</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_137.csv</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B34" s="6">
+        <v>138</v>
+      </c>
+      <c r="C34" t="str">
+        <f>dxcc!D135</f>
+        <v>KURE I.</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_138.csv</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4737,7 +5167,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -4752,10 +5182,10 @@
         <v>29</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F3" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -4770,10 +5200,10 @@
         <v>29</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4782,12 +5212,12 @@
     </row>
     <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="F6" s="27" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -4821,7 +5251,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -4836,10 +5266,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E2" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="F2" s="53" t="str">
         <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -4854,10 +5284,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="E3" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="F3" s="53" t="str">
         <f>B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
@@ -4866,12 +5296,12 @@
     </row>
     <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="F6" s="27" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +5311,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD424B9A-B182-4206-AFF3-275410454359}">
-  <dimension ref="B1:Q36"/>
+  <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4905,7 +5335,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -4920,10 +5350,10 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E2" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="F2" s="53" t="str">
         <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -4938,10 +5368,10 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E3" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="F3" s="53" t="str">
         <f>B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
@@ -4956,10 +5386,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="E4" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" ref="F4:F33" si="0">B4&amp;"|"&amp;C4&amp;"|"&amp;D4&amp;"|"&amp;E4</f>
@@ -4974,10 +5404,10 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="E5" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4992,10 +5422,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="E6" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5010,10 +5440,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5028,10 +5458,10 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="E8" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5046,10 +5476,10 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="E9" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5064,10 +5494,10 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="E10" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5082,10 +5512,10 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="E11" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="F11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5100,10 +5530,10 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="E12" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F12" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5118,10 +5548,10 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="E13" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5136,10 +5566,10 @@
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="E14" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5154,10 +5584,10 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="E15" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5172,10 +5602,10 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="E16" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F16" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5190,10 +5620,10 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="E17" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F17" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5208,10 +5638,10 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="E18" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F18" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5226,10 +5656,10 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="E19" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F19" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5244,10 +5674,10 @@
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="E20" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F20" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5262,10 +5692,10 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="E21" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F21" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5280,10 +5710,10 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="E22" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5298,10 +5728,10 @@
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="E23" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F23" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5316,10 +5746,10 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="E24" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F24" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5334,10 +5764,10 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="E25" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F25" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5352,10 +5782,10 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="E26" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F26" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5370,10 +5800,10 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="E27" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F27" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5388,10 +5818,10 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="E28" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F28" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5406,10 +5836,10 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="E29" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F29" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5424,10 +5854,10 @@
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="E30" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F30" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5442,10 +5872,10 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="E31" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F31" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5460,10 +5890,10 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="E32" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F32" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5478,10 +5908,10 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="E33" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F33" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5490,12 +5920,12 @@
     </row>
     <row r="35" spans="2:6">
       <c r="F35" s="27" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="F36" s="27" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +5959,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -5547,7 +5977,7 @@
         <v>37</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="F2" s="53" t="str">
         <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -5565,7 +5995,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="F3" s="53" t="str">
         <f>B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
@@ -5583,7 +6013,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" ref="F4:F16" si="0">B4&amp;"|"&amp;C4&amp;"|"&amp;D4&amp;"|"&amp;E4</f>
@@ -5601,7 +6031,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5619,7 +6049,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5637,7 +6067,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5655,7 +6085,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5673,7 +6103,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5691,7 +6121,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5709,7 +6139,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5727,7 +6157,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="F12" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5745,7 +6175,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5763,7 +6193,7 @@
         <v>82</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="F14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5781,7 +6211,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="F15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5799,7 +6229,7 @@
         <v>86</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="F16" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5808,12 +6238,12 @@
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="27" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="27" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -5848,16 +6278,16 @@
         <v>405</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1&amp;"|"&amp;G1&amp;"|"&amp;H1</f>
@@ -5872,10 +6302,10 @@
         <v>54</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="F2" s="6">
         <v>169</v>
@@ -5899,10 +6329,10 @@
         <v>54</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="F3" s="6">
         <v>136</v>
@@ -5926,10 +6356,10 @@
         <v>54</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="F4" s="6">
         <v>88</v>
@@ -5953,10 +6383,10 @@
         <v>54</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F5" s="6">
         <v>113</v>
@@ -5980,10 +6410,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="F6" s="6">
         <v>114</v>
@@ -6007,10 +6437,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="F7" s="6">
         <v>120</v>
@@ -6034,10 +6464,10 @@
         <v>54</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="F8" s="6">
         <v>144</v>
@@ -6061,10 +6491,10 @@
         <v>54</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F9" s="6">
         <v>149</v>
@@ -6088,10 +6518,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="F10" s="6">
         <v>143</v>
@@ -6115,10 +6545,10 @@
         <v>54</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="F11" s="6">
         <v>170</v>
@@ -6142,10 +6572,10 @@
         <v>54</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="F12" s="6">
         <v>142</v>
@@ -6169,10 +6599,10 @@
         <v>54</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="F13" s="6">
         <v>147</v>
@@ -6196,10 +6626,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="F14" s="6">
         <v>137</v>
@@ -6223,10 +6653,10 @@
         <v>54</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="F15" s="6">
         <v>126</v>
@@ -6250,10 +6680,10 @@
         <v>54</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="F16" s="6">
         <v>155</v>
@@ -6277,10 +6707,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="F17" s="6">
         <v>168</v>
@@ -6304,10 +6734,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="F18" s="6">
         <v>132</v>
@@ -6331,10 +6761,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="F19" s="6">
         <v>160</v>
@@ -6358,10 +6788,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="F20" s="6">
         <v>121</v>
@@ -6385,10 +6815,10 @@
         <v>54</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="F21" s="6">
         <v>157</v>
@@ -6412,10 +6842,10 @@
         <v>54</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="F22" s="6">
         <v>151</v>
@@ -6439,10 +6869,10 @@
         <v>54</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="F23" s="6">
         <v>122</v>
@@ -6466,10 +6896,10 @@
         <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="F24" s="6">
         <v>123</v>
@@ -6493,10 +6923,10 @@
         <v>54</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="F25" s="6">
         <v>119</v>
@@ -6520,10 +6950,10 @@
         <v>54</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="F26" s="6">
         <v>135</v>
@@ -6547,10 +6977,10 @@
         <v>54</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F27" s="6">
         <v>127</v>
@@ -6574,10 +7004,10 @@
         <v>54</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="F28" s="6">
         <v>118</v>
@@ -6601,10 +7031,10 @@
         <v>54</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="F29" s="6">
         <v>117</v>
@@ -6628,10 +7058,10 @@
         <v>54</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F30" s="6">
         <v>156</v>
@@ -6655,10 +7085,10 @@
         <v>54</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F31" s="6">
         <v>152</v>
@@ -6682,10 +7112,10 @@
         <v>54</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F32" s="6">
         <v>148</v>
@@ -6709,10 +7139,10 @@
         <v>54</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F33" s="6">
         <v>133</v>
@@ -6736,10 +7166,10 @@
         <v>54</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F34" s="6">
         <v>164</v>
@@ -6763,10 +7193,10 @@
         <v>54</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F35" s="6">
         <v>131</v>
@@ -6790,10 +7220,10 @@
         <v>54</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="F36" s="6">
         <v>94</v>
@@ -6817,10 +7247,10 @@
         <v>54</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="F37" s="6">
         <v>91</v>
@@ -6844,10 +7274,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="F38" s="6">
         <v>92</v>
@@ -6871,10 +7301,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="F39" s="6">
         <v>95</v>
@@ -6898,10 +7328,10 @@
         <v>54</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="F40" s="6">
         <v>97</v>
@@ -6925,10 +7355,10 @@
         <v>54</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F41" s="6">
         <v>101</v>
@@ -6952,10 +7382,10 @@
         <v>54</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="F42" s="6">
         <v>109</v>
@@ -6979,10 +7409,10 @@
         <v>54</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="F43" s="6">
         <v>108</v>
@@ -7006,10 +7436,10 @@
         <v>54</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F44" s="6">
         <v>89</v>
@@ -7033,10 +7463,10 @@
         <v>54</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F45" s="6">
         <v>93</v>
@@ -7060,10 +7490,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="F46" s="6">
         <v>150</v>
@@ -7087,10 +7517,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="F47" s="6">
         <v>96</v>
@@ -7114,10 +7544,10 @@
         <v>54</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="F48" s="6">
         <v>96</v>
@@ -7141,10 +7571,10 @@
         <v>54</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="F49" s="6">
         <v>115</v>
@@ -7168,10 +7598,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="F50" s="6">
         <v>86</v>
@@ -7195,10 +7625,10 @@
         <v>54</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F51" s="6">
         <v>87</v>
@@ -7222,10 +7652,10 @@
         <v>54</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="F52" s="6">
         <v>102</v>
@@ -7243,12 +7673,12 @@
     </row>
     <row r="54" spans="2:9">
       <c r="I54" s="27" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="I55" s="27" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -7283,10 +7713,10 @@
         <v>405</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="G1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1</f>
@@ -7301,10 +7731,10 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -7322,10 +7752,10 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="E3" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -7337,12 +7767,12 @@
     </row>
     <row r="5" spans="2:7">
       <c r="G5" s="27" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="G6" s="27" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -7377,7 +7807,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -7395,7 +7825,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F16" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -7413,7 +7843,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7431,7 +7861,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7449,7 +7879,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7467,7 +7897,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7485,7 +7915,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7503,7 +7933,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7521,7 +7951,7 @@
         <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7539,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7557,7 +7987,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="F11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7575,7 +8005,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="F12" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7593,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="F13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7611,7 +8041,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="F14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7629,7 +8059,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="F15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7647,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="F16" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7656,12 +8086,12 @@
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="27" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="27" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -7695,7 +8125,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -7710,10 +8140,10 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="E2" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F15" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -7728,10 +8158,10 @@
         <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="E3" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7746,10 +8176,10 @@
         <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="E4" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7764,10 +8194,10 @@
         <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="E5" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7782,10 +8212,10 @@
         <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="E6" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7800,10 +8230,10 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="E7" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7818,10 +8248,10 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="E8" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7836,10 +8266,10 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="E9" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7854,10 +8284,10 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="E10" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7872,10 +8302,10 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="E11" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="F11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7890,10 +8320,10 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E12" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F12" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7908,10 +8338,10 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="E13" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="F13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7926,10 +8356,10 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E14" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="F14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7944,10 +8374,10 @@
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="E15" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="F15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -7956,12 +8386,12 @@
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="27" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="27" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -7995,7 +8425,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -8010,10 +8440,10 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="E2" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F18" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -8028,10 +8458,10 @@
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="E3" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8046,10 +8476,10 @@
         <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E4" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8064,10 +8494,10 @@
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="E5" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8082,10 +8512,10 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="E6" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8100,10 +8530,10 @@
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="E7" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8118,10 +8548,10 @@
         <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E8" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8136,10 +8566,10 @@
         <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E9" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8154,10 +8584,10 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="E10" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8172,10 +8602,10 @@
         <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E11" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="F11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8190,10 +8620,10 @@
         <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="E12" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="F12" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8208,10 +8638,10 @@
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="E13" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="F13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8226,10 +8656,10 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E14" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="F14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8244,10 +8674,10 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="E15" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="F15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8262,10 +8692,10 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E16" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="F16" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8280,10 +8710,10 @@
         <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="E17" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="F17" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8298,10 +8728,10 @@
         <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="E18" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="F18" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8310,12 +8740,12 @@
     </row>
     <row r="20" spans="2:6">
       <c r="F20" s="27" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="F21" s="27" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -8349,7 +8779,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -8364,10 +8794,10 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="E2" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F25" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -8382,10 +8812,10 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="E3" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8400,10 +8830,10 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="E4" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8418,10 +8848,10 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="E5" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8436,10 +8866,10 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E6" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8454,10 +8884,10 @@
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="E7" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8472,10 +8902,10 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="E8" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8490,10 +8920,10 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="E9" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8508,10 +8938,10 @@
         <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="E10" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8526,10 +8956,10 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="E11" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="F11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8544,10 +8974,10 @@
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="E12" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="F12" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8562,10 +8992,10 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="E13" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="F13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8580,10 +9010,10 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="E14" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="F14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8598,10 +9028,10 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="E15" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="F15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8616,10 +9046,10 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="E16" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="F16" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8634,10 +9064,10 @@
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="E17" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F17" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8652,10 +9082,10 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="E18" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="F18" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8673,7 +9103,7 @@
         <v>407</v>
       </c>
       <c r="E19" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="F19" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8688,10 +9118,10 @@
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="E20" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F20" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8706,10 +9136,10 @@
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E21" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="F21" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8724,10 +9154,10 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="E22" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="F22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8742,10 +9172,10 @@
         <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="E23" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="F23" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8760,10 +9190,10 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="E24" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="F24" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8778,10 +9208,10 @@
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="E25" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="F25" s="53" t="str">
         <f t="shared" si="0"/>
@@ -8790,12 +9220,12 @@
     </row>
     <row r="27" spans="2:6">
       <c r="F27" s="27" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="F28" s="27" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -8808,7 +9238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:F407"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16095,12 +16527,12 @@
     </row>
     <row r="406" spans="2:6">
       <c r="F406" s="56" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="407" spans="2:6">
       <c r="F407" s="56" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -16135,7 +16567,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -16150,10 +16582,10 @@
         <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="E2" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F10" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -16168,10 +16600,10 @@
         <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="E3" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16186,10 +16618,10 @@
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="E4" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16204,10 +16636,10 @@
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="E5" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16222,10 +16654,10 @@
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="E6" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16240,10 +16672,10 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="E7" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16258,10 +16690,10 @@
         <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E8" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16276,10 +16708,10 @@
         <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="E9" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16294,10 +16726,10 @@
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="E10" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16306,12 +16738,12 @@
     </row>
     <row r="12" spans="2:6">
       <c r="F12" s="27" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="F13" s="27" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -16345,7 +16777,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -16360,10 +16792,10 @@
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="E2" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F28" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -16378,10 +16810,10 @@
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="E3" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16396,10 +16828,10 @@
         <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="E4" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16414,10 +16846,10 @@
         <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="E5" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16432,10 +16864,10 @@
         <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E6" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16450,10 +16882,10 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E7" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16468,10 +16900,10 @@
         <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16486,10 +16918,10 @@
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="E9" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16504,10 +16936,10 @@
         <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="E10" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="F10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16522,10 +16954,10 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E11" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16540,10 +16972,10 @@
         <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="E12" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="F12" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16558,10 +16990,10 @@
         <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="E13" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="F13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16576,10 +17008,10 @@
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E14" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16594,10 +17026,10 @@
         <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E15" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16612,10 +17044,10 @@
         <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="E16" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="F16" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16630,10 +17062,10 @@
         <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="E17" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="F17" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16648,10 +17080,10 @@
         <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="E18" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="F18" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16666,10 +17098,10 @@
         <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="E19" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="F19" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16684,10 +17116,10 @@
         <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="E20" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="F20" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16702,10 +17134,10 @@
         <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="E21" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F21" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16720,10 +17152,10 @@
         <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="E22" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="F22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16738,10 +17170,10 @@
         <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E23" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="F23" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16756,10 +17188,10 @@
         <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="E24" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="F24" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16774,10 +17206,10 @@
         <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E25" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="F25" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16792,10 +17224,10 @@
         <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="E26" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="F26" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16810,10 +17242,10 @@
         <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="E27" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F27" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16828,10 +17260,10 @@
         <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="E28" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="F28" s="53" t="str">
         <f t="shared" si="0"/>
@@ -16840,12 +17272,12 @@
     </row>
     <row r="30" spans="2:6">
       <c r="F30" s="27" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="F31" s="27" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -16879,7 +17311,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -16894,10 +17326,10 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="E2" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F2" s="53" t="str">
         <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -16906,12 +17338,1578 @@
     </row>
     <row r="4" spans="2:6">
       <c r="F4" s="27" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
-        <v>999</v>
+        <v>986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAC77C1-145B-4E8C-9575-6B3C46492388}">
+  <dimension ref="B1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>112</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f t="shared" ref="F2:F16" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|112|II|Antofagasta</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>112</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|112|III|Atacama</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>112</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|112|I|Tarapacá</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>112</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|112|XV|Arica y Parinacota</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>112</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|112|IV|Coquimbo</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>112</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|112|V|Valparaíso</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>112</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|112|RM|Region Metropolitana de Santiago</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>112</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|112|VI|Libertador General Bernardo O'Higgins</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>112</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|112|VII|Maule</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|112|VIII|Bío-Bío</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>112</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|112|IX|La Araucanía</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>112</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|112|XIV|Los Ríos</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>112</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|112|X|Los Lagos</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>112</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|112|XI|Aisén del General Carlos Ibáñez del Campo</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>112</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|112|XII|Magallanes</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="27" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="27" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B6E7C4-AE50-4AF0-BC93-287F6C419BA3}">
+  <dimension ref="B1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="60.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1&amp;"|"&amp;G1&amp;"|"&amp;H1</f>
+        <v>id|dxcc_id|code|subdivision|oblast|cq_zone|itu_zone</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F2" s="6">
+        <v>125</v>
+      </c>
+      <c r="G2" s="6">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6">
+        <v>29</v>
+      </c>
+      <c r="I2" s="53" t="str">
+        <f t="shared" ref="I2" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;G2&amp;"|"&amp;H2</f>
+        <v>1|126|KA|Kalingrad (Kaliningradskaya oblast)|125|15|29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="I4" s="27" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="I5" s="27" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAEE967-FA85-42E6-B2F7-66529A38CCD5}">
+  <dimension ref="B1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="60.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="G1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1</f>
+        <v>id|dxcc_id|code|subdivision|oblast</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
+        <v>1|130|AK|Akmolinsk|1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="53" t="str">
+        <f t="shared" ref="G3:G17" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3&amp;"|"&amp;F3</f>
+        <v>2|130|AT|Aktyubnsk|2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|130|AY|Almaty|3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|130|AR|Atyrau|4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|130|SG|East Kazakhstan|5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|130|ZM|Zhambyl|6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7</v>
+      </c>
+      <c r="G8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|130|BY|West Kazakhstan|7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>756</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|130|KG|Karaganda|8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9</v>
+      </c>
+      <c r="G10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|130|KT|Kostanay|9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10</v>
+      </c>
+      <c r="G11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|130|KO|Kyzylorda|10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>862</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F12" s="6">
+        <v>11</v>
+      </c>
+      <c r="G12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|130|MN|Mangystau|11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>130</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F13" s="6">
+        <v>12</v>
+      </c>
+      <c r="G13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|130|PV|Pavlodar|12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F14" s="6">
+        <v>13</v>
+      </c>
+      <c r="G14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|130|SL|North Kazakhstan|13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F15" s="6">
+        <v>14</v>
+      </c>
+      <c r="G15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|130|ON|South Kazakhstan|14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F16" s="6">
+        <v>15</v>
+      </c>
+      <c r="G16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|130|AA|Astana city|15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F17" s="6">
+        <v>16</v>
+      </c>
+      <c r="G17" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>16|130|AL|Almaty city|16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="G19" s="27" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="G20" s="27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F05D1D-40FF-4C36-A1C9-7E557AF3F82D}">
+  <dimension ref="B1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="66" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f t="shared" ref="F2:F19" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|132|16|Alto Paraguay</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|132|19|Boquerón</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|132|15|Presidente Hayes</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|132|13|Amambay</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>132</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|132|1|Concepción</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|132|14|Canindeyú</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>132</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|132|2|San Pedro</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>132</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|132|ASU|Asunción</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|132|11|Central</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|132|3|Cordillera</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|132|9|Paraguarí</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>132</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|132|6|Caazapl</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>132</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|132|5|Caeguazú</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>132</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|132|4|Guairá</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>132</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|132|8|Miaiones</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F17" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>16|132|12|Ñeembucu</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>132</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F18" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>17|132|10|Alto Paraná</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>132</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F19" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>18|132|7|Itapua</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="F21" s="27" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="F22" s="27" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50C5EE1-9D72-4BE8-A814-7B450F4DDDF5}">
+  <dimension ref="B1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="66" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f t="shared" ref="F2:F17" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|132|B|Busan Gwang'yeogsi (Pusan Metropolitan City)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>900</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|132|E|Choongchungbuk-do (North Chungcheong Province)</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>918</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|132|F|Chungcheongnam-do (South Chungcheong Province)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|132|P|Daegu Gwang'yeogsi (Taegu Metropolitan City)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|132|R|Daejeon Gwang'yeogsi (Daejeon Metropolitan City)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>914</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|132|D|Gangwon-do</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|132|Q|Gwangju Gwang'yeogsi (Kwangju Metropolitan City)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>886</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|132|C|Gyeonggi-do</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>916</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|132|K|Gyeongsangbug-do (North Gyeongsang Province)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>921</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|132|L|Gyeongsangnam-do (South Gyeongsang Province)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>898</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|132|N|Incheon Gwang'yeogsi (Inchon Metropolitan City)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>906</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|132|M|Jeju-do</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>908</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|132|G|Jeollabuk-do (North Jeolla Province)</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>892</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|132|H|Jeollanam-do (South Jeolla Province)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>910</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|132|A|Seoul Teugbyeolsi (Seoul Special City)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>890</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F17" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>16|132|S|Ulsan Gwanq'yeogsi (Ulsan Metropolitan City)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="F19" s="27" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="F20" s="27" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131CC8B3-2E71-4C6C-96C4-D49712FBC4F8}">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|138|KI|Kure Island</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="F4" s="27" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="F5" s="27" t="s">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -17203,7 +19201,7 @@
         <v>5|COUNTY</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -17993,7 +19991,7 @@
         <v>424</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -19085,7 +21083,7 @@
     </row>
     <row r="71" spans="2:9">
       <c r="H71" s="29" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -19124,7 +21122,7 @@
         <v>405</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1</f>
@@ -19162,14 +21160,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" t="s">
         <v>454</v>
-      </c>
-      <c r="D2" t="s">
-        <v>455</v>
       </c>
       <c r="E2" s="53" t="str">
         <f t="shared" ref="E2:E14" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2</f>
-        <v xml:space="preserve">1|NS |Nova Scotia </v>
+        <v xml:space="preserve">1|NS|Nova Scotia </v>
       </c>
       <c r="G2" s="25">
         <v>1</v>
@@ -19203,14 +21201,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>1112</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">2|QC |Québec </v>
+        <v xml:space="preserve">2|QC|Québec </v>
       </c>
       <c r="G3" s="25">
         <v>2</v>
@@ -19244,14 +21242,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>1064</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E4" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">3|ON |Ontario </v>
+        <v xml:space="preserve">3|ON|Ontario </v>
       </c>
       <c r="G4" s="25">
         <v>3</v>
@@ -19285,14 +21283,14 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>1113</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E5" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">4|MB |Manitoba </v>
+        <v xml:space="preserve">4|MB|Manitoba </v>
       </c>
       <c r="G5" s="25">
         <v>4</v>
@@ -19326,14 +21324,14 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>1114</v>
       </c>
       <c r="D6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E6" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">5|SK |Saskatchewan </v>
+        <v xml:space="preserve">5|SK|Saskatchewan </v>
       </c>
       <c r="G6" s="25">
         <v>5</v>
@@ -19367,14 +21365,14 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E7" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">6|AB |Alberta </v>
+        <v xml:space="preserve">6|AB|Alberta </v>
       </c>
       <c r="G7" s="25">
         <v>6</v>
@@ -19408,14 +21406,14 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>651</v>
       </c>
       <c r="D8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E8" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">7|BC |British Columbia </v>
+        <v xml:space="preserve">7|BC|British Columbia </v>
       </c>
       <c r="G8" s="25">
         <v>7</v>
@@ -19449,14 +21447,14 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>1115</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E9" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">8|NT |Northwest Territories </v>
+        <v xml:space="preserve">8|NT|Northwest Territories </v>
       </c>
       <c r="G9" s="25">
         <v>8</v>
@@ -19490,14 +21488,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>1116</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E10" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">9|NB |New Brunswick </v>
+        <v xml:space="preserve">9|NB|New Brunswick </v>
       </c>
       <c r="G10" s="25">
         <v>9</v>
@@ -19531,14 +21529,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>661</v>
       </c>
       <c r="D11" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="E11" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">10|NL |Newfoundland and Labrador </v>
+        <v xml:space="preserve">10|NL|Newfoundland and Labrador </v>
       </c>
       <c r="G11" s="25">
         <v>10</v>
@@ -19572,14 +21570,14 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>1117</v>
       </c>
       <c r="D12" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="E12" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">11|YT |Yukon </v>
+        <v xml:space="preserve">11|YT|Yukon </v>
       </c>
       <c r="G12" s="25">
         <v>11</v>
@@ -19613,14 +21611,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>765</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E13" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">12|PE |Prince Edward Island </v>
+        <v xml:space="preserve">12|PE|Prince Edward Island </v>
       </c>
       <c r="G13" s="25">
         <v>12</v>
@@ -19654,14 +21652,14 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>1118</v>
       </c>
       <c r="D14" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E14" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">13|NU |Nunavut </v>
+        <v xml:space="preserve">13|NU|Nunavut </v>
       </c>
       <c r="G14" s="25">
         <v>13</v>
@@ -19855,26 +21853,26 @@
       <c r="A22" s="63"/>
       <c r="C22" s="63"/>
       <c r="E22" s="56" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="56" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="28" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="E23" s="56" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -19922,7 +21920,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>406</v>
@@ -19943,7 +21941,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F2" s="35">
         <v>0</v>
@@ -19964,7 +21962,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F3" s="35">
         <v>0</v>
@@ -19985,7 +21983,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F4" s="35">
         <v>0</v>
@@ -20006,7 +22004,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F5" s="35">
         <v>0</v>
@@ -20027,7 +22025,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="F6" s="35">
         <v>0</v>
@@ -20048,7 +22046,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F7" s="35">
         <v>0</v>
@@ -20069,7 +22067,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="F8" s="35">
         <v>0</v>
@@ -20090,7 +22088,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F9" s="35">
         <v>0</v>
@@ -20111,7 +22109,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="F10" s="35">
         <v>0</v>
@@ -20132,7 +22130,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F11" s="35">
         <v>0</v>
@@ -20153,7 +22151,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F12" s="35">
         <v>0</v>
@@ -20174,7 +22172,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F13" s="35">
         <v>0</v>
@@ -20195,7 +22193,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="F14" s="35">
         <v>0</v>
@@ -20216,7 +22214,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F15" s="35">
         <v>0</v>
@@ -20237,7 +22235,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F16" s="35">
         <v>0</v>
@@ -20258,7 +22256,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F17" s="35">
         <v>0</v>
@@ -20279,7 +22277,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F18" s="35">
         <v>1</v>
@@ -20299,12 +22297,12 @@
     </row>
     <row r="20" spans="2:7">
       <c r="G20" s="56" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="G21" s="56" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -20338,7 +22336,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -20353,10 +22351,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -20372,12 +22370,12 @@
     </row>
     <row r="4" spans="2:6">
       <c r="F4" s="56" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="F5" s="56" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -20389,7 +22387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E94F41-E17E-4B9C-9C63-31535A794C71}">
   <dimension ref="B1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20421,16 +22419,16 @@
         <v>405</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1&amp;"|"&amp;G1&amp;"|"&amp;H1</f>
@@ -20440,7 +22438,7 @@
         <v>403</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>452</v>
@@ -20454,7 +22452,7 @@
         <v>403</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="R1" s="23" t="s">
         <v>453</v>
@@ -20472,10 +22470,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="F2" s="35">
         <v>174</v>
@@ -20526,10 +22524,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F3" s="35">
         <v>175</v>
@@ -20580,10 +22578,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="F4" s="35">
         <v>165</v>
@@ -20632,10 +22630,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="F5" s="35">
         <v>154</v>
@@ -20684,10 +22682,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="F6" s="35">
         <v>140</v>
@@ -20738,10 +22736,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F7" s="35">
         <v>140</v>
@@ -20792,10 +22790,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F8" s="35">
         <v>141</v>
@@ -20846,10 +22844,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F9" s="35">
         <v>158</v>
@@ -20898,10 +22896,10 @@
         <v>15</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F10" s="35">
         <v>162</v>
@@ -20950,10 +22948,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F11" s="35">
         <v>163</v>
@@ -21002,10 +23000,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F12" s="35">
         <v>161</v>
@@ -21054,10 +23052,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F13" s="35">
         <v>146</v>
@@ -21106,10 +23104,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="F14" s="35">
         <v>145</v>
@@ -21158,10 +23156,10 @@
         <v>15</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="F15" s="35">
         <v>134</v>
@@ -21210,10 +23208,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="F16" s="35">
         <v>167</v>
@@ -21262,10 +23260,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="F17" s="35">
         <v>130</v>
@@ -21314,10 +23312,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="F18" s="35">
         <v>84</v>
@@ -21366,10 +23364,10 @@
         <v>15</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F19" s="35">
         <v>90</v>
@@ -21418,10 +23416,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="F20" s="35">
         <v>99</v>
@@ -21470,10 +23468,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="F21" s="35">
         <v>100</v>
@@ -21522,10 +23520,10 @@
         <v>15</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F22" s="35">
         <v>103</v>
@@ -21574,10 +23572,10 @@
         <v>15</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="F23" s="35">
         <v>105</v>
@@ -21628,10 +23626,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F24" s="35">
         <v>110</v>
@@ -21680,10 +23678,10 @@
         <v>15</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F25" s="35">
         <v>111</v>
@@ -21732,10 +23730,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F26" s="35">
         <v>153</v>
@@ -21784,10 +23782,10 @@
         <v>15</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F27" s="35">
         <v>106</v>
@@ -21838,10 +23836,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="F28" s="35">
         <v>138</v>
@@ -21890,10 +23888,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F29" s="35">
         <v>112</v>
@@ -21942,10 +23940,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F30" s="35">
         <v>139</v>
@@ -21994,10 +23992,10 @@
         <v>15</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="F31" s="35">
         <v>107</v>
@@ -22046,10 +24044,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="F32" s="35">
         <v>85</v>
@@ -22098,10 +24096,10 @@
         <v>15</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="F33" s="35">
         <v>98</v>
@@ -22150,10 +24148,10 @@
         <v>15</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F34" s="35">
         <v>124</v>
@@ -22202,10 +24200,10 @@
         <v>15</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="F35" s="35">
         <v>166</v>
@@ -22214,7 +24212,7 @@
         <v>39508</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="I35" s="53" t="str">
         <f t="shared" si="2"/>
@@ -22258,10 +24256,10 @@
         <v>15</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F36" s="35">
         <v>104</v>
@@ -22310,10 +24308,10 @@
         <v>15</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="F37" s="35">
         <v>129</v>
@@ -22364,10 +24362,10 @@
         <v>15</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F38" s="35">
         <v>159</v>
@@ -22416,10 +24414,10 @@
         <v>15</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F39" s="35">
         <v>128</v>
@@ -22493,26 +24491,26 @@
     </row>
     <row r="42" spans="2:19">
       <c r="I42" s="56" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="49"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
       <c r="N42" s="56" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="O42" s="57"/>
       <c r="P42" s="57"/>
       <c r="Q42" s="57"/>
       <c r="R42" s="48"/>
       <c r="S42" s="56" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="2:19">
       <c r="I43" s="56" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="L43" s="6"/>
     </row>
@@ -22552,7 +24550,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -22567,10 +24565,10 @@
         <v>21</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="F2" s="53" t="str">
         <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -22579,12 +24577,12 @@
     </row>
     <row r="4" spans="2:6">
       <c r="F4" s="27" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -22619,7 +24617,7 @@
         <v>405</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F1" s="38" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
@@ -22634,10 +24632,10 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E2" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="F2" s="53" t="str">
         <f t="shared" ref="F2:F8" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
@@ -22652,10 +24650,10 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E3" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="F3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -22670,10 +24668,10 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="F4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -22688,10 +24686,10 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="E5" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="F5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -22706,10 +24704,10 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E6" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="F6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -22724,10 +24722,10 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="E7" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="F7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -22742,10 +24740,10 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E8" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="F8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -22754,12 +24752,12 @@
     </row>
     <row r="10" spans="2:6">
       <c r="F10" s="27" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="F11" s="27" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B6C37-B9B3-46AD-B134-C53B5C5EBE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604E962A-F6A0-48DD-9C5B-FFABC3CAC5DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,6 +41,12 @@
     <sheet name="pas_132" sheetId="68" r:id="rId26"/>
     <sheet name="pas_137" sheetId="69" r:id="rId27"/>
     <sheet name="pas_138" sheetId="70" r:id="rId28"/>
+    <sheet name="pas_144" sheetId="71" r:id="rId29"/>
+    <sheet name="pas_147" sheetId="72" r:id="rId30"/>
+    <sheet name="pas_148" sheetId="73" r:id="rId31"/>
+    <sheet name="psa_149" sheetId="74" r:id="rId32"/>
+    <sheet name="pas_150" sheetId="75" r:id="rId33"/>
+    <sheet name="pas_151" sheetId="76" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -331,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="1213">
   <si>
     <t>t</t>
   </si>
@@ -3694,6 +3700,282 @@
   </si>
   <si>
     <t>pas_137</t>
+  </si>
+  <si>
+    <t>psa_144</t>
+  </si>
+  <si>
+    <t>Uraguay</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Canelones</t>
+  </si>
+  <si>
+    <t>San José</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Soriano</t>
+  </si>
+  <si>
+    <t>Rio Negro</t>
+  </si>
+  <si>
+    <t>Paysandu</t>
+  </si>
+  <si>
+    <t>Salto</t>
+  </si>
+  <si>
+    <t>Artigsa</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Durazno</t>
+  </si>
+  <si>
+    <t>Tacuarembo</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Lavalleja</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Treinta y Tres</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
+    <t>Lord Howe Is</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>psa_147</t>
+  </si>
+  <si>
+    <t>pas_148</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Anzoátegui</t>
+  </si>
+  <si>
+    <t>Apure</t>
+  </si>
+  <si>
+    <t>Aragua</t>
+  </si>
+  <si>
+    <t>Barinas</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Carabobo</t>
+  </si>
+  <si>
+    <t>Cojedes</t>
+  </si>
+  <si>
+    <t>Delta Amacuro</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Distrito Capital</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Falcón</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Guárico</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Mérida</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Monagas</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nueva Esparta</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Táchira</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Yaracuy</t>
+  </si>
+  <si>
+    <t>ZU</t>
+  </si>
+  <si>
+    <t>Zulia</t>
+  </si>
+  <si>
+    <t>Açores</t>
+  </si>
+  <si>
+    <t>psa_149</t>
+  </si>
+  <si>
+    <t>Azores</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>Queensland</t>
+  </si>
+  <si>
+    <t>South Australia</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>TAS</t>
+  </si>
+  <si>
+    <t>Tasmania</t>
+  </si>
+  <si>
+    <t>Northern Territory</t>
+  </si>
+  <si>
+    <t>pas_150</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Malyj Vysotskij</t>
+  </si>
+  <si>
+    <t>pas_151</t>
+  </si>
+  <si>
+    <t>Leningradskaya Oblast</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>pas_144</t>
+  </si>
+  <si>
+    <t>pas_147</t>
+  </si>
+  <si>
+    <t>pas_149</t>
   </si>
 </sst>
 </file>
@@ -4400,11 +4682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18460EF-30D2-4D9B-9C36-93BDE7059CF7}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4484,7 +4766,7 @@
         <v>999</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D34" si="0">A5&amp;".csv"</f>
+        <f t="shared" ref="D5:D40" si="0">A5&amp;".csv"</f>
         <v>pas_summary.csv</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -5133,6 +5415,138 @@
         <v>407</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B35" s="6">
+        <v>144</v>
+      </c>
+      <c r="C35" t="str">
+        <f>dxcc!D141</f>
+        <v>URUGUAY</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_144.csv</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B36" s="6">
+        <v>147</v>
+      </c>
+      <c r="C36" t="str">
+        <f>dxcc!D144</f>
+        <v>LORD HOWE I.</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_147.csv</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B37" s="6">
+        <v>148</v>
+      </c>
+      <c r="C37" t="str">
+        <f>dxcc!D145</f>
+        <v>VENEZUELA</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_148.csv</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B38" s="6">
+        <v>149</v>
+      </c>
+      <c r="C38" t="str">
+        <f>dxcc!D146</f>
+        <v>AZORES</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_149.csv</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B39" s="6">
+        <v>150</v>
+      </c>
+      <c r="C39" t="str">
+        <f>dxcc!D147</f>
+        <v>AUSTRALIA</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_150.csv</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B40" s="6">
+        <v>151</v>
+      </c>
+      <c r="C40" t="str">
+        <f>dxcc!D148</f>
+        <v>MALYJ VYSOTSKIJ I.</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_151.csv</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9238,7 +9652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:F407"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
@@ -18910,6 +19324,396 @@
     <row r="5" spans="2:6">
       <c r="F5" s="27" t="s">
         <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5435EA7-D4D3-4F6C-86F1-F7F3B1FE49E2}">
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|144|MO|Montevideo</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" ref="F3:F20" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|144|CA|Canelones</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|144|SJ|San José</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|144|CO|Colonia</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|144|SO|Soriano</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>960</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|144|RN|Rio Negro</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>836</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|144|PA|Paysandu</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>763</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|144|SA|Salto</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>713</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|144|AR|Artigsa</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|144|FD|Florida</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|144|FS|Flores</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|144|DU|Durazno</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>773</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|144|TA|Tacuarembo</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|144|RV|Rivera</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>584</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|144|MA|Maldonado</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F17" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>16|144|LA|Lavalleja</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>793</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F18" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>17|144|RO|Rocha</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F19" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>18|144|TT|Treinta y Tres</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F20" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>19|144|CL|Cerro Largo</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="F22" s="27" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="F23" s="27" t="s">
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -21092,6 +21896,910 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FBD1D9-41E6-4978-B2AA-7161DE7D810C}">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|147|LH|Lord Howe Is</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="F4" s="27" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="F5" s="27" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07F0F4C-5AB4-4B3B-9AF7-47A24C3F2944}">
+  <dimension ref="B1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|148|AM|Amazonas</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>867</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" ref="F3:F25" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|148|AN|Anzoátegui</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>955</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|148|AP|Apure</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|148|AR|Aragua</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|148|BA|Barinas</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|148|BO|Bolívar</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|148|CA|Carabobo</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>857</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|148|CO|Cojedes</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>801</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F10" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>9|148|DA|Delta Amacuro</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F11" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>10|148|DC|Distrito Capital</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F12" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>11|148|FA|Falcón</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F13" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>12|148|GU|Guárico</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F14" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>13|148|LA|Lara</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F15" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>14|148|ME|Mérida</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>576</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F16" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>15|148|MI|Miranda</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>726</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F17" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>16|148|MO|Monagas</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F18" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>17|148|NE|Nueva Esparta</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F19" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>18|148|PO|Portuguesa</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F20" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>19|148|SU|Sucre</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>773</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F21" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>20|148|TA|Táchira</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F22" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>21|148|TR|Trujillo</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F23" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>22|148|VA|Vargas</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>546</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F24" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>23|148|YA|Yaracuy</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F25" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>24|148|ZU|Zulia</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" s="27" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="F28" s="27" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AA3F61-6D96-4B5F-9E29-C0CDEC3516E0}">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|149|AC|Açores</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="F4" s="27" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="F5" s="27" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DE1505-C995-40A0-AA43-2159905522A5}">
+  <dimension ref="B1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F2" s="53" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|150|ACT|Australian Capital Territory</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F3" s="53" t="str">
+        <f t="shared" ref="F3:F9" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|150|NSW|New South Wales</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F4" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>3|150|VIC|Victoria</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F5" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>4|150|QLD|Queensland</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F6" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>5|150|SA|South Australia</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>6|150|WA|Western Australia</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>7|150|TAS|Tasmania</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>8|150|NT|Northern Territory</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="F11" s="27" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="F12" s="27" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55B70E8-290D-4974-8E98-B7FE1D89148E}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" s="38" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1</f>
+        <v>id|dxcc_id|code|subdivision|import_only</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="53" t="str">
+        <f t="shared" ref="G2:G3" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2</f>
+        <v>1|151|LO|Leningradskaya Oblast|0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>2|151|MV|Malyj Vysotskij|1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="G5" s="27" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="G6" s="27" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6FCF9E-88D0-4190-A2F7-F0642BE1327B}">
   <dimension ref="A1:O25"/>

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB930B2-D99A-4E28-8F1C-1019EB26D412}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C325F-1E1A-49AC-A2A6-CB3353CCF4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" firstSheet="32" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENUM-LIST" sheetId="37" r:id="rId1"/>
@@ -59,6 +59,11 @@
     <sheet name="pas_214" sheetId="86" r:id="rId44"/>
     <sheet name="pas_221" sheetId="87" r:id="rId45"/>
     <sheet name="pas_224" sheetId="88" r:id="rId46"/>
+    <sheet name="pas_225" sheetId="89" r:id="rId47"/>
+    <sheet name="pas_227_x0009_" sheetId="90" r:id="rId48"/>
+    <sheet name="pas_230" sheetId="91" r:id="rId49"/>
+    <sheet name="pas_239" sheetId="93" r:id="rId50"/>
+    <sheet name="psa_245" sheetId="94" r:id="rId51"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -349,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="2115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="2355">
   <si>
     <t>t</t>
   </si>
@@ -6694,6 +6699,726 @@
   </si>
   <si>
     <t>pas_224_subdivision</t>
+  </si>
+  <si>
+    <t>pas_225_region.csv</t>
+  </si>
+  <si>
+    <t>Sardinia</t>
+  </si>
+  <si>
+    <t>pas_225_subdivision.csv</t>
+  </si>
+  <si>
+    <t>Sardinia (Sardegna)</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Carbonia-Iglesias</t>
+  </si>
+  <si>
+    <t>Nuoro</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>Ogliastra</t>
+  </si>
+  <si>
+    <t>Oristano</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Olbia-Tempio</t>
+  </si>
+  <si>
+    <t>Sassari</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>MedioCampidano</t>
+  </si>
+  <si>
+    <t>Medio Campidano</t>
+  </si>
+  <si>
+    <t>CREATE TABLE adif.pas_225_subdivision</t>
+  </si>
+  <si>
+    <t>pas_225_region_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t>code CHAR(2) NOT NULL, -- two char CA, CI, MD, ...</t>
+  </si>
+  <si>
+    <t>import_only BOOLEAN NOT NULL DEFAULT '0',</t>
+  </si>
+  <si>
+    <t>CONSTRAINT pas_225_subdivision_uq UNIQUE (code,subdivision)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE adif.pas_225_region</t>
+  </si>
+  <si>
+    <t>CONSTRAINT pas_225_region_uq UNIQUE (region)</t>
+  </si>
+  <si>
+    <t>pas_225_region</t>
+  </si>
+  <si>
+    <t>pas_225_subdivision</t>
+  </si>
+  <si>
+    <t>pas_227</t>
+  </si>
+  <si>
+    <t>pas_227.csv</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Ain</t>
+  </si>
+  <si>
+    <t>Aisne</t>
+  </si>
+  <si>
+    <t>Allier</t>
+  </si>
+  <si>
+    <t>Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t>Hautes-Alpes</t>
+  </si>
+  <si>
+    <t>Alpes-Maritimes</t>
+  </si>
+  <si>
+    <t>Ardèche</t>
+  </si>
+  <si>
+    <t>Ardennes</t>
+  </si>
+  <si>
+    <t>Ariège</t>
+  </si>
+  <si>
+    <t>Aube</t>
+  </si>
+  <si>
+    <t>Aude</t>
+  </si>
+  <si>
+    <t>Aveyron</t>
+  </si>
+  <si>
+    <t>Bouches-du-Rhone</t>
+  </si>
+  <si>
+    <t>Calvados</t>
+  </si>
+  <si>
+    <t>Cantal</t>
+  </si>
+  <si>
+    <t>Charente</t>
+  </si>
+  <si>
+    <t>Charente-Maritime</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>Corrèze</t>
+  </si>
+  <si>
+    <t>Cote-d'Or</t>
+  </si>
+  <si>
+    <t>Cotes-d'Armor</t>
+  </si>
+  <si>
+    <t>Creuse</t>
+  </si>
+  <si>
+    <t>Dordogne</t>
+  </si>
+  <si>
+    <t>Doubs</t>
+  </si>
+  <si>
+    <t>Drôme</t>
+  </si>
+  <si>
+    <t>Eure</t>
+  </si>
+  <si>
+    <t>Eure-et-Loir</t>
+  </si>
+  <si>
+    <t>Finistère</t>
+  </si>
+  <si>
+    <t>Gard</t>
+  </si>
+  <si>
+    <t>Haute-Garonne</t>
+  </si>
+  <si>
+    <t>Gere</t>
+  </si>
+  <si>
+    <t>Gironde</t>
+  </si>
+  <si>
+    <t>Hérault</t>
+  </si>
+  <si>
+    <t>Ille-et-Vilaine</t>
+  </si>
+  <si>
+    <t>Indre</t>
+  </si>
+  <si>
+    <t>Indre-et-Loire</t>
+  </si>
+  <si>
+    <t>Isère</t>
+  </si>
+  <si>
+    <t>Jura</t>
+  </si>
+  <si>
+    <t>Landes</t>
+  </si>
+  <si>
+    <t>Loir-et-Cher</t>
+  </si>
+  <si>
+    <t>Loire</t>
+  </si>
+  <si>
+    <t>Haute-Loire</t>
+  </si>
+  <si>
+    <t>Loire-Atlantique</t>
+  </si>
+  <si>
+    <t>Loiret</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Lot-et-Garonne</t>
+  </si>
+  <si>
+    <t>Lozère</t>
+  </si>
+  <si>
+    <t>Maine-et-Loire</t>
+  </si>
+  <si>
+    <t>Manche</t>
+  </si>
+  <si>
+    <t>Marne</t>
+  </si>
+  <si>
+    <t>Haute-Marne</t>
+  </si>
+  <si>
+    <t>Mayenne</t>
+  </si>
+  <si>
+    <t>Meurthe-et-Moselle</t>
+  </si>
+  <si>
+    <t>Meuse</t>
+  </si>
+  <si>
+    <t>Morbihan</t>
+  </si>
+  <si>
+    <t>Moselle</t>
+  </si>
+  <si>
+    <t>Niëvre</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Oise</t>
+  </si>
+  <si>
+    <t>Orne</t>
+  </si>
+  <si>
+    <t>Pas-de-Calais</t>
+  </si>
+  <si>
+    <t>Puy-de-Dôme</t>
+  </si>
+  <si>
+    <t>Pyrénées-Atlantiques</t>
+  </si>
+  <si>
+    <t>Hautea-Pyrénées</t>
+  </si>
+  <si>
+    <t>Pyrénées-Orientales</t>
+  </si>
+  <si>
+    <t>Bas-Rhin</t>
+  </si>
+  <si>
+    <t>Haut-Rhin</t>
+  </si>
+  <si>
+    <t>Rhône</t>
+  </si>
+  <si>
+    <t>Haute-Saône</t>
+  </si>
+  <si>
+    <t>Saône-et-Loire</t>
+  </si>
+  <si>
+    <t>Sarthe</t>
+  </si>
+  <si>
+    <t>Savoie</t>
+  </si>
+  <si>
+    <t>Haute-Savoie</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Seine-Maritime</t>
+  </si>
+  <si>
+    <t>Seine-et-Marne</t>
+  </si>
+  <si>
+    <t>Yvelines</t>
+  </si>
+  <si>
+    <t>Deux-Sèvres</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Tarn</t>
+  </si>
+  <si>
+    <t>Tarn-et-Garonne</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Vaucluse</t>
+  </si>
+  <si>
+    <t>Vendée</t>
+  </si>
+  <si>
+    <t>Vienne</t>
+  </si>
+  <si>
+    <t>Haute-Vienne</t>
+  </si>
+  <si>
+    <t>Vosges</t>
+  </si>
+  <si>
+    <t>Yonne</t>
+  </si>
+  <si>
+    <t>Territoire de Belfort</t>
+  </si>
+  <si>
+    <t>Essonne</t>
+  </si>
+  <si>
+    <t>Hauts-de-Selne</t>
+  </si>
+  <si>
+    <t>Seine-Saint-Denis</t>
+  </si>
+  <si>
+    <t>Val-de-Marne</t>
+  </si>
+  <si>
+    <t>Val-d'Oise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number 20 is missing from the ADIF list on France. </t>
+  </si>
+  <si>
+    <t>pas_230.csv</t>
+  </si>
+  <si>
+    <t>Fed. Rep. Of Germany</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Freistaat Bayern</t>
+  </si>
+  <si>
+    <t>Freie Hansestadt Bremen</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>Freie und Hansestadt Hamburg</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Freistaat Sachsen</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Freistaat Thüringen</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>pas_239.csv</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>Gyõr (Gyõr-Moson-Sopron)</t>
+  </si>
+  <si>
+    <t>Vas</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>Zala</t>
+  </si>
+  <si>
+    <t>Komárom (Komárom-Esztergom)</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Veszprém</t>
+  </si>
+  <si>
+    <t>Baranya</t>
+  </si>
+  <si>
+    <t>Somogy</t>
+  </si>
+  <si>
+    <t>Tolna</t>
+  </si>
+  <si>
+    <t>Fejér</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Heves</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Nógrád</t>
+  </si>
+  <si>
+    <t>Pest</t>
+  </si>
+  <si>
+    <t>Szolnok (Jász-Nagykun-Szolnok)</t>
+  </si>
+  <si>
+    <t>Békés</t>
+  </si>
+  <si>
+    <t>Bács-Kiskun</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Csongrád</t>
+  </si>
+  <si>
+    <t>Borsod (Borsod-Abaúj-Zemplén)</t>
+  </si>
+  <si>
+    <t>Hajdú-Bihar</t>
+  </si>
+  <si>
+    <t>Szabolcs (Szabolcs-Szatmár-Bereg)</t>
+  </si>
+  <si>
+    <t>pas_245.csv</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Carlow (Ceatharlach)</t>
+  </si>
+  <si>
+    <t>Cavan (An Cabhán)</t>
+  </si>
+  <si>
+    <t>Clare (An Clár)</t>
+  </si>
+  <si>
+    <t>Cork (Corcaigh)</t>
+  </si>
+  <si>
+    <t>Donegal (Dún na nGall)</t>
+  </si>
+  <si>
+    <t>Dublin (Baile Áth Cliath)</t>
+  </si>
+  <si>
+    <t>Galway (Gaillimh)</t>
+  </si>
+  <si>
+    <t>Kerry (Ciarraí)</t>
+  </si>
+  <si>
+    <t>Kildare (Cill Dara)</t>
+  </si>
+  <si>
+    <t>Kilkenny (Cill Chainnigh)</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Laois (Laois)</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Leitrim (Liatroim)</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>Limerick (Luimneach)</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>Longford (An Longfort)</t>
+  </si>
+  <si>
+    <t>Louth (Lú)</t>
+  </si>
+  <si>
+    <t>Mayo (Maigh Eo)</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>Meath (An Mhí)</t>
+  </si>
+  <si>
+    <t>Monaghan (Muineachán)</t>
+  </si>
+  <si>
+    <t>OY</t>
+  </si>
+  <si>
+    <t>Offaly (Uíbh Fhailí)</t>
+  </si>
+  <si>
+    <t>Roscommon (Ros Comáin)</t>
+  </si>
+  <si>
+    <t>Sligo (Sligeach)</t>
+  </si>
+  <si>
+    <t>Tipperary (Tiobraid Árann)</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Waterford (Port Láirge)</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>Westmeath (An Iarmhí)</t>
+  </si>
+  <si>
+    <t>WX</t>
+  </si>
+  <si>
+    <t>Wexford (Loch Garman)</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>Wicklow (Cill Mhantáin)</t>
+  </si>
+  <si>
+    <t>pas_230</t>
+  </si>
+  <si>
+    <t>pas_239</t>
+  </si>
+  <si>
+    <t>pas_245</t>
+  </si>
+  <si>
+    <t>pas_209</t>
+  </si>
+  <si>
+    <t>pas_248</t>
+  </si>
+  <si>
+    <t>pas_256</t>
+  </si>
+  <si>
+    <t>pas_263</t>
+  </si>
+  <si>
+    <t>pas_269</t>
+  </si>
+  <si>
+    <t>pas_272</t>
+  </si>
+  <si>
+    <t>pas_275</t>
+  </si>
+  <si>
+    <t>pas_281</t>
+  </si>
+  <si>
+    <t>pas_284</t>
+  </si>
+  <si>
+    <t>pas_287</t>
+  </si>
+  <si>
+    <t>pas_288</t>
+  </si>
+  <si>
+    <t>pas_291</t>
+  </si>
+  <si>
+    <t>pas_318</t>
+  </si>
+  <si>
+    <t>pas_327</t>
+  </si>
+  <si>
+    <t>pas_339</t>
+  </si>
+  <si>
+    <t>pas_375</t>
+  </si>
+  <si>
+    <t>pas_386</t>
+  </si>
+  <si>
+    <t>pas_387</t>
+  </si>
+  <si>
+    <t>pas_497</t>
+  </si>
+  <si>
+    <t>pas_503</t>
+  </si>
+  <si>
+    <t>pas_504</t>
   </si>
 </sst>
 </file>
@@ -6703,7 +7428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6821,8 +7546,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6872,6 +7604,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -6953,7 +7690,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6961,8 +7698,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7145,11 +7883,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_pas_052" xfId="5" xr:uid="{AAD3A17B-11FB-4A1D-9A7D-F432A6F984A1}"/>
@@ -7470,18 +8216,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18460EF-30D2-4D9B-9C36-93BDE7059CF7}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -7554,7 +8300,7 @@
         <v>999</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D54" si="0">A5&amp;".csv"</f>
+        <f t="shared" ref="D5:D81" si="0">A5&amp;".csv"</f>
         <v>pas_summary.csv</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -8514,20 +9260,20 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B49" s="6">
-        <v>212</v>
-      </c>
-      <c r="C49" t="str">
-        <f>dxcc!D208</f>
-        <v>BULGARIA</v>
-      </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>pas_212_region.csv</v>
+    <row r="49" spans="1:7">
+      <c r="A49" s="78" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B49" s="79">
+        <v>209</v>
+      </c>
+      <c r="C49" s="78" t="str">
+        <f>dxcc!D205</f>
+        <v>BELGIUM</v>
+      </c>
+      <c r="D49" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_209.csv</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>407</v>
@@ -8536,9 +9282,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B50" s="6">
         <v>212</v>
@@ -8549,7 +9295,7 @@
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pas_212_subdivision.csv</v>
+        <v>pas_212_region.csv</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>407</v>
@@ -8558,64 +9304,64 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B51" s="6">
+        <v>212</v>
+      </c>
+      <c r="C51" t="str">
+        <f>dxcc!D208</f>
+        <v>BULGARIA</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_212_subdivision.csv</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>1645</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B52" s="6">
         <v>214</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C52" t="str">
         <f>dxcc!D210</f>
         <v>CORSICA</v>
       </c>
-      <c r="D51" s="1" t="str">
+      <c r="D52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>pas_214.csv</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E52" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
         <v>1646</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B53" s="6">
         <v>221</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C53" t="str">
         <f>dxcc!D217</f>
         <v>DENMARK</v>
       </c>
-      <c r="D52" s="1" t="str">
+      <c r="D53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>pas_221.csv</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B53" s="6">
-        <v>224</v>
-      </c>
-      <c r="C53" t="str">
-        <f>dxcc!D220</f>
-        <v>FINLAND</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>pas_224_region.csv</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>407</v>
@@ -8624,9 +9370,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B54" s="6">
         <v>224</v>
@@ -8637,13 +9383,350 @@
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>pas_224_subdivision.csv</v>
+        <v>pas_224_region.csv</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>407</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B55" s="6">
+        <v>224</v>
+      </c>
+      <c r="C55" t="str">
+        <f>dxcc!D220</f>
+        <v>FINLAND</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_224_subdivision.csv</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B56" s="6">
+        <v>225</v>
+      </c>
+      <c r="C56" t="str">
+        <f>dxcc!D221</f>
+        <v>SARDINIA</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_225_region.csv</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B57" s="6">
+        <v>225</v>
+      </c>
+      <c r="C57" t="str">
+        <f>dxcc!D221</f>
+        <v>SARDINIA</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_225_subdivision.csv</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B58" s="6">
+        <v>227</v>
+      </c>
+      <c r="C58" t="str">
+        <f>dxcc!D223</f>
+        <v>FRANCE</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_227.csv</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B59" s="6">
+        <v>230</v>
+      </c>
+      <c r="C59" t="str">
+        <f>dxcc!D226</f>
+        <v>FEDERAL REPUBLIC OF GERMANY</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_230.csv</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B60" s="6">
+        <v>239</v>
+      </c>
+      <c r="C60" t="str">
+        <f>dxcc!D235</f>
+        <v>HUNGARY</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_239.csv</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B61" s="6">
+        <v>245</v>
+      </c>
+      <c r="C61" t="str">
+        <f>dxcc!D241</f>
+        <v>IRELAND</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_245.csv</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_248.csv</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_256.csv</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_263.csv</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_269.csv</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_272.csv</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_275.csv</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_281.csv</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_284.csv</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_287.csv</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_288.csv</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_291.csv</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_318.csv</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_327.csv</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_339.csv</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_375.csv</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_386.csv</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_387.csv</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_497.csv</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_503.csv</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>pas_504.csv</v>
       </c>
     </row>
   </sheetData>
@@ -28356,9 +29439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F642EE8-FDBC-44E3-9B21-CB8CBC324855}">
   <dimension ref="B1:N128"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -31645,14 +32726,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B472BB40-42FA-42C6-BCBE-E2F477C511E6}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31981,7 +33064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2E3831-8F36-440A-972F-09925986B74F}">
   <dimension ref="B1:M452"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -40872,6 +41955,2448 @@
     <row r="452" spans="3:4">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D58D2BA-EB07-43C0-9469-EED1353C5586}">
+  <dimension ref="B1:N51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1</f>
+        <v>id|dxcc_id|region</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>486</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>810</v>
+      </c>
+      <c r="L1" s="37" t="str">
+        <f>G1&amp;"|"&amp;H1&amp;"|"&amp;I1&amp;"|"&amp;J1&amp;"|"&amp;K1</f>
+        <v>id|pas_206_region_id|code|subdivision|import_only</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E2" s="52" t="str">
+        <f t="shared" ref="E2" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2</f>
+        <v>1|225|Sardinia (Sardegna)</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="52" t="str">
+        <f t="shared" ref="L2:L10" si="1">G2&amp;"|"&amp;H2&amp;"|"&amp;I2&amp;"|"&amp;J2&amp;"|"&amp;K2</f>
+        <v>1|1|CA|Cagliari|0</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>856</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>2|1|CI|Carbonia-Iglesias|0</v>
+      </c>
+      <c r="N3" s="67" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="E4" s="27" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>777</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>3|1|MD|Medio Campidano|1</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="E5" s="27" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2121</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>4|1|NU|Nuoro|0</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>5|1|OG|Ogliastra|0</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>728</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>6|1|OR|Oristano|0</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="G8" s="6">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>7|1|OT|Olbia-Tempio|0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>838</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2127</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>8|1|SS|Sassari|0</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="G10" s="6">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>9|1|VS|MedioCampidano|0</v>
+      </c>
+      <c r="N10" s="66" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="N11" s="67" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="L12" s="27" t="s">
+        <v>2117</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="L13" s="27" t="s">
+        <v>2116</v>
+      </c>
+      <c r="N13" s="67" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="N14" s="67" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="N15" s="67" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="N16" s="67" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="N17" s="66" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="76"/>
+      <c r="E19" s="69"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="E21" s="69"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="76"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="76"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="E28" s="69"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="76"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="69"/>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BA0F8-5632-41D4-B690-969D54FB1B79}">
+  <dimension ref="B1:F98"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>227</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|227|1|Ain</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>227</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F66" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|227|2|Aisne</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>227</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|227|3|Allier</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>227</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|227|4|Alpes-de-Haute-Provence</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>227</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|227|5|Hautes-Alpes</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>227</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|227|6|Alpes-Maritimes</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>227</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|227|7|Ardèche</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>227</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|227|8|Ardennes</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>227</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|227|9|Ariège</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>227</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|227|10|Aube</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>227</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|227|11|Aude</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>227</v>
+      </c>
+      <c r="D13" s="6">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|227|12|Aveyron</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>227</v>
+      </c>
+      <c r="D14" s="6">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|227|13|Bouches-du-Rhone</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>227</v>
+      </c>
+      <c r="D15" s="6">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|227|14|Calvados</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>227</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|227|15|Cantal</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>227</v>
+      </c>
+      <c r="D17" s="6">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|227|16|Charente</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>227</v>
+      </c>
+      <c r="D18" s="6">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|227|17|Charente-Maritime</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>227</v>
+      </c>
+      <c r="D19" s="6">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|227|18|Cher</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>227</v>
+      </c>
+      <c r="D20" s="6">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|227|19|Corrèze</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>227</v>
+      </c>
+      <c r="D21" s="6">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|227|21|Cote-d'Or</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>227</v>
+      </c>
+      <c r="D22" s="6">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F22" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>21|227|22|Cotes-d'Armor</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
+        <v>227</v>
+      </c>
+      <c r="D23" s="6">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F23" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>22|227|23|Creuse</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>227</v>
+      </c>
+      <c r="D24" s="6">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F24" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>23|227|24|Dordogne</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>227</v>
+      </c>
+      <c r="D25" s="6">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F25" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>24|227|25|Doubs</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>227</v>
+      </c>
+      <c r="D26" s="6">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F26" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>25|227|26|Drôme</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>227</v>
+      </c>
+      <c r="D27" s="6">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F27" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>26|227|27|Eure</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6">
+        <v>227</v>
+      </c>
+      <c r="D28" s="6">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F28" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>27|227|28|Eure-et-Loir</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6">
+        <v>227</v>
+      </c>
+      <c r="D29" s="6">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F29" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>28|227|29|Finistère</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6">
+        <v>227</v>
+      </c>
+      <c r="D30" s="6">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>29|227|30|Gard</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6">
+        <v>227</v>
+      </c>
+      <c r="D31" s="6">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F31" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>30|227|31|Haute-Garonne</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6">
+        <v>227</v>
+      </c>
+      <c r="D32" s="6">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F32" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>31|227|32|Gere</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6">
+        <v>227</v>
+      </c>
+      <c r="D33" s="6">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F33" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>32|227|33|Gironde</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6">
+        <v>227</v>
+      </c>
+      <c r="D34" s="6">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F34" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>33|227|34|Hérault</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6">
+        <v>227</v>
+      </c>
+      <c r="D35" s="6">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F35" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>34|227|35|Ille-et-Vilaine</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="6">
+        <v>227</v>
+      </c>
+      <c r="D36" s="6">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F36" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>35|227|36|Indre</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6">
+        <v>227</v>
+      </c>
+      <c r="D37" s="6">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F37" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>36|227|37|Indre-et-Loire</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="6">
+        <v>227</v>
+      </c>
+      <c r="D38" s="6">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F38" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>37|227|38|Isère</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="6">
+        <v>227</v>
+      </c>
+      <c r="D39" s="6">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F39" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>38|227|39|Jura</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="6">
+        <v>227</v>
+      </c>
+      <c r="D40" s="6">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F40" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>39|227|40|Landes</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="6">
+        <v>227</v>
+      </c>
+      <c r="D41" s="6">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F41" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>40|227|41|Loir-et-Cher</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="6">
+        <v>227</v>
+      </c>
+      <c r="D42" s="6">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F42" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>41|227|42|Loire</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="6">
+        <v>227</v>
+      </c>
+      <c r="D43" s="6">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F43" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>42|227|43|Haute-Loire</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="6">
+        <v>227</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F44" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>43|227|44|Loire-Atlantique</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="6">
+        <v>227</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F45" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>44|227|45|Loiret</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="6">
+        <v>45</v>
+      </c>
+      <c r="C46" s="6">
+        <v>227</v>
+      </c>
+      <c r="D46" s="6">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F46" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>45|227|46|Lot</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="6">
+        <v>46</v>
+      </c>
+      <c r="C47" s="6">
+        <v>227</v>
+      </c>
+      <c r="D47" s="6">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F47" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>46|227|47|Lot-et-Garonne</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="6">
+        <v>47</v>
+      </c>
+      <c r="C48" s="6">
+        <v>227</v>
+      </c>
+      <c r="D48" s="6">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F48" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>47|227|48|Lozère</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="6">
+        <v>48</v>
+      </c>
+      <c r="C49" s="6">
+        <v>227</v>
+      </c>
+      <c r="D49" s="6">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2190</v>
+      </c>
+      <c r="F49" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>48|227|49|Maine-et-Loire</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="6">
+        <v>49</v>
+      </c>
+      <c r="C50" s="6">
+        <v>227</v>
+      </c>
+      <c r="D50" s="6">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F50" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>49|227|50|Manche</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="6">
+        <v>50</v>
+      </c>
+      <c r="C51" s="6">
+        <v>227</v>
+      </c>
+      <c r="D51" s="6">
+        <v>51</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F51" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>50|227|51|Marne</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="6">
+        <v>51</v>
+      </c>
+      <c r="C52" s="6">
+        <v>227</v>
+      </c>
+      <c r="D52" s="6">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F52" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>51|227|52|Haute-Marne</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="6">
+        <v>52</v>
+      </c>
+      <c r="C53" s="6">
+        <v>227</v>
+      </c>
+      <c r="D53" s="6">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F53" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>52|227|53|Mayenne</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="6">
+        <v>53</v>
+      </c>
+      <c r="C54" s="6">
+        <v>227</v>
+      </c>
+      <c r="D54" s="6">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F54" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>53|227|54|Meurthe-et-Moselle</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="6">
+        <v>54</v>
+      </c>
+      <c r="C55" s="6">
+        <v>227</v>
+      </c>
+      <c r="D55" s="6">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2196</v>
+      </c>
+      <c r="F55" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>54|227|55|Meuse</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="6">
+        <v>55</v>
+      </c>
+      <c r="C56" s="6">
+        <v>227</v>
+      </c>
+      <c r="D56" s="6">
+        <v>56</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F56" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>55|227|56|Morbihan</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="6">
+        <v>56</v>
+      </c>
+      <c r="C57" s="6">
+        <v>227</v>
+      </c>
+      <c r="D57" s="6">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F57" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>56|227|57|Moselle</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="6">
+        <v>57</v>
+      </c>
+      <c r="C58" s="6">
+        <v>227</v>
+      </c>
+      <c r="D58" s="6">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F58" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>57|227|58|Niëvre</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="6">
+        <v>58</v>
+      </c>
+      <c r="C59" s="6">
+        <v>227</v>
+      </c>
+      <c r="D59" s="6">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>58|227|59|Nord</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="6">
+        <v>59</v>
+      </c>
+      <c r="C60" s="6">
+        <v>227</v>
+      </c>
+      <c r="D60" s="6">
+        <v>60</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F60" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>59|227|60|Oise</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="6">
+        <v>60</v>
+      </c>
+      <c r="C61" s="6">
+        <v>227</v>
+      </c>
+      <c r="D61" s="6">
+        <v>61</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F61" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>60|227|61|Orne</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="6">
+        <v>61</v>
+      </c>
+      <c r="C62" s="6">
+        <v>227</v>
+      </c>
+      <c r="D62" s="6">
+        <v>62</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F62" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>61|227|62|Pas-de-Calais</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="6">
+        <v>62</v>
+      </c>
+      <c r="C63" s="6">
+        <v>227</v>
+      </c>
+      <c r="D63" s="6">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F63" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>62|227|63|Puy-de-Dôme</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="6">
+        <v>63</v>
+      </c>
+      <c r="C64" s="6">
+        <v>227</v>
+      </c>
+      <c r="D64" s="6">
+        <v>64</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F64" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>63|227|64|Pyrénées-Atlantiques</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="6">
+        <v>64</v>
+      </c>
+      <c r="C65" s="6">
+        <v>227</v>
+      </c>
+      <c r="D65" s="6">
+        <v>65</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F65" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>64|227|65|Hautea-Pyrénées</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="6">
+        <v>65</v>
+      </c>
+      <c r="C66" s="6">
+        <v>227</v>
+      </c>
+      <c r="D66" s="6">
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F66" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>65|227|66|Pyrénées-Orientales</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="6">
+        <v>66</v>
+      </c>
+      <c r="C67" s="6">
+        <v>227</v>
+      </c>
+      <c r="D67" s="6">
+        <v>67</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F67" s="52" t="str">
+        <f t="shared" ref="F67:F95" si="1">B67&amp;"|"&amp;C67&amp;"|"&amp;D67&amp;"|"&amp;E67</f>
+        <v>66|227|67|Bas-Rhin</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="6">
+        <v>67</v>
+      </c>
+      <c r="C68" s="6">
+        <v>227</v>
+      </c>
+      <c r="D68" s="6">
+        <v>68</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F68" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>67|227|68|Haut-Rhin</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="6">
+        <v>68</v>
+      </c>
+      <c r="C69" s="6">
+        <v>227</v>
+      </c>
+      <c r="D69" s="6">
+        <v>69</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F69" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>68|227|69|Rhône</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="6">
+        <v>69</v>
+      </c>
+      <c r="C70" s="6">
+        <v>227</v>
+      </c>
+      <c r="D70" s="6">
+        <v>70</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F70" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>69|227|70|Haute-Saône</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="6">
+        <v>70</v>
+      </c>
+      <c r="C71" s="6">
+        <v>227</v>
+      </c>
+      <c r="D71" s="6">
+        <v>71</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F71" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>70|227|71|Saône-et-Loire</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="6">
+        <v>71</v>
+      </c>
+      <c r="C72" s="6">
+        <v>227</v>
+      </c>
+      <c r="D72" s="6">
+        <v>72</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F72" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>71|227|72|Sarthe</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="6">
+        <v>72</v>
+      </c>
+      <c r="C73" s="6">
+        <v>227</v>
+      </c>
+      <c r="D73" s="6">
+        <v>73</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F73" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>72|227|73|Savoie</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="6">
+        <v>73</v>
+      </c>
+      <c r="C74" s="6">
+        <v>227</v>
+      </c>
+      <c r="D74" s="6">
+        <v>74</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F74" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>73|227|74|Haute-Savoie</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="6">
+        <v>74</v>
+      </c>
+      <c r="C75" s="6">
+        <v>227</v>
+      </c>
+      <c r="D75" s="6">
+        <v>75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F75" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>74|227|75|Paris</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="6">
+        <v>75</v>
+      </c>
+      <c r="C76" s="6">
+        <v>227</v>
+      </c>
+      <c r="D76" s="6">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F76" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>75|227|76|Seine-Maritime</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="6">
+        <v>76</v>
+      </c>
+      <c r="C77" s="6">
+        <v>227</v>
+      </c>
+      <c r="D77" s="6">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F77" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>76|227|77|Seine-et-Marne</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="6">
+        <v>77</v>
+      </c>
+      <c r="C78" s="6">
+        <v>227</v>
+      </c>
+      <c r="D78" s="6">
+        <v>78</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F78" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>77|227|78|Yvelines</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="6">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6">
+        <v>227</v>
+      </c>
+      <c r="D79" s="6">
+        <v>79</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F79" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>78|227|79|Deux-Sèvres</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="6">
+        <v>79</v>
+      </c>
+      <c r="C80" s="6">
+        <v>227</v>
+      </c>
+      <c r="D80" s="6">
+        <v>80</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F80" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>79|227|80|Somme</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="6">
+        <v>80</v>
+      </c>
+      <c r="C81" s="6">
+        <v>227</v>
+      </c>
+      <c r="D81" s="6">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F81" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>80|227|81|Tarn</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="6">
+        <v>81</v>
+      </c>
+      <c r="C82" s="6">
+        <v>227</v>
+      </c>
+      <c r="D82" s="6">
+        <v>82</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F82" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>81|227|82|Tarn-et-Garonne</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="6">
+        <v>82</v>
+      </c>
+      <c r="C83" s="6">
+        <v>227</v>
+      </c>
+      <c r="D83" s="6">
+        <v>83</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2224</v>
+      </c>
+      <c r="F83" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>82|227|83|Var</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="6">
+        <v>83</v>
+      </c>
+      <c r="C84" s="6">
+        <v>227</v>
+      </c>
+      <c r="D84" s="6">
+        <v>84</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F84" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>83|227|84|Vaucluse</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="6">
+        <v>84</v>
+      </c>
+      <c r="C85" s="6">
+        <v>227</v>
+      </c>
+      <c r="D85" s="6">
+        <v>85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F85" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>84|227|85|Vendée</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="6">
+        <v>85</v>
+      </c>
+      <c r="C86" s="6">
+        <v>227</v>
+      </c>
+      <c r="D86" s="6">
+        <v>86</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F86" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>85|227|86|Vienne</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="6">
+        <v>86</v>
+      </c>
+      <c r="C87" s="6">
+        <v>227</v>
+      </c>
+      <c r="D87" s="6">
+        <v>87</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F87" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>86|227|87|Haute-Vienne</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="6">
+        <v>87</v>
+      </c>
+      <c r="C88" s="6">
+        <v>227</v>
+      </c>
+      <c r="D88" s="6">
+        <v>88</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F88" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>87|227|88|Vosges</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="6">
+        <v>88</v>
+      </c>
+      <c r="C89" s="6">
+        <v>227</v>
+      </c>
+      <c r="D89" s="6">
+        <v>89</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F89" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>88|227|89|Yonne</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="6">
+        <v>89</v>
+      </c>
+      <c r="C90" s="6">
+        <v>227</v>
+      </c>
+      <c r="D90" s="6">
+        <v>90</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F90" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>89|227|90|Territoire de Belfort</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="6">
+        <v>90</v>
+      </c>
+      <c r="C91" s="6">
+        <v>227</v>
+      </c>
+      <c r="D91" s="6">
+        <v>91</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F91" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>90|227|91|Essonne</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="6">
+        <v>91</v>
+      </c>
+      <c r="C92" s="6">
+        <v>227</v>
+      </c>
+      <c r="D92" s="6">
+        <v>92</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F92" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>91|227|92|Hauts-de-Selne</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="6">
+        <v>92</v>
+      </c>
+      <c r="C93" s="6">
+        <v>227</v>
+      </c>
+      <c r="D93" s="6">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F93" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>92|227|93|Seine-Saint-Denis</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="6">
+        <v>93</v>
+      </c>
+      <c r="C94" s="6">
+        <v>227</v>
+      </c>
+      <c r="D94" s="6">
+        <v>94</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F94" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>93|227|94|Val-de-Marne</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="6">
+        <v>94</v>
+      </c>
+      <c r="C95" s="6">
+        <v>227</v>
+      </c>
+      <c r="D95" s="6">
+        <v>95</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2236</v>
+      </c>
+      <c r="F95" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>94|227|95|Val-d'Oise</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="27" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="27" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0436A4-17EB-4D45-B4C4-BB2A560B7AFF}">
+  <dimension ref="B1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>230</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|230|BB|Brandenburg</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>230</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F17" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|230|BE|Berlin</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>230</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|230|BW|Baden-Württemberg</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>230</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|230|BY|Freistaat Bayern</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>230</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|230|HB|Freie Hansestadt Bremen</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>230</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|230|HE|Hessen</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>230</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|230|HH|Freie und Hansestadt Hamburg</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>230</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|230|MV|Mecklenburg-Vorpommern</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>230</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|230|NI|Niedersachsen</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>230</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|230|NW|Nordrhein-Westfalen</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>230</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|230|RP|Rheinland-Pfalz</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>230</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|230|SL|Saarland</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>230</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|230|SH|Schleswig-Holstein</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>230</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2260</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|230|SN|Freistaat Sachsen</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>230</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|230|ST|Sachsen-Anhalt</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>230</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|230|TH|Freistaat Thüringen</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="F19" s="27" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="F20" s="27" t="s">
+        <v>2239</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41288,6 +44813,930 @@
     <row r="21" spans="2:7">
       <c r="G21" s="55" t="s">
         <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CFE2BB-6A78-40E1-A1CF-A32E2911E683}">
+  <dimension ref="B1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>239</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|239|GY|Gyõr (Gyõr-Moson-Sopron)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>239</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F21" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|239|VA|Vas</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>239</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|239|ZA|Zala</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>239</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|239|KO|Komárom (Komárom-Esztergom)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>239</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|239|VE|Veszprém</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>239</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|239|BA|Baranya</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>239</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|239|SO|Somogy</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>239</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|239|TO|Tolna</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>239</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|239|FE|Fejér</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>239</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|239|BP|Budapest</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>239</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|239|HE|Heves</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>239</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2282</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|239|NG|Nógrád</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>239</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|239|PE|Pest</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>239</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|239|SZ|Szolnok (Jász-Nagykun-Szolnok)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>239</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|239|BE|Békés</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>239</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|239|BN|Bács-Kiskun</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>239</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|239|CS|Csongrád</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>239</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|239|BO|Borsod (Borsod-Abaúj-Zemplén)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>239</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|239|HB|Hajdú-Bihar</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>239</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|239|SA|Szabolcs (Szabolcs-Szatmár-Bereg)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="F23" s="27" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="27" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71420057-4E7D-4F04-BA43-300B46C642CD}">
+  <dimension ref="B1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>245</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|245|CW|Carlow (Ceatharlach)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>245</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F27" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|245|CN|Cavan (An Cabhán)</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>245</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|245|CE|Clare (An Clár)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>245</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|245|C|Cork (Corcaigh)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>245</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|245|DL|Donegal (Dún na nGall)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>245</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|245|D|Dublin (Baile Áth Cliath)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>245</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|245|G|Galway (Gaillimh)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>245</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|245|KY|Kerry (Ciarraí)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>245</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|245|KE|Kildare (Cill Dara)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>245</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|245|KK|Kilkenny (Cill Chainnigh)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>245</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2305</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|245|LS|Laois (Laois)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>245</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|245|LM|Leitrim (Liatroim)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>245</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|245|LK|Limerick (Luimneach)</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>245</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|245|LD|Longford (An Longfort)</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>245</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|245|LH|Louth (Lú)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>245</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|245|MO|Mayo (Maigh Eo)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>245</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|245|MH|Meath (An Mhí)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>245</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2317</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|245|MN|Monaghan (Muineachán)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>245</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2319</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|245|OY|Offaly (Uíbh Fhailí)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>245</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|245|RN|Roscommon (Ros Comáin)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>245</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F22" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>21|245|SO|Sligo (Sligeach)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
+        <v>245</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F23" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>22|245|TA|Tipperary (Tiobraid Árann)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>245</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F24" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>23|245|WD|Waterford (Port Láirge)</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>245</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F25" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>24|245|WH|Westmeath (An Iarmhí)</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>245</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F26" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>25|245|WX|Wexford (Loch Garman)</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>245</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F27" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>26|245|WW|Wicklow (Cill Mhantáin)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" s="27" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="27" t="s">
+        <v>2293</v>
       </c>
     </row>
   </sheetData>

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C325F-1E1A-49AC-A2A6-CB3353CCF4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8EF9E1-EAD3-4118-9177-8BF3EDB8B117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" firstSheet="32" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" firstSheet="43" activeTab="51" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENUM-LIST" sheetId="37" r:id="rId1"/>
@@ -64,6 +64,16 @@
     <sheet name="pas_230" sheetId="91" r:id="rId49"/>
     <sheet name="pas_239" sheetId="93" r:id="rId50"/>
     <sheet name="psa_245" sheetId="94" r:id="rId51"/>
+    <sheet name="psa_248" sheetId="95" r:id="rId52"/>
+    <sheet name="pas_256" sheetId="96" r:id="rId53"/>
+    <sheet name="pas_263" sheetId="97" r:id="rId54"/>
+    <sheet name="pas_269" sheetId="98" r:id="rId55"/>
+    <sheet name="pas_272" sheetId="99" r:id="rId56"/>
+    <sheet name="pas_275" sheetId="100" r:id="rId57"/>
+    <sheet name="pas_281" sheetId="101" r:id="rId58"/>
+    <sheet name="pas_284" sheetId="102" r:id="rId59"/>
+    <sheet name="pas_287" sheetId="103" r:id="rId60"/>
+    <sheet name="pas_288" sheetId="104" r:id="rId61"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -354,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="2355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="2767">
   <si>
     <t>t</t>
   </si>
@@ -7419,6 +7429,1242 @@
   </si>
   <si>
     <t>pas_504</t>
+  </si>
+  <si>
+    <t>pas_248_region.csv</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>pas_248_subdivision.csv</t>
+  </si>
+  <si>
+    <t>CREATE TABLE adif.pas_248_region</t>
+  </si>
+  <si>
+    <t>CONSTRAINT pas_248_region_uq UNIQUE (region)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE adif.pas_248_subdivision</t>
+  </si>
+  <si>
+    <t>pas_248_region_id INT NOT NULL,</t>
+  </si>
+  <si>
+    <t>code CHAR(2) NOT NULL, -- assuming two char BO, FE, FO, ...</t>
+  </si>
+  <si>
+    <t>CONSTRAINT pas_248_subdivision_uq UNIQUE (code,subdivision)</t>
+  </si>
+  <si>
+    <t>Liguria</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Imperia</t>
+  </si>
+  <si>
+    <t>La Spezia</t>
+  </si>
+  <si>
+    <t>Savona</t>
+  </si>
+  <si>
+    <t>Piedmont (Piemonte)</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Asti</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>Biella</t>
+  </si>
+  <si>
+    <t>Cuneo</t>
+  </si>
+  <si>
+    <t>Novara</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Verbano Cusio Ossola</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Vercelli</t>
+  </si>
+  <si>
+    <t>Aosta Valley (Valle D'Aosta)</t>
+  </si>
+  <si>
+    <t>Aosta</t>
+  </si>
+  <si>
+    <t>Lombardy (Lombardia)</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Bergamo</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Cremona</t>
+  </si>
+  <si>
+    <t>Lecco</t>
+  </si>
+  <si>
+    <t>Lodi</t>
+  </si>
+  <si>
+    <t>Monza e Brianza</t>
+  </si>
+  <si>
+    <t>Mantova</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Pavia</t>
+  </si>
+  <si>
+    <t>Sondrio</t>
+  </si>
+  <si>
+    <t>Varese</t>
+  </si>
+  <si>
+    <t>Veneto</t>
+  </si>
+  <si>
+    <t>Trentino-South Tyrol (Trentino-Alto Adige)</t>
+  </si>
+  <si>
+    <t>Bolzano</t>
+  </si>
+  <si>
+    <t>Trento</t>
+  </si>
+  <si>
+    <t>Friuli-Venezia Giulia</t>
+  </si>
+  <si>
+    <t>Gorizia</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Trieste</t>
+  </si>
+  <si>
+    <t>Udine</t>
+  </si>
+  <si>
+    <t>Emilia Romagna</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Ferrara</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Forlì-Cesena</t>
+  </si>
+  <si>
+    <t>Modena</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Piacenza</t>
+  </si>
+  <si>
+    <t>Ravenna</t>
+  </si>
+  <si>
+    <t>Reggio Emilia</t>
+  </si>
+  <si>
+    <t>Rimini</t>
+  </si>
+  <si>
+    <t>Tuscany (Toscana)</t>
+  </si>
+  <si>
+    <t>Arezzo</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Grosseto</t>
+  </si>
+  <si>
+    <t>Livorno</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Massa Carrara</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Pistoia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Prato</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>Abruzzo</t>
+  </si>
+  <si>
+    <t>Chieti</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>L'Aquila</t>
+  </si>
+  <si>
+    <t>Pescara</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Teramo</t>
+  </si>
+  <si>
+    <t>Marche</t>
+  </si>
+  <si>
+    <t>Ancona</t>
+  </si>
+  <si>
+    <t>Ascoli Piceno</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>Fermo</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Macerata</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Pesaro e Urbino</t>
+  </si>
+  <si>
+    <t>Basilicata</t>
+  </si>
+  <si>
+    <t>Matera</t>
+  </si>
+  <si>
+    <t>PZ</t>
+  </si>
+  <si>
+    <t>Potenza</t>
+  </si>
+  <si>
+    <t>Puglia</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Barletta-Andria-Trani</t>
+  </si>
+  <si>
+    <t>Brindisi</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Foggia</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Taranto</t>
+  </si>
+  <si>
+    <t>Calabria</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>Reggio Calabria</t>
+  </si>
+  <si>
+    <t>VV</t>
+  </si>
+  <si>
+    <t>Vibo Valentia</t>
+  </si>
+  <si>
+    <t>Campania</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>Avellino</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Caserta</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>Molise</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>Isernia</t>
+  </si>
+  <si>
+    <t>Campobasso</t>
+  </si>
+  <si>
+    <t>Latium (Lazio)</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Latina</t>
+  </si>
+  <si>
+    <t>Rieti</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Viterbo</t>
+  </si>
+  <si>
+    <t>Umbria</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Terni</t>
+  </si>
+  <si>
+    <t>Sicliy (Sicilia)</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Agrigento</t>
+  </si>
+  <si>
+    <t>Caltanissetta</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Enna</t>
+  </si>
+  <si>
+    <t>Messina</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>Ragusa</t>
+  </si>
+  <si>
+    <t>Siracusa</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Trapani</t>
+  </si>
+  <si>
+    <t>Forlì</t>
+  </si>
+  <si>
+    <t>pas_256.csv</t>
+  </si>
+  <si>
+    <t>Maderia Is.</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>pas_263.csv</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Drenthe</t>
+  </si>
+  <si>
+    <t>Friesland</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Noord-Brabant</t>
+  </si>
+  <si>
+    <t>Overijssel</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>Zuid-Holland</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Flevoland</t>
+  </si>
+  <si>
+    <t>Gelderland</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Noord-Holland</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>Zeeland</t>
+  </si>
+  <si>
+    <t>pas_269.csv</t>
+  </si>
+  <si>
+    <t>Zachodnio-Pomorskie</t>
+  </si>
+  <si>
+    <t>Pomorskie</t>
+  </si>
+  <si>
+    <t>Kujawsko-Pomorskie</t>
+  </si>
+  <si>
+    <t>Lubuskie</t>
+  </si>
+  <si>
+    <t>Wielkopolskie</t>
+  </si>
+  <si>
+    <t>Warminsko-Mazurskie</t>
+  </si>
+  <si>
+    <t>Podlaskie</t>
+  </si>
+  <si>
+    <t>Mazowieckie</t>
+  </si>
+  <si>
+    <t>Dolnoslaskie</t>
+  </si>
+  <si>
+    <t>Opolskie</t>
+  </si>
+  <si>
+    <t>Lodzkie</t>
+  </si>
+  <si>
+    <t>Swietokrzyskie</t>
+  </si>
+  <si>
+    <t>Podkarpackie</t>
+  </si>
+  <si>
+    <t>Lubelskie</t>
+  </si>
+  <si>
+    <t>Slaskie</t>
+  </si>
+  <si>
+    <t>Malopolskie</t>
+  </si>
+  <si>
+    <t>Aveiro</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>Beja</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Bragança</t>
+  </si>
+  <si>
+    <t>Castelo Branco</t>
+  </si>
+  <si>
+    <t>Coimbra</t>
+  </si>
+  <si>
+    <t>Evora</t>
+  </si>
+  <si>
+    <t>Faro</t>
+  </si>
+  <si>
+    <t>Guarda</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Leiria</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>Lisboa</t>
+  </si>
+  <si>
+    <t>Portalegre</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santarem</t>
+  </si>
+  <si>
+    <t>Setubal</t>
+  </si>
+  <si>
+    <t>Viana do Castelo</t>
+  </si>
+  <si>
+    <t>Vila Real</t>
+  </si>
+  <si>
+    <t>Viseu</t>
+  </si>
+  <si>
+    <t>pas_272.csv</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Arad</t>
+  </si>
+  <si>
+    <t>Cara'-Severin</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Hunedoara</t>
+  </si>
+  <si>
+    <t>Timiş (Timis)</t>
+  </si>
+  <si>
+    <t>Bucureşti (Bucure'ti)</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Ilfov</t>
+  </si>
+  <si>
+    <t>Brăila (Braila)</t>
+  </si>
+  <si>
+    <t>Conatarta</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Galati</t>
+  </si>
+  <si>
+    <t>Tulcea</t>
+  </si>
+  <si>
+    <t>Vrancea</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>Bihor</t>
+  </si>
+  <si>
+    <t>Bistrita-Nasaud</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>Cluj</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Maramureş (Maramures)</t>
+  </si>
+  <si>
+    <t>Sălaj (Salaj)</t>
+  </si>
+  <si>
+    <t>Satu Mare</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>Braşov (Bra'ov)</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Covasna</t>
+  </si>
+  <si>
+    <t>Harghita</t>
+  </si>
+  <si>
+    <t>Mureş (Mures)</t>
+  </si>
+  <si>
+    <t>Sibiu</t>
+  </si>
+  <si>
+    <t>Arge'</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
+    <t>Dolj</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>Gorj</t>
+  </si>
+  <si>
+    <t>Mehedinţi (Mehedinti)</t>
+  </si>
+  <si>
+    <t>Olt</t>
+  </si>
+  <si>
+    <t>Vâlcea</t>
+  </si>
+  <si>
+    <t>Bacau</t>
+  </si>
+  <si>
+    <t>Boto'ani</t>
+  </si>
+  <si>
+    <t>Iaşi (Iasi)</t>
+  </si>
+  <si>
+    <t>Neamţ (Neamt)</t>
+  </si>
+  <si>
+    <t>Suceava</t>
+  </si>
+  <si>
+    <t>Vaslui</t>
+  </si>
+  <si>
+    <t>Buzău (Buzau)</t>
+  </si>
+  <si>
+    <t>Călăraşi (Calarasi)</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Dâmboviţa (Dambovita)</t>
+  </si>
+  <si>
+    <t>Giurqiu</t>
+  </si>
+  <si>
+    <t>Ialomita</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Prahova</t>
+  </si>
+  <si>
+    <t>Teleorman</t>
+  </si>
+  <si>
+    <t>pas_275.csv</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>pas_281.csv</t>
+  </si>
+  <si>
+    <t>Avila</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>A Coruña</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Asturias</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Ourense</t>
+  </si>
+  <si>
+    <t>Palencia</t>
+  </si>
+  <si>
+    <t>Pontevedra</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Salamanca</t>
+  </si>
+  <si>
+    <t>Segovia</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>Vizcaya</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>Guipuzcoa</t>
+  </si>
+  <si>
+    <t>Teruel</t>
+  </si>
+  <si>
+    <t>Alava</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Lleida</t>
+  </si>
+  <si>
+    <t>Tarragona</t>
+  </si>
+  <si>
+    <t>Badajoz</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Caceres</t>
+  </si>
+  <si>
+    <t>Ciudad Real</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Alicante</t>
+  </si>
+  <si>
+    <t>Albacete</t>
+  </si>
+  <si>
+    <t>Castellon</t>
+  </si>
+  <si>
+    <t>Murcia</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>pas_284.csv</t>
+  </si>
+  <si>
+    <t>Stockholm län</t>
+  </si>
+  <si>
+    <t>Gotlands län</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Norrbottens län</t>
+  </si>
+  <si>
+    <t>Västerbottens län</t>
+  </si>
+  <si>
+    <t>Gävleborgs län</t>
+  </si>
+  <si>
+    <t>Jämtlands län</t>
+  </si>
+  <si>
+    <t>Västernorrlands län</t>
+  </si>
+  <si>
+    <t>Dalarna län</t>
+  </si>
+  <si>
+    <t>Värmlands län</t>
+  </si>
+  <si>
+    <t>Västra Götalands län</t>
+  </si>
+  <si>
+    <t>Örebro län</t>
+  </si>
+  <si>
+    <t>Östergötlands län</t>
+  </si>
+  <si>
+    <t>Södermanlands län</t>
+  </si>
+  <si>
+    <t>Uppsala län</t>
+  </si>
+  <si>
+    <t>Västmanlands län</t>
+  </si>
+  <si>
+    <t>Hallands län</t>
+  </si>
+  <si>
+    <t>Blekinge län</t>
+  </si>
+  <si>
+    <t>Jönköpings län</t>
+  </si>
+  <si>
+    <t>Kalmar län</t>
+  </si>
+  <si>
+    <t>Kronobergs län</t>
+  </si>
+  <si>
+    <t>Skåne län</t>
+  </si>
+  <si>
+    <t>pas_287.csv</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Aargau</t>
+  </si>
+  <si>
+    <t>Appenzell Ausserrhoden</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Appenzell Innerrhoden</t>
+  </si>
+  <si>
+    <t>Basel Landschaft</t>
+  </si>
+  <si>
+    <t>Basel Stadt</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Freiburg / Fribourg</t>
+  </si>
+  <si>
+    <t>Genf / Genève</t>
+  </si>
+  <si>
+    <t>Glarus</t>
+  </si>
+  <si>
+    <t>Graubuenden / Grisons</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>Neuenburg / Neuchâtel</t>
+  </si>
+  <si>
+    <t>Nidwalden</t>
+  </si>
+  <si>
+    <t>Obwalden</t>
+  </si>
+  <si>
+    <t>Schaffhausen</t>
+  </si>
+  <si>
+    <t>Schwyz</t>
+  </si>
+  <si>
+    <t>Solothurn</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Tessin / Ticino</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Thurgau</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Waadt / Vaud</t>
+  </si>
+  <si>
+    <t>Wallis / Valais</t>
+  </si>
+  <si>
+    <t>Zuerich</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
+    <t>Zug</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>pas_288.csv</t>
+  </si>
+  <si>
+    <t>Sums'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Ternopil's'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Cherkas'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Zakarpats'ka Oblast'</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>Dnipropetrovs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Odes'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Khersons'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Poltavs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Donets'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Rivnens'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Kharkivs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Luhans'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Vinnyts'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Volyos'ka Oblast'</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>Zaporiz'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Chernihivs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Ivano-Frankivs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Khmel'nyts'ka Oblast'</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>Kyïv</t>
+  </si>
+  <si>
+    <t>Kyivs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Kirovohrads'ka Oblast'</t>
+  </si>
+  <si>
+    <t>L'vivs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Zhytomyrs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Chernivets'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Mykolaivs'ka Oblast'</t>
+  </si>
+  <si>
+    <t>Respublika Krym</t>
+  </si>
+  <si>
+    <t>Sevastopol'</t>
   </si>
 </sst>
 </file>
@@ -7700,7 +8946,7 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7889,6 +9135,20 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8219,8 +9479,8 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32726,16 +33986,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B472BB40-42FA-42C6-BCBE-E2F477C511E6}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -44069,9 +45327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0436A4-17EB-4D45-B4C4-BB2A560B7AFF}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -45232,7 +46488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71420057-4E7D-4F04-BA43-300B46C642CD}">
   <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -45737,6 +46993,6406 @@
     <row r="30" spans="2:6">
       <c r="F30" s="27" t="s">
         <v>2293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0AC188-CD41-4088-8A0A-2F13007C63FE}">
+  <dimension ref="B1:N182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1</f>
+        <v>id|dxcc_id|region</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>486</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>810</v>
+      </c>
+      <c r="L1" s="37" t="str">
+        <f>G1&amp;"|"&amp;H1&amp;"|"&amp;I1&amp;"|"&amp;J1&amp;"|"&amp;K1</f>
+        <v>id|pas_206_region_id|code|subdivision|import_only</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E2" s="52" t="str">
+        <f t="shared" ref="E2:E20" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2</f>
+        <v>1|248|Liguria</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2365</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="52" t="str">
+        <f t="shared" ref="L2:L65" si="1">G2&amp;"|"&amp;H2&amp;"|"&amp;I2&amp;"|"&amp;J2&amp;"|"&amp;K2</f>
+        <v>1|1|GE|Genova|0</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E3" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>2|248|Piedmont (Piemonte)</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>2|1|IM|Imperia|0</v>
+      </c>
+      <c r="N3" s="67" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|248|Aosta Valley (Valle D'Aosta)</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>707</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>3|1|SP|La Spezia|0</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>248</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|248|Lombardy (Lombardia)</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>496</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2369</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>4|1|SV|Savona|0</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>248</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|248|Veneto</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>522</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2371</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>5|2|AL|Alessandria|0</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|248|Trentino-South Tyrol (Trentino-Alto Adige)</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>6|2|AT|Asti|0</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>248</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|248|Friuli-Venezia Giulia</v>
+      </c>
+      <c r="G8" s="6">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2374</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>7|2|BI|Biella|0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|248|Emilia Romagna</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>795</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2375</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>8|2|CN|Cuneo|0</v>
+      </c>
+      <c r="N9" s="66" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>248</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|248|Tuscany (Toscana)</v>
+      </c>
+      <c r="G10" s="6">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>715</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2376</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>9|2|NO|Novara|0</v>
+      </c>
+      <c r="N10" s="66" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>248</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|248|Abruzzo</v>
+      </c>
+      <c r="G11" s="6">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>500</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2377</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>10|2|TO|Torino|0</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2443</v>
+      </c>
+      <c r="E12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|248|Marche</v>
+      </c>
+      <c r="G12" s="6">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2378</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>11|2|VB|Verbano Cusio Ossola|0</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|248|Basilicata</v>
+      </c>
+      <c r="G13" s="6">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2379</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2380</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>12|2|VC|Vercelli|0</v>
+      </c>
+      <c r="N13" s="67" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>248</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|248|Puglia</v>
+      </c>
+      <c r="G14" s="6">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>799</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2382</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>13|3|AO|Aosta|0</v>
+      </c>
+      <c r="N14" s="67" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>248</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2465</v>
+      </c>
+      <c r="E15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|248|Calabria</v>
+      </c>
+      <c r="G15" s="6">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2384</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2385</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>14|4|BG|Bergamo|0</v>
+      </c>
+      <c r="N15" s="67" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|248|Campania</v>
+      </c>
+      <c r="G16" s="6">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2386</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2387</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>15|4|BS|Brescia|0</v>
+      </c>
+      <c r="N16" s="67" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>248</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|248|Molise</v>
+      </c>
+      <c r="G17" s="6">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>857</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2388</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>16|4|CO|Como|0</v>
+      </c>
+      <c r="N17" s="66" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>248</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|248|Latium (Lazio)</v>
+      </c>
+      <c r="G18" s="6">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2389</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2390</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>17|4|CR|Cremona|0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2493</v>
+      </c>
+      <c r="E19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|248|Umbria</v>
+      </c>
+      <c r="G19" s="6">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2391</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>18|4|LC|Lecco|0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>248</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|248|Sicliy (Sicilia)</v>
+      </c>
+      <c r="G20" s="6">
+        <v>19</v>
+      </c>
+      <c r="H20" s="6">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>709</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2392</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>19|4|LO|Lodi|0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="G21" s="6">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2393</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>20|4|MB|Monza e Brianza|0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="E22" s="27" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G22" s="6">
+        <v>21</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>862</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2394</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>21|4|MN|Mantova|0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G23" s="6">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>576</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2395</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>22|4|MI|Milano|0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="85"/>
+      <c r="G24" s="6">
+        <v>23</v>
+      </c>
+      <c r="H24" s="6">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2396</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>23|4|PV|Pavia|0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
+      <c r="G25" s="6">
+        <v>24</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>791</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2397</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>24|4|SO|Sondrio|0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="85"/>
+      <c r="G26" s="6">
+        <v>25</v>
+      </c>
+      <c r="H26" s="6">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2398</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>25|4|VA|Varese|0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="85"/>
+      <c r="G27" s="6">
+        <v>26</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>26|5|BZ|Bolzano|0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="85"/>
+      <c r="G28" s="6">
+        <v>27</v>
+      </c>
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>506</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2402</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>27|5|TN|Trento|0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="85"/>
+      <c r="G29" s="6">
+        <v>28</v>
+      </c>
+      <c r="H29" s="6">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2401</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>28|6|BZ|Bolzano|0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="85"/>
+      <c r="G30" s="6">
+        <v>29</v>
+      </c>
+      <c r="H30" s="6">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>506</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2402</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>29|6|TN|Trento|0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="85"/>
+      <c r="G31" s="6">
+        <v>30</v>
+      </c>
+      <c r="H31" s="6">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>946</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2404</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>30|7|GO|Gorizia|0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="G32" s="6">
+        <v>31</v>
+      </c>
+      <c r="H32" s="6">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2406</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>31|7|PN|Pordenone|0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="85"/>
+      <c r="G33" s="6">
+        <v>32</v>
+      </c>
+      <c r="H33" s="6">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>32|7|TS|Trieste|0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="85"/>
+      <c r="G34" s="6">
+        <v>33</v>
+      </c>
+      <c r="H34" s="6">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>779</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2409</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>33|7|UD|Udine|0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="85"/>
+      <c r="G35" s="6">
+        <v>34</v>
+      </c>
+      <c r="H35" s="6">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>759</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2411</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>34|8|BO|Bologna|0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="85"/>
+      <c r="G36" s="6">
+        <v>35</v>
+      </c>
+      <c r="H36" s="6">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2412</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>35|8|FE|Ferrara|0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="85"/>
+      <c r="G37" s="6">
+        <v>36</v>
+      </c>
+      <c r="H37" s="6">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2413</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2511</v>
+      </c>
+      <c r="K37" s="86">
+        <v>1</v>
+      </c>
+      <c r="L37" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>36|8|FO|Forlì|1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="85"/>
+      <c r="G38" s="6">
+        <v>37</v>
+      </c>
+      <c r="H38" s="6">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2414</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2415</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>37|8|FC|Forlì-Cesena|0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="85"/>
+      <c r="G39" s="6">
+        <v>38</v>
+      </c>
+      <c r="H39" s="6">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>726</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2416</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>38|8|MO|Modena|0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="85"/>
+      <c r="G40" s="6">
+        <v>39</v>
+      </c>
+      <c r="H40" s="6">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>978</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2417</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>39|8|PR|Parma|0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="85"/>
+      <c r="G41" s="6">
+        <v>40</v>
+      </c>
+      <c r="H41" s="6">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2418</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>40|8|PC|Piacenza|0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="85"/>
+      <c r="G42" s="6">
+        <v>41</v>
+      </c>
+      <c r="H42" s="6">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>746</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2419</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>41|8|RA|Ravenna|0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="82"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="85"/>
+      <c r="G43" s="6">
+        <v>42</v>
+      </c>
+      <c r="H43" s="6">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2420</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>42|8|RE|Reggio Emilia|0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="82"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
+      <c r="G44" s="6">
+        <v>43</v>
+      </c>
+      <c r="H44" s="6">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>960</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2421</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>43|8|RN|Rimini|0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="82"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="85"/>
+      <c r="G45" s="6">
+        <v>44</v>
+      </c>
+      <c r="H45" s="6">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>713</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2423</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>44|9|AR|Arezzo|0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="82"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="85"/>
+      <c r="G46" s="6">
+        <v>45</v>
+      </c>
+      <c r="H46" s="6">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2424</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2425</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>45|9|FI|Firenze|0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="82"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="85"/>
+      <c r="G47" s="6">
+        <v>46</v>
+      </c>
+      <c r="H47" s="6">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>859</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2426</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>46|9|GR|Grosseto|0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="82"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="85"/>
+      <c r="G48" s="6">
+        <v>47</v>
+      </c>
+      <c r="H48" s="6">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>835</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2427</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>47|9|LI|Livorno|0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="85"/>
+      <c r="G49" s="6">
+        <v>48</v>
+      </c>
+      <c r="H49" s="6">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2428</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>48|9|LU|Lucca|0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="85"/>
+      <c r="G50" s="6">
+        <v>49</v>
+      </c>
+      <c r="H50" s="6">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>863</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2429</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>49|9|MS|Massa Carrara|0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="82"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="85"/>
+      <c r="G51" s="6">
+        <v>50</v>
+      </c>
+      <c r="H51" s="6">
+        <v>9</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2431</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>50|9|PT|Pistoia|0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="85"/>
+      <c r="G52" s="6">
+        <v>51</v>
+      </c>
+      <c r="H52" s="6">
+        <v>9</v>
+      </c>
+      <c r="I52" t="s">
+        <v>962</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2432</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>51|9|PI|Pisa|0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="85"/>
+      <c r="G53" s="6">
+        <v>52</v>
+      </c>
+      <c r="H53" s="6">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J53" t="s">
+        <v>2433</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>52|9|PO|Prato|0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="82"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="85"/>
+      <c r="G54" s="6">
+        <v>53</v>
+      </c>
+      <c r="H54" s="6">
+        <v>9</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2434</v>
+      </c>
+      <c r="J54" t="s">
+        <v>2435</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>53|9|SI|Siena|0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="84"/>
+      <c r="G55" s="6">
+        <v>54</v>
+      </c>
+      <c r="H55" s="6">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>834</v>
+      </c>
+      <c r="J55" t="s">
+        <v>2437</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>54|10|CH|Chieti|0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="82"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="85"/>
+      <c r="G56" s="6">
+        <v>55</v>
+      </c>
+      <c r="H56" s="6">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>2439</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>55|10|AQ|L'Aquila|0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="82"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="85"/>
+      <c r="G57" s="6">
+        <v>56</v>
+      </c>
+      <c r="H57" s="6">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>765</v>
+      </c>
+      <c r="J57" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>56|10|PE|Pescara|0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="82"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="85"/>
+      <c r="G58" s="6">
+        <v>57</v>
+      </c>
+      <c r="H58" s="6">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2441</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2442</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>57|10|TE|Teramo|0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="82"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="85"/>
+      <c r="G59" s="6">
+        <v>58</v>
+      </c>
+      <c r="H59" s="6">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>867</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2444</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>58|11|AN|Ancona|0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="82"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="85"/>
+      <c r="G60" s="6">
+        <v>59</v>
+      </c>
+      <c r="H60" s="6">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>955</v>
+      </c>
+      <c r="J60" t="s">
+        <v>2445</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>59|11|AP|Ascoli Piceno|0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="82"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="85"/>
+      <c r="G61" s="6">
+        <v>60</v>
+      </c>
+      <c r="H61" s="6">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2446</v>
+      </c>
+      <c r="J61" t="s">
+        <v>2447</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>60|11|FM|Fermo|0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="82"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="85"/>
+      <c r="G62" s="6">
+        <v>61</v>
+      </c>
+      <c r="H62" s="6">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2448</v>
+      </c>
+      <c r="J62" t="s">
+        <v>2449</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>61|11|MC|Macerata|0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="82"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="85"/>
+      <c r="G63" s="6">
+        <v>62</v>
+      </c>
+      <c r="H63" s="6">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>721</v>
+      </c>
+      <c r="J63" t="s">
+        <v>2451</v>
+      </c>
+      <c r="K63" s="86">
+        <v>0</v>
+      </c>
+      <c r="L63" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>62|11|PS|Pesaro e Urbino|0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="82"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="85"/>
+      <c r="G64" s="6">
+        <v>63</v>
+      </c>
+      <c r="H64" s="6">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2450</v>
+      </c>
+      <c r="J64" t="s">
+        <v>2451</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>63|11|PU|Pesaro e Urbino|0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="82"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="85"/>
+      <c r="G65" s="6">
+        <v>64</v>
+      </c>
+      <c r="H65" s="6">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>864</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2453</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+      <c r="L65" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>64|12|MT|Matera|0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="82"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="85"/>
+      <c r="G66" s="6">
+        <v>65</v>
+      </c>
+      <c r="H66" s="6">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2454</v>
+      </c>
+      <c r="J66" t="s">
+        <v>2455</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="52" t="str">
+        <f t="shared" ref="L66:L100" si="2">G66&amp;"|"&amp;H66&amp;"|"&amp;I66&amp;"|"&amp;J66&amp;"|"&amp;K66</f>
+        <v>65|12|PZ|Potenza|0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="82"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="85"/>
+      <c r="G67" s="6">
+        <v>66</v>
+      </c>
+      <c r="H67" s="6">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>518</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2457</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>66|13|BA|Bari|0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="85"/>
+      <c r="G68" s="6">
+        <v>67</v>
+      </c>
+      <c r="H68" s="6">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>2458</v>
+      </c>
+      <c r="J68" t="s">
+        <v>2459</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>67|13|BT|Barletta-Andria-Trani|0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="82"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="85"/>
+      <c r="G69" s="6">
+        <v>68</v>
+      </c>
+      <c r="H69" s="6">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>578</v>
+      </c>
+      <c r="J69" t="s">
+        <v>2460</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>68|13|BR|Brindisi|0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="82"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="85"/>
+      <c r="G70" s="6">
+        <v>69</v>
+      </c>
+      <c r="H70" s="6">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2461</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2462</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>69|13|FG|Foggia|0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="82"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="85"/>
+      <c r="G71" s="6">
+        <v>70</v>
+      </c>
+      <c r="H71" s="6">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>861</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2463</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+      <c r="L71" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>70|13|LE|Lecce|0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="82"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="85"/>
+      <c r="G72" s="6">
+        <v>71</v>
+      </c>
+      <c r="H72" s="6">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>773</v>
+      </c>
+      <c r="J72" t="s">
+        <v>2464</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>71|13|TA|Taranto|0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="82"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="85"/>
+      <c r="G73" s="6">
+        <v>72</v>
+      </c>
+      <c r="H73" s="6">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2466</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2467</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>72|14|CZ|Catanzaro|0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="82"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="85"/>
+      <c r="G74" s="6">
+        <v>73</v>
+      </c>
+      <c r="H74" s="6">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2287</v>
+      </c>
+      <c r="J74" t="s">
+        <v>2468</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>73|14|CS|Cosenza|0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="82"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="85"/>
+      <c r="G75" s="6">
+        <v>74</v>
+      </c>
+      <c r="H75" s="6">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>783</v>
+      </c>
+      <c r="J75" t="s">
+        <v>2469</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>74|14|KR|Crotone|0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="82"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="85"/>
+      <c r="G76" s="6">
+        <v>75</v>
+      </c>
+      <c r="H76" s="6">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>2470</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>75|14|RC|Reggio Calabria|0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="82"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="85"/>
+      <c r="G77" s="6">
+        <v>76</v>
+      </c>
+      <c r="H77" s="6">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>2472</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2473</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0</v>
+      </c>
+      <c r="L77" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>76|14|VV|Vibo Valentia|0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="82"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="85"/>
+      <c r="G78" s="6">
+        <v>77</v>
+      </c>
+      <c r="H78" s="6">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2475</v>
+      </c>
+      <c r="J78" t="s">
+        <v>2476</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0</v>
+      </c>
+      <c r="L78" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>77|15|AV|Avellino|0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="82"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="85"/>
+      <c r="G79" s="6">
+        <v>78</v>
+      </c>
+      <c r="H79" s="6">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J79" t="s">
+        <v>2477</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>78|15|BN|Benevento|0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="82"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="85"/>
+      <c r="G80" s="6">
+        <v>79</v>
+      </c>
+      <c r="H80" s="6">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" t="s">
+        <v>2478</v>
+      </c>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
+      <c r="L80" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>79|15|CE|Caserta|0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="82"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="85"/>
+      <c r="G81" s="6">
+        <v>80</v>
+      </c>
+      <c r="H81" s="6">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J81" t="s">
+        <v>2480</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>80|15|NA|Napoli|0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="82"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="85"/>
+      <c r="G82" s="6">
+        <v>81</v>
+      </c>
+      <c r="H82" s="6">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>763</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2481</v>
+      </c>
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>81|15|SA|Salerno|0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="82"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="85"/>
+      <c r="G83" s="6">
+        <v>82</v>
+      </c>
+      <c r="H83" s="6">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>2483</v>
+      </c>
+      <c r="J83" t="s">
+        <v>2484</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0</v>
+      </c>
+      <c r="L83" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>82|16|IS|Isernia|0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="82"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="85"/>
+      <c r="G84" s="6">
+        <v>83</v>
+      </c>
+      <c r="H84" s="6">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>494</v>
+      </c>
+      <c r="J84" t="s">
+        <v>2485</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>83|16|CB|Campobasso|0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="82"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="85"/>
+      <c r="G85" s="6">
+        <v>84</v>
+      </c>
+      <c r="H85" s="6">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2487</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0</v>
+      </c>
+      <c r="L85" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>84|17|FR|Frosinone|0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="82"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="85"/>
+      <c r="G86" s="6">
+        <v>85</v>
+      </c>
+      <c r="H86" s="6">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J86" t="s">
+        <v>2489</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
+      <c r="L86" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>85|17|LT|Latina|0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="82"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="85"/>
+      <c r="G87" s="6">
+        <v>86</v>
+      </c>
+      <c r="H87" s="6">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s">
+        <v>866</v>
+      </c>
+      <c r="J87" t="s">
+        <v>2490</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0</v>
+      </c>
+      <c r="L87" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>86|17|RI|Rieti|0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="82"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="85"/>
+      <c r="G88" s="6">
+        <v>87</v>
+      </c>
+      <c r="H88" s="6">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J88" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0</v>
+      </c>
+      <c r="L88" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>87|17|RM|Roma|0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="82"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="85"/>
+      <c r="G89" s="6">
+        <v>88</v>
+      </c>
+      <c r="H89" s="6">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J89" t="s">
+        <v>2492</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>88|17|VT|Viterbo|0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="82"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="85"/>
+      <c r="G90" s="6">
+        <v>89</v>
+      </c>
+      <c r="H90" s="6">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>2494</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2495</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="L90" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>89|18|PG|Perugia|0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="82"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
+      <c r="E91" s="85"/>
+      <c r="G91" s="6">
+        <v>90</v>
+      </c>
+      <c r="H91" s="6">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2496</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
+      <c r="L91" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>90|18|TR|Terni|0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="82"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="85"/>
+      <c r="G92" s="6">
+        <v>91</v>
+      </c>
+      <c r="H92" s="6">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s">
+        <v>2498</v>
+      </c>
+      <c r="J92" t="s">
+        <v>2499</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="L92" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>91|19|AG|Agrigento|0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="82"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="85"/>
+      <c r="G93" s="6">
+        <v>92</v>
+      </c>
+      <c r="H93" s="6">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J93" t="s">
+        <v>2500</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>92|19|CL|Caltanissetta|0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="82"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="85"/>
+      <c r="G94" s="6">
+        <v>93</v>
+      </c>
+      <c r="H94" s="6">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>550</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2501</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="L94" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>93|19|CT|Catania|0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="82"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="85"/>
+      <c r="G95" s="6">
+        <v>94</v>
+      </c>
+      <c r="H95" s="6">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2502</v>
+      </c>
+      <c r="J95" t="s">
+        <v>2503</v>
+      </c>
+      <c r="K95" s="6">
+        <v>0</v>
+      </c>
+      <c r="L95" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>94|19|EN|Enna|0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" s="82"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="85"/>
+      <c r="G96" s="6">
+        <v>95</v>
+      </c>
+      <c r="H96" s="6">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J96" t="s">
+        <v>2504</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0</v>
+      </c>
+      <c r="L96" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>95|19|ME|Messina|0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="82"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="85"/>
+      <c r="G97" s="6">
+        <v>96</v>
+      </c>
+      <c r="H97" s="6">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>836</v>
+      </c>
+      <c r="J97" t="s">
+        <v>2505</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
+      <c r="L97" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>96|19|PA|Palermo|0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="82"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="85"/>
+      <c r="G98" s="6">
+        <v>97</v>
+      </c>
+      <c r="H98" s="6">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2506</v>
+      </c>
+      <c r="J98" t="s">
+        <v>2507</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
+      <c r="L98" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>97|19|RG|Ragusa|0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99" s="82"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="85"/>
+      <c r="G99" s="6">
+        <v>98</v>
+      </c>
+      <c r="H99" s="6">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>767</v>
+      </c>
+      <c r="J99" t="s">
+        <v>2508</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0</v>
+      </c>
+      <c r="L99" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>98|19|SR|Siracusa|0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" s="82"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="85"/>
+      <c r="G100" s="6">
+        <v>99</v>
+      </c>
+      <c r="H100" s="6">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J100" t="s">
+        <v>2510</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
+      <c r="L100" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>99|19|TP|Trapani|0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="82"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="85"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="82"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="85"/>
+      <c r="L102" s="27" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="82"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="85"/>
+      <c r="L103" s="27" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="82"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="85"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="82"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="85"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="82"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="85"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="82"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="85"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="82"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="85"/>
+    </row>
+    <row r="109" spans="2:12">
+      <c r="B109" s="82"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="85"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="82"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="85"/>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="82"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="85"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="82"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="85"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="82"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="85"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="82"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="85"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="82"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="85"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="82"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="85"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="82"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="85"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="82"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="85"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="82"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="85"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="82"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="85"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="82"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="85"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="82"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="83"/>
+      <c r="E122" s="85"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="82"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="85"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="82"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="83"/>
+      <c r="E124" s="85"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="82"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="85"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="82"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="83"/>
+      <c r="E126" s="85"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="82"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="85"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="82"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="83"/>
+      <c r="E128" s="85"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="82"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="85"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="82"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="85"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="82"/>
+      <c r="C131" s="83"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="85"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="82"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="85"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="82"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="85"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="82"/>
+      <c r="C134" s="83"/>
+      <c r="D134" s="83"/>
+      <c r="E134" s="85"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="82"/>
+      <c r="C135" s="83"/>
+      <c r="D135" s="83"/>
+      <c r="E135" s="85"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="82"/>
+      <c r="C136" s="83"/>
+      <c r="D136" s="83"/>
+      <c r="E136" s="85"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="82"/>
+      <c r="C137" s="83"/>
+      <c r="D137" s="83"/>
+      <c r="E137" s="85"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="82"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="85"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="82"/>
+      <c r="C139" s="83"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="85"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="82"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="85"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="82"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="85"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="82"/>
+      <c r="C142" s="83"/>
+      <c r="D142" s="83"/>
+      <c r="E142" s="85"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="82"/>
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="85"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="82"/>
+      <c r="C144" s="83"/>
+      <c r="D144" s="83"/>
+      <c r="E144" s="85"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="82"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="83"/>
+      <c r="E145" s="85"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="82"/>
+      <c r="C146" s="83"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="85"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="82"/>
+      <c r="C147" s="83"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="85"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="82"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="85"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="82"/>
+      <c r="C149" s="83"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="85"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="82"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="85"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="82"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="85"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="82"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="85"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="82"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="83"/>
+      <c r="E153" s="85"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="82"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="83"/>
+      <c r="E154" s="85"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="82"/>
+      <c r="C155" s="83"/>
+      <c r="D155" s="83"/>
+      <c r="E155" s="85"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="82"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="85"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="82"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="83"/>
+      <c r="E157" s="85"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="82"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="85"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="82"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="85"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="82"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="83"/>
+      <c r="E160" s="85"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="82"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="83"/>
+      <c r="E161" s="85"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="82"/>
+      <c r="C162" s="83"/>
+      <c r="D162" s="83"/>
+      <c r="E162" s="85"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="82"/>
+      <c r="C163" s="83"/>
+      <c r="D163" s="83"/>
+      <c r="E163" s="85"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="82"/>
+      <c r="C164" s="83"/>
+      <c r="D164" s="83"/>
+      <c r="E164" s="85"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="82"/>
+      <c r="C165" s="83"/>
+      <c r="D165" s="83"/>
+      <c r="E165" s="85"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="82"/>
+      <c r="C166" s="83"/>
+      <c r="D166" s="83"/>
+      <c r="E166" s="85"/>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="82"/>
+      <c r="C167" s="83"/>
+      <c r="D167" s="83"/>
+      <c r="E167" s="85"/>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="82"/>
+      <c r="C168" s="83"/>
+      <c r="D168" s="83"/>
+      <c r="E168" s="85"/>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="82"/>
+      <c r="C169" s="83"/>
+      <c r="D169" s="83"/>
+      <c r="E169" s="85"/>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="82"/>
+      <c r="C170" s="83"/>
+      <c r="D170" s="83"/>
+      <c r="E170" s="85"/>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="82"/>
+      <c r="C171" s="83"/>
+      <c r="D171" s="83"/>
+      <c r="E171" s="85"/>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="82"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="83"/>
+      <c r="E172" s="85"/>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="82"/>
+      <c r="C173" s="83"/>
+      <c r="D173" s="83"/>
+      <c r="E173" s="85"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="82"/>
+      <c r="C174" s="83"/>
+      <c r="D174" s="83"/>
+      <c r="E174" s="85"/>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="82"/>
+      <c r="C175" s="83"/>
+      <c r="D175" s="83"/>
+      <c r="E175" s="85"/>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="C176" s="81"/>
+      <c r="D176" s="81"/>
+    </row>
+    <row r="177" spans="3:4">
+      <c r="C177" s="81"/>
+      <c r="D177" s="81"/>
+    </row>
+    <row r="178" spans="3:4">
+      <c r="C178" s="81"/>
+      <c r="D178" s="81"/>
+    </row>
+    <row r="179" spans="3:4">
+      <c r="C179" s="81"/>
+      <c r="D179" s="81"/>
+    </row>
+    <row r="180" spans="3:4">
+      <c r="C180" s="81"/>
+      <c r="D180" s="81"/>
+    </row>
+    <row r="181" spans="3:4">
+      <c r="C181" s="81"/>
+      <c r="D181" s="81"/>
+    </row>
+    <row r="182" spans="3:4">
+      <c r="C182" s="81"/>
+      <c r="D182" s="81"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D276320-DC50-4D45-AC00-2E73415F8729}">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="57" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|256|MD|Madeira</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="F4" s="27" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="F5" s="27" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFFAA39-3052-4F11-A11C-A583A7D79A3C}">
+  <dimension ref="B1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>263</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|263|DR|Drenthe</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>263</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2519</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F13" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|263|FR|Friesland</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>263</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|263|GR|Groningen</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>263</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|263|NB|Noord-Brabant</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>263</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|263|OV|Overijssel</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>263</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|263|ZH|Zuid-Holland</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>263</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2526</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|263|FL|Flevoland</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>263</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|263|GD|Gelderland</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>263</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|263|LB|Limburg</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>263</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2528</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|263|NH|Noord-Holland</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>263</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|263|UT|Utrecht</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>263</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|263|ZL|Zeeland</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="F15" s="27" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="F16" s="27" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CEC77A-4FD5-4681-AB99-A2D2C7550101}">
+  <dimension ref="B1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>269</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|269|Z|Zachodnio-Pomorskie</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>269</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F17" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|269|F|Pomorskie</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>269</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|269|P|Kujawsko-Pomorskie</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>269</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|269|B|Lubuskie</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>269</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|269|W|Wielkopolskie</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>269</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|269|J|Warminsko-Mazurskie</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>269</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|269|O|Podlaskie</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>269</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|269|R|Mazowieckie</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>269</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|269|D|Dolnoslaskie</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>269</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|269|U|Opolskie</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>269</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|269|C|Lodzkie</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>269</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|269|S|Swietokrzyskie</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>269</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2547</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|269|K|Podkarpackie</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>269</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|269|L|Lubelskie</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>269</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2549</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|269|G|Slaskie</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>269</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|269|M|Malopolskie</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="F19" s="27" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="F20" s="27" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DF0043-7F07-40CE-ADA1-67E85AE9C604}">
+  <dimension ref="B1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>272</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|272|AV|Aveiro</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>272</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F19" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|272|BJ|Beja</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>272</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|272|BR|Braga</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>272</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|272|BG|Bragança</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>272</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|272|CB|Castelo Branco</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>272</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|272|CO|Coimbra</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>272</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|272|EV|Evora</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>272</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|272|FR|Faro</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>272</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|272|GD|Guarda</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>272</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|272|LR|Leiria</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>272</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|272|LX|Lisboa</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>272</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|272|PG|Portalegre</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>272</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|272|PT|Porto</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>272</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|272|SR|Santarem</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>272</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|272|ST|Setubal</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>272</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|272|VC|Viana do Castelo</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>272</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|272|VR|Vila Real</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>272</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|272|VS|Viseu</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="F21" s="27" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="F22" s="27" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70F4D31-3A7B-4B14-9816-1C2387AB27AF}">
+  <dimension ref="B1:F46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>275</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|275|AR|Arad</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>275</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F43" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|275|CS|Cara'-Severin</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>275</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|275|HD|Hunedoara</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>275</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|275|TM|Timiş (Timis)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>275</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|275|BU|Bucureşti (Bucure'ti)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>275</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|275|IF|Ilfov</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>275</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2582</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|275|BR|Brăila (Braila)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>275</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|275|CT|Conatarta</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>275</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|275|GL|Galati</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>275</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|275|TL|Tulcea</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>275</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|275|VN|Vrancea</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>275</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|275|AB|Alba</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>275</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|275|BH|Bihor</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>275</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|275|BN|Bistrita-Nasaud</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>275</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|275|CJ|Cluj</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>275</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|275|MM|Maramureş (Maramures)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>275</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|275|SJ|Sălaj (Salaj)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>275</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|275|SM|Satu Mare</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>275</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|275|BV|Braşov (Bra'ov)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>275</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|275|CV|Covasna</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>275</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F22" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>21|275|HR|Harghita</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
+        <v>275</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F23" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>22|275|MS|Mureş (Mures)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>275</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2604</v>
+      </c>
+      <c r="F24" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>23|275|SB|Sibiu</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>275</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F25" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>24|275|AG|Arge'</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>275</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F26" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>25|275|DJ|Dolj</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>275</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F27" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>26|275|GJ|Gorj</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6">
+        <v>275</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F28" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>27|275|MH|Mehedinţi (Mehedinti)</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6">
+        <v>275</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F29" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>28|275|OT|Olt</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6">
+        <v>275</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>29|275|VL|Vâlcea</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6">
+        <v>275</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2613</v>
+      </c>
+      <c r="F31" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>30|275|BC|Bacau</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6">
+        <v>275</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F32" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>31|275|BT|Boto'ani</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6">
+        <v>275</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F33" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>32|275|IS|Iaşi (Iasi)</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6">
+        <v>275</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F34" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>33|275|NT|Neamţ (Neamt)</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6">
+        <v>275</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F35" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>34|275|SV|Suceava</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="6">
+        <v>275</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F36" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>35|275|VS|Vaslui</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6">
+        <v>275</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F37" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>36|275|BZ|Buzău (Buzau)</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="6">
+        <v>275</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F38" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>37|275|CL|Călăraşi (Calarasi)</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="6">
+        <v>275</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2622</v>
+      </c>
+      <c r="F39" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>38|275|DB|Dâmboviţa (Dambovita)</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="6">
+        <v>275</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F40" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>39|275|GR|Giurqiu</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="6">
+        <v>275</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2624</v>
+      </c>
+      <c r="F41" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>40|275|IL|Ialomita</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="6">
+        <v>275</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2626</v>
+      </c>
+      <c r="F42" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>41|275|PH|Prahova</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="6">
+        <v>275</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F43" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>42|275|TR|Teleorman</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="F45" s="27" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="F46" s="27" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B6CEA5-EC57-4626-A98C-DB35D9DB00C7}">
+  <dimension ref="B1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>281</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|281|AV|Avila</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>281</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F48" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|281|BU|Burgos</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>281</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|281|C|A Coruña</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>281</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E5" t="s">
+        <v>878</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|281|LE|Leon</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>281</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="E6" t="s">
+        <v>919</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|281|LO|La Rioja</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>281</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2635</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|281|LU|Lugo</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>281</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2636</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|281|O|Asturias</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>281</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|281|OU|Ourense</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>281</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|281|P|Palencia</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>281</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2640</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|281|PO|Pontevedra</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>281</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|281|S|Cantabria</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>281</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2642</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|281|SA|Salamanca</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>281</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|281|SG|Segovia</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>281</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|281|SO|Soria</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>281</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|281|VA|Valladolid</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>281</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|281|ZA|Zamora</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>281</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|281|BI|Vizcaya</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>281</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|281|HU|Huesca</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>281</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|281|NA|Navarra</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>281</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|281|SS|Guipuzcoa</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>281</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F22" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>21|281|TE|Teruel</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
+        <v>281</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F23" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>22|281|VI|Alava</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>281</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F24" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>23|281|Z|Zaragoza</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>281</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F25" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>24|281|B|Barcelona</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>281</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2656</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2657</v>
+      </c>
+      <c r="F26" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>25|281|GI|Girona</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>281</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F27" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>26|281|L|Lleida</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6">
+        <v>281</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F28" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>27|281|T|Tarragona</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6">
+        <v>281</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F29" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>28|281|BA|Badajoz</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6">
+        <v>281</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>29|281|CC|Caceres</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6">
+        <v>281</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F31" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>30|281|CR|Ciudad Real</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6">
+        <v>281</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F32" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>31|281|CU|Cuenca</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6">
+        <v>281</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F33" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>32|281|GU|Guadalajara</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6">
+        <v>281</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F34" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>33|281|M|Madrid</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6">
+        <v>281</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F35" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>34|281|TO|Toledo</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="6">
+        <v>281</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F36" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>35|281|A|Alicante</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6">
+        <v>281</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2669</v>
+      </c>
+      <c r="F37" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>36|281|AB|Albacete</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="6">
+        <v>281</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F38" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>37|281|CS|Castellon</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="6">
+        <v>281</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F39" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>38|281|MU|Murcia</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="6">
+        <v>281</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F40" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>39|281|V|Valencia</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="6">
+        <v>281</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F41" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>40|281|AL|Almeria</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="6">
+        <v>281</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2674</v>
+      </c>
+      <c r="F42" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>41|281|CA|Cadiz</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="6">
+        <v>281</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="E43" t="s">
+        <v>897</v>
+      </c>
+      <c r="F43" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>42|281|CO|Cordoba</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="6">
+        <v>281</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E44" t="s">
+        <v>876</v>
+      </c>
+      <c r="F44" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>43|281|GR|Granada</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="6">
+        <v>281</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F45" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>44|281|H|Huelva</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="6">
+        <v>45</v>
+      </c>
+      <c r="C46" s="6">
+        <v>281</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F46" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>45|281|J|Jaen</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="6">
+        <v>46</v>
+      </c>
+      <c r="C47" s="6">
+        <v>281</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F47" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>46|281|MA|Malaga</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="6">
+        <v>47</v>
+      </c>
+      <c r="C48" s="6">
+        <v>281</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F48" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>47|281|SE|Sevilla</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="27" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="27" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C0F3ED-B98D-4C4D-B21E-57F69626EB9D}">
+  <dimension ref="B1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>284</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|284|AB|Stockholm län</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>284</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F22" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|284|I|Gotlands län</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>284</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|284|BD|Norrbottens län</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>284</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|284|AC|Västerbottens län</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>284</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2686</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|284|X|Gävleborgs län</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>284</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|284|Z|Jämtlands län</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>284</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|284|Y|Västernorrlands län</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>284</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|284|W|Dalarna län</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>284</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|284|S|Värmlands län</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>284</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|284|O|Västra Götalands län</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>284</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|284|T|Örebro län</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>284</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|284|E|Östergötlands län</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>284</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|284|D|Södermanlands län</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>284</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2695</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|284|C|Uppsala län</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>284</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|284|U|Västmanlands län</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>284</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|284|N|Hallands län</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>284</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2698</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|284|K|Blekinge län</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>284</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|284|F|Jönköpings län</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>284</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|284|H|Kalmar län</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>284</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|284|G|Kronobergs län</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>284</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F22" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>21|284|L|Skåne län</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="27" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="27" t="s">
+        <v>2679</v>
       </c>
     </row>
   </sheetData>
@@ -45810,6 +53466,1052 @@
     <row r="5" spans="2:6">
       <c r="F5" s="55" t="s">
         <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5535AFA5-60ED-4E38-8CCF-032DFA881EE6}">
+  <dimension ref="B1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>287</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2498</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|287|AG|Aargau</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>287</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F27" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|287|AR|Appenzell Ausserrhoden</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>287</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2707</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2708</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|287|AI|Appenzell Innerrhoden</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>287</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|287|BL|Basel Landschaft</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>287</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|287|BS|Basel Stadt</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>287</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|287|BE|Bern</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>287</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|287|FR|Freiburg / Fribourg</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>287</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|287|GE|Genf / Genève</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>287</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|287|GL|Glarus</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>287</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|287|GR|Graubuenden / Grisons</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>287</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|287|JU|Jura</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>287</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|287|LU|Luzern</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>287</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|287|NE|Neuenburg / Neuchâtel</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>287</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|287|NW|Nidwalden</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>287</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|287|OW|Obwalden</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>287</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|287|SH|Schaffhausen</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>287</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2721</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|287|SZ|Schwyz</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>287</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|287|SO|Solothurn</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>287</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|287|SG|St. Gallen</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>287</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|287|TI|Tessin / Ticino</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>287</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F22" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>21|287|TG|Thurgau</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
+        <v>287</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F23" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>22|287|UR|Uri</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>287</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F24" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>23|287|VD|Waadt / Vaud</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>287</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F25" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>24|287|VS|Wallis / Valais</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>287</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F26" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>25|287|ZH|Zuerich</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>287</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F27" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>26|287|ZG|Zug</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" s="27" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="27" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C70ABE3-5839-423E-A405-96B797C175C3}">
+  <dimension ref="B1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1" s="37" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1</f>
+        <v>id|dxcc_id|code|subdivision</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>288</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F2" s="52" t="str">
+        <f>B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2</f>
+        <v>1|288|SU|Sums'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>288</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F3" s="52" t="str">
+        <f t="shared" ref="F3:F27" si="0">B3&amp;"|"&amp;C3&amp;"|"&amp;D3&amp;"|"&amp;E3</f>
+        <v>2|288|TE|Ternopil's'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>288</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>3|288|CH|Cherkas'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>288</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>4|288|ZA|Zakarpats'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>288</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2740</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>5|288|DN|Dnipropetrovs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>288</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>6|288|OD|Odes'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>288</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>7|288|HE|Khersons'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>288</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>8|288|PO|Poltavs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>288</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>9|288|DO|Donets'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>288</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F11" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>10|288|RI|Rivnens'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>288</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F12" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>11|288|HA|Kharkivs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>288</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F13" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>12|288|LU|Luhans'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>288</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F14" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>13|288|VI|Vinnyts'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>288</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F15" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>14|288|VO|Volyos'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>288</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F16" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>15|288|ZP|Zaporiz'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>288</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F17" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>16|288|CR|Chernihivs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>288</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F18" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>17|288|IF|Ivano-Frankivs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>288</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F19" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>18|288|HM|Khmel'nyts'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6">
+        <v>288</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>19|288|KV|Kyïv</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>288</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F21" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>20|288|KO|Kyivs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>288</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F22" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>21|288|KI|Kirovohrads'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6">
+        <v>288</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F23" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>22|288|LV|L'vivs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>288</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2762</v>
+      </c>
+      <c r="F24" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>23|288|ZH|Zhytomyrs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>288</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F25" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>24|288|CN|Chernivets'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>288</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2764</v>
+      </c>
+      <c r="F26" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>25|288|NI|Mykolaivs'ka Oblast'</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>288</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F27" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>26|288|KR|Respublika Krym</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6">
+        <v>288</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" s="27" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="27" t="s">
+        <v>2734</v>
       </c>
     </row>
   </sheetData>

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF62C4D2-0459-4854-8397-667604F855F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854169EE-A5D1-4CE3-8CE3-CC7CAAC4B4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5860" uniqueCount="3875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5860" uniqueCount="3881">
   <si>
     <t>t</t>
   </si>
@@ -11999,6 +11999,24 @@
   </si>
   <si>
     <t>Quebec</t>
+  </si>
+  <si>
+    <t>sas_summary_id</t>
+  </si>
+  <si>
+    <t>dxcc_code</t>
+  </si>
+  <si>
+    <t>pas_summary_id SERIAL PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>dxcc_code INT NOT NULL,</t>
+  </si>
+  <si>
+    <t>pas_subdivision_type_id SERIAL PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>sas_subdivision_type_id SERIAL PRIMARY KEY,</t>
   </si>
 </sst>
 </file>
@@ -12912,7 +12930,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -29537,22 +29555,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="3.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="6" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="76.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="92.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29561,10 +29579,10 @@
         <v>3781</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>403</v>
+        <v>3875</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>413</v>
+        <v>3876</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>414</v>
@@ -29580,27 +29598,27 @@
       </c>
       <c r="H1" s="2" t="str">
         <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1&amp;"|"&amp;E1&amp;"|"&amp;F1&amp;"|"&amp;G1</f>
-        <v>id|dxcc_id|pas_subdivision_type_id|has_oblast|has_sas|sas_subdivision_type_id</v>
+        <v>sas_summary_id|dxcc_code|pas_subdivision_type_id|has_oblast|has_sas|sas_subdivision_type_id</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>418</v>
       </c>
       <c r="M1" s="2" t="str">
         <f>K1&amp;"|"&amp;L1</f>
-        <v>id|pas_subdivision_type</v>
+        <v>pas_subdivision_type_id|pas_subdivision_type</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>448</v>
       </c>
       <c r="Q1" s="2" t="str">
         <f>O1&amp;"|"&amp;P1</f>
-        <v>id|sas_subdivision_type</v>
+        <v>sas_subdivision_type_id|sas_subdivision_type</v>
       </c>
       <c r="S1" s="117" t="s">
         <v>3857</v>
@@ -29751,7 +29769,7 @@
         <v>3|Cities/Gun</v>
       </c>
       <c r="S4" s="118" t="s">
-        <v>1361</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -29794,7 +29812,7 @@
       </c>
       <c r="Q5" s="50"/>
       <c r="S5" s="118" t="s">
-        <v>1368</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -30230,7 +30248,7 @@
         <v>15|OKRES</v>
       </c>
       <c r="S16" s="118" t="s">
-        <v>1361</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="17" spans="2:19">
@@ -30546,7 +30564,7 @@
         <v>23|VOBLAST</v>
       </c>
       <c r="S24" s="118" t="s">
-        <v>1361</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="25" spans="2:19">

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8957FF6D-E027-4D86-A5CA-67DEBED86C55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A27409E-8246-442D-8BBE-46461B459828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29673,7 +29673,7 @@
       <c r="F2" s="17">
         <v>0</v>
       </c>
-      <c r="H2" s="49" t="str">
+      <c r="H2" s="2" t="str">
         <f t="shared" ref="H2:H65" si="0">B2&amp;"|"&amp;C2&amp;"|"&amp;D2&amp;"|"&amp;E2&amp;"|"&amp;F2&amp;"|"&amp;G2</f>
         <v>1|1|17|0|0|</v>
       </c>
@@ -29721,7 +29721,7 @@
       <c r="F3" s="17">
         <v>0</v>
       </c>
-      <c r="H3" s="49" t="str">
+      <c r="H3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2|5|10|0|0|</v>
       </c>
@@ -29773,7 +29773,7 @@
         <f>O2</f>
         <v>1</v>
       </c>
-      <c r="H4" s="49" t="str">
+      <c r="H4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3|6|21|0|1|1</v>
       </c>
@@ -29825,7 +29825,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H5" s="49" t="str">
+      <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4|15|22|1|1|2</v>
       </c>
@@ -29865,7 +29865,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="18"/>
-      <c r="H6" s="49" t="str">
+      <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5|21|17|0|0|</v>
       </c>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="49" t="str">
+      <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6|27|23|0|0|</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="49" t="str">
+      <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>7|29|17|0|0|</v>
       </c>
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="H9" s="49" t="str">
+      <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>8|32|17|0|0|</v>
       </c>
@@ -30024,7 +30024,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="18"/>
-      <c r="H10" s="49" t="str">
+      <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>9|50|21|0|0|</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="49" t="str">
+      <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>10|52|12|0|0|</v>
       </c>
@@ -30105,7 +30105,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H12" s="49" t="str">
+      <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>11|54|14|1|1|2</v>
       </c>
@@ -30145,7 +30145,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H13" s="49" t="str">
+      <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>12|61|14|1|1|2</v>
       </c>
@@ -30184,7 +30184,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="49" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13|70|17|0|0|</v>
       </c>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="49" t="str">
+      <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>14|74|6|0|0|</v>
       </c>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="49" t="str">
+      <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15|86|6|0|0|</v>
       </c>
@@ -30301,7 +30301,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="49" t="str">
+      <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>16|100|17|0|0|</v>
       </c>
@@ -30340,7 +30340,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="49" t="str">
+      <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>17|104|6|0|0|</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="49" t="str">
+      <c r="H19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>18|108|21|0|0|</v>
       </c>
@@ -30421,7 +30421,7 @@
         <f>O2</f>
         <v>1</v>
       </c>
-      <c r="H20" s="49" t="str">
+      <c r="H20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>19|110|21|0|1|1</v>
       </c>
@@ -30458,7 +30458,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="49" t="str">
+      <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>20|112|20|0|0|</v>
       </c>
@@ -30500,7 +30500,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H22" s="49" t="str">
+      <c r="H22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>21|126|14|1|1|2</v>
       </c>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="49" t="str">
+      <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>22|130|14|1|0|</v>
       </c>
@@ -30578,7 +30578,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="49" t="str">
+      <c r="H24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>23|132|6|0|0|</v>
       </c>
@@ -30620,7 +30620,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H25" s="49" t="str">
+      <c r="H25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>24|137|17|0|1|2</v>
       </c>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="49" t="str">
+      <c r="H26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>25|138|21|0|0|</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="49" t="str">
+      <c r="H27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>26|144|6|0|0|</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="49" t="str">
+      <c r="H28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>27|147|21|0|0|</v>
       </c>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="18"/>
-      <c r="H29" s="49" t="str">
+      <c r="H29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>28|148|21|0|0|</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="18"/>
-      <c r="H30" s="49" t="str">
+      <c r="H30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>29|149|8|0|0|</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="49" t="str">
+      <c r="H31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>30|150|21|0|0|</v>
       </c>
@@ -30837,7 +30837,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H32" s="49" t="str">
+      <c r="H32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>31|151|14|1|1|2</v>
       </c>
@@ -30863,7 +30863,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="H33" s="49" t="str">
+      <c r="H33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>32|153|21|0|0|</v>
       </c>
@@ -30889,7 +30889,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="49" t="str">
+      <c r="H34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>33|163|17|0|0|</v>
       </c>
@@ -30918,8 +30918,8 @@
         <f>O2</f>
         <v>1</v>
       </c>
-      <c r="H35" s="49" t="str">
-        <f t="shared" si="0"/>
+      <c r="H35" s="2" t="str">
+        <f>B35&amp;"|"&amp;C35&amp;"|"&amp;D35&amp;"|"&amp;E35&amp;"|"&amp;F35&amp;"|"&amp;G35</f>
         <v>34|170|20|0|1|1</v>
       </c>
       <c r="I35" s="16" t="s">
@@ -30947,7 +30947,7 @@
         <f>O4</f>
         <v>3</v>
       </c>
-      <c r="H36" s="49" t="str">
+      <c r="H36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>35|177|16|0|1|3</v>
       </c>
@@ -30973,7 +30973,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="49" t="str">
+      <c r="H37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>36|179|19|0|0|</v>
       </c>
@@ -31002,7 +31002,7 @@
         <f>O4</f>
         <v>3</v>
       </c>
-      <c r="H38" s="49" t="str">
+      <c r="H38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>37|192|16|0|1|3</v>
       </c>
@@ -31028,7 +31028,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="18"/>
-      <c r="H39" s="49" t="str">
+      <c r="H39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>38|206|7|0|0|</v>
       </c>
@@ -31054,7 +31054,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="18"/>
-      <c r="H40" s="49" t="str">
+      <c r="H40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>39|209|17|0|0|</v>
       </c>
@@ -31080,7 +31080,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="18"/>
-      <c r="H41" s="49" t="str">
+      <c r="H41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>40|212|14|0|0|</v>
       </c>
@@ -31106,7 +31106,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="18"/>
-      <c r="H42" s="49" t="str">
+      <c r="H42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>41|214|6|0|0|</v>
       </c>
@@ -31132,7 +31132,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="18"/>
-      <c r="H43" s="49" t="str">
+      <c r="H43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>42|221|1|0|0|</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="18"/>
-      <c r="H44" s="49" t="str">
+      <c r="H44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>43|224|10|0|0|</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="18"/>
-      <c r="H45" s="49" t="str">
+      <c r="H45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>44|225|17|0|0|</v>
       </c>
@@ -31210,7 +31210,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="18"/>
-      <c r="H46" s="49" t="str">
+      <c r="H46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>45|227|6|0|0|</v>
       </c>
@@ -31236,7 +31236,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="18"/>
-      <c r="H47" s="49" t="str">
+      <c r="H47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>46|230|2|0|0|</v>
       </c>
@@ -31262,7 +31262,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="18"/>
-      <c r="H48" s="49" t="str">
+      <c r="H48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>47|239|13|0|0|</v>
       </c>
@@ -31288,7 +31288,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="18"/>
-      <c r="H49" s="49" t="str">
+      <c r="H49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>48|245|5|0|0|</v>
       </c>
@@ -31314,7 +31314,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="18"/>
-      <c r="H50" s="49" t="str">
+      <c r="H50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>49|248|17|0|0|</v>
       </c>
@@ -31340,7 +31340,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="18"/>
-      <c r="H51" s="49" t="str">
+      <c r="H51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>50|256|8|0|0|</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="18"/>
-      <c r="H52" s="49" t="str">
+      <c r="H52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>51|263|17|0|0|</v>
       </c>
@@ -31392,7 +31392,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="18"/>
-      <c r="H53" s="49" t="str">
+      <c r="H53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>52|269|24|0|0|</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="18"/>
-      <c r="H54" s="49" t="str">
+      <c r="H54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>53|272|8|0|0|</v>
       </c>
@@ -31444,7 +31444,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="18"/>
-      <c r="H55" s="49" t="str">
+      <c r="H55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>54|275|9|0|0|</v>
       </c>
@@ -31470,7 +31470,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="18"/>
-      <c r="H56" s="49" t="str">
+      <c r="H56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>55|281|17|0|0|</v>
       </c>
@@ -31496,7 +31496,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="18"/>
-      <c r="H57" s="49" t="str">
+      <c r="H57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>56|284|11|0|0|</v>
       </c>
@@ -31522,8 +31522,8 @@
         <v>0</v>
       </c>
       <c r="G58" s="18"/>
-      <c r="H58" s="49" t="str">
-        <f t="shared" si="0"/>
+      <c r="H58" s="2" t="str">
+        <f>B58&amp;"|"&amp;C58&amp;"|"&amp;D58&amp;"|"&amp;E58&amp;"|"&amp;F58&amp;"|"&amp;G58</f>
         <v>57|287|3|0|0|</v>
       </c>
       <c r="I58" s="16" t="s">
@@ -31551,7 +31551,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H59" s="49" t="str">
+      <c r="H59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>58|288|14|0|1|2</v>
       </c>
@@ -31580,7 +31580,7 @@
         <f>O3</f>
         <v>2</v>
       </c>
-      <c r="H60" s="49" t="str">
+      <c r="H60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>59|291|21|0|1|2</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="18"/>
-      <c r="H61" s="49" t="str">
+      <c r="H61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>60|318|17|0|0|</v>
       </c>
@@ -31632,7 +31632,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="18"/>
-      <c r="H62" s="49" t="str">
+      <c r="H62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>61|327|18|0|0|</v>
       </c>
@@ -31661,7 +31661,7 @@
         <f>O4</f>
         <v>3</v>
       </c>
-      <c r="H63" s="49" t="str">
+      <c r="H63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>62|339|16|0|1|3</v>
       </c>
@@ -31687,7 +31687,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="18"/>
-      <c r="H64" s="49" t="str">
+      <c r="H64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>63|375|17|0|0|</v>
       </c>
@@ -31713,7 +31713,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="18"/>
-      <c r="H65" s="49" t="str">
+      <c r="H65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>64|386|5|0|0|</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="18"/>
-      <c r="H66" s="49" t="str">
+      <c r="H66" s="2" t="str">
         <f t="shared" ref="H66:H69" si="3">B66&amp;"|"&amp;C66&amp;"|"&amp;D66&amp;"|"&amp;E66&amp;"|"&amp;F66&amp;"|"&amp;G66</f>
         <v>65|387|4|0|0|</v>
       </c>
@@ -31765,7 +31765,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="18"/>
-      <c r="H67" s="49" t="str">
+      <c r="H67" s="2" t="str">
         <f t="shared" si="3"/>
         <v>66|497|25|0|0|</v>
       </c>
@@ -31791,7 +31791,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="18"/>
-      <c r="H68" s="49" t="str">
+      <c r="H68" s="2" t="str">
         <f t="shared" si="3"/>
         <v>67|503|15|0|0|</v>
       </c>
@@ -31817,7 +31817,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="18"/>
-      <c r="H69" s="49" t="str">
+      <c r="H69" s="2" t="str">
         <f t="shared" si="3"/>
         <v>68|504|15|0|0|</v>
       </c>

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A27409E-8246-442D-8BBE-46461B459828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA4435-F619-4F54-99D6-ACE1FD920C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31577,12 +31577,12 @@
         <v>1</v>
       </c>
       <c r="G60" s="20">
-        <f>O3</f>
-        <v>2</v>
+        <f>O2</f>
+        <v>1</v>
       </c>
       <c r="H60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>59|291|21|0|1|2</v>
+        <v>59|291|21|0|1|1</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>423</v>

--- a/src/pgsql/adif-pas/adif-pas-master.xlsx
+++ b/src/pgsql/adif-pas/adif-pas-master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Git\Projects\ards-tools\src\pgsql\adif-pas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63936E3D-DFD7-42A9-9D60-7763248F8A5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E0BBB-CE36-451D-8C78-E841EA860500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12536,8 +12536,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -12832,7 +12833,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13151,6 +13152,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -13164,33 +13171,9 @@
     <cellStyle name="Normal_pas_summary" xfId="3" xr:uid="{4AD1CB7B-29C7-477B-BDD3-7523A6CDF74E}"/>
     <cellStyle name="Note" xfId="9" builtinId="10"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -13529,8 +13512,8 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36489,7 +36472,7 @@
     <col min="9" max="9" width="5.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="120" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="120" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="143" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="78.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="63" bestFit="1" customWidth="1"/>
@@ -36527,7 +36510,7 @@
       <c r="K1" s="119" t="s">
         <v>543</v>
       </c>
-      <c r="L1" s="119" t="s">
+      <c r="L1" s="142" t="s">
         <v>4047</v>
       </c>
       <c r="M1" s="36" t="str">
@@ -36565,7 +36548,7 @@
         <v>1240</v>
       </c>
       <c r="M2" s="50" t="str">
-        <f>G2&amp;"|"&amp;H2&amp;"|"&amp;I2&amp;"|"&amp;J2&amp;"|"&amp;IF(K2 &lt;&gt; "",TEXT(K2,"yyyy-mm-dd"),"")&amp;"|"&amp;IF(L2 &lt;&gt; "",TEXT(K2,"yyyy-mm-dd"),"")</f>
+        <f>G2&amp;"|"&amp;H2&amp;"|"&amp;I2&amp;"|"&amp;J2&amp;"|"&amp;IF(K2 &lt;&gt; "",TEXT(K2,"yyyy-mm-dd"),"")&amp;"|"&amp;IF(L2 &lt;&gt; "",TEXT(L2,"yyyy-mm-dd"),"")</f>
         <v>1|1|WC|Wien||</v>
       </c>
       <c r="O2" s="132" t="s">
@@ -36599,7 +36582,7 @@
         <v>1242</v>
       </c>
       <c r="M3" s="50" t="str">
-        <f t="shared" ref="M3:M66" si="1">G3&amp;"|"&amp;H3&amp;"|"&amp;I3&amp;"|"&amp;J3&amp;"|"&amp;IF(K3 &lt;&gt; "",TEXT(K3,"yyyy-mm-dd"),"")&amp;"|"&amp;IF(L3 &lt;&gt; "",TEXT(K3,"yyyy-mm-dd"),"")</f>
+        <f t="shared" ref="M3:M66" si="1">G3&amp;"|"&amp;H3&amp;"|"&amp;I3&amp;"|"&amp;J3&amp;"|"&amp;IF(K3 &lt;&gt; "",TEXT(K3,"yyyy-mm-dd"),"")&amp;"|"&amp;IF(L3 &lt;&gt; "",TEXT(L3,"yyyy-mm-dd"),"")</f>
         <v>2|2|HA|Hallein||</v>
       </c>
       <c r="O3" s="133" t="s">
@@ -37810,12 +37793,12 @@
       <c r="J62" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="L62" s="120">
+      <c r="L62" s="143">
         <v>41275</v>
       </c>
       <c r="M62" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>61|6|BM|Bruck/Mur||1900-01-00</v>
+        <v>61|6|BM|Bruck/Mur||2013-01-01</v>
       </c>
     </row>
     <row r="63" spans="5:13">
@@ -37914,7 +37897,7 @@
         <v>3614</v>
       </c>
       <c r="M67" s="50" t="str">
-        <f t="shared" ref="M67:M107" si="2">G67&amp;"|"&amp;H67&amp;"|"&amp;I67&amp;"|"&amp;J67&amp;"|"&amp;IF(K67 &lt;&gt; "",TEXT(K67,"yyyy-mm-dd"),"")&amp;"|"&amp;IF(L67 &lt;&gt; "",TEXT(K67,"yyyy-mm-dd"),"")</f>
+        <f t="shared" ref="M67:M107" si="2">G67&amp;"|"&amp;H67&amp;"|"&amp;I67&amp;"|"&amp;J67&amp;"|"&amp;IF(K67 &lt;&gt; "",TEXT(K67,"yyyy-mm-dd"),"")&amp;"|"&amp;IF(L67 &lt;&gt; "",TEXT(L67,"yyyy-mm-dd"),"")</f>
         <v>66|6|GB|Grobming||</v>
       </c>
     </row>
@@ -37988,12 +37971,12 @@
       <c r="J71" s="1" t="s">
         <v>4048</v>
       </c>
-      <c r="L71" s="120">
+      <c r="L71" s="143">
         <v>41275</v>
       </c>
       <c r="M71" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>70|6|HF|Hartberg-Furstenfeld||1900-01-00</v>
+        <v>70|6|HF|Hartberg-Furstenfeld||2013-01-01</v>
       </c>
     </row>
     <row r="72" spans="7:13">
@@ -38123,12 +38106,12 @@
       <c r="J78" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="L78" s="120">
+      <c r="L78" s="143">
         <v>40909</v>
       </c>
       <c r="M78" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>77|6|MT|Murtal||1900-01-00</v>
+        <v>77|6|MT|Murtal||2012-01-01</v>
       </c>
     </row>
     <row r="79" spans="7:13">
@@ -38205,12 +38188,12 @@
       <c r="J82" s="1" t="s">
         <v>3616</v>
       </c>
-      <c r="L82" s="120">
+      <c r="L82" s="143">
         <v>41275</v>
       </c>
       <c r="M82" s="50" t="str">
         <f t="shared" si="2"/>
-        <v>81|6|SO|Sudoststeiermark||1900-01-00</v>
+        <v>81|6|SO|Sudoststeiermark||2013-01-01</v>
       </c>
     </row>
     <row r="83" spans="5:13">
@@ -38685,6 +38668,7 @@
     <hyperlink ref="A1" location="'ENUM-LIST'!A1" display="Home" xr:uid="{EF71C3A8-0695-4D2D-BEEB-6A8603AD2B8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
